--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -602,8 +598,10 @@
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" s="2" t="n">
-        <v>45474</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01/Jul/2024</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -628,8 +626,10 @@
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" s="2" t="n">
-        <v>45535</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/Aug/2024</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -742,8 +742,10 @@
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" s="2" t="n">
-        <v>45622</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>26/Nov/2024</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -816,8 +818,10 @@
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" s="2" t="n">
-        <v>45657</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>31/Dec/2024</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -890,8 +894,10 @@
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" s="2" t="n">
-        <v>45658</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -965,8 +971,10 @@
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" s="2" t="n">
-        <v>45658</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1040,8 +1048,10 @@
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" s="2" t="n">
-        <v>45658</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1123,8 +1133,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68"}</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45658</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1209,8 +1221,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22"}</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45658</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1347,8 +1361,10 @@
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" s="2" t="n">
-        <v>45658</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1421,8 +1437,10 @@
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" s="2" t="n">
-        <v>45658</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1495,8 +1513,10 @@
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" s="2" t="n">
-        <v>45659</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>02/Jan/2025</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1577,8 +1597,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77"}</t>
         </is>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45659</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>02/Jan/2025</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1663,8 +1685,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
         </is>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45662</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>05/Jan/2025</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1741,8 +1765,10 @@
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" s="2" t="n">
-        <v>45664</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>07/Jan/2025</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1815,8 +1841,10 @@
     <row r="58">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" s="2" t="n">
-        <v>45664</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>07/Jan/2025</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1889,8 +1917,10 @@
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" s="2" t="n">
-        <v>45666</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>09/Jan/2025</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1963,8 +1993,10 @@
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" s="2" t="n">
-        <v>45672</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>15/Jan/2025</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2045,8 +2077,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
         </is>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45672</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>15/Jan/2025</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2131,8 +2165,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
         </is>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45672</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>15/Jan/2025</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2209,8 +2245,10 @@
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" s="2" t="n">
-        <v>45676</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>19/Jan/2025</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2283,8 +2321,10 @@
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" s="2" t="n">
-        <v>45677</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>20/Jan/2025</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2357,8 +2397,10 @@
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" s="2" t="n">
-        <v>45679</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>22/Jan/2025</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2431,8 +2473,10 @@
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" s="2" t="n">
-        <v>45684</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>27/Jan/2025</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2505,8 +2549,10 @@
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" s="2" t="n">
-        <v>45684</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>27/Jan/2025</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2587,8 +2633,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63"}</t>
         </is>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45685</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>28/Jan/2025</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2673,8 +2721,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93"}</t>
         </is>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45685</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>28/Jan/2025</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2751,8 +2801,10 @@
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" s="2" t="n">
-        <v>45687</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>30/Jan/2025</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2825,8 +2877,10 @@
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" s="2" t="n">
-        <v>45687</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>30/Jan/2025</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2899,8 +2953,10 @@
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" s="2" t="n">
-        <v>45687</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>30/Jan/2025</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2973,8 +3029,10 @@
     <row r="103">
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" s="2" t="n">
-        <v>45688</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>31/Jan/2025</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3087,8 +3145,10 @@
     <row r="108">
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" s="2" t="n">
-        <v>45688</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>31/Jan/2025</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5661,8 +5721,10 @@
     <row r="236">
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr"/>
-      <c r="C236" s="2" t="n">
-        <v>45689</v>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5735,8 +5797,10 @@
     <row r="239">
       <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr"/>
-      <c r="C239" s="2" t="n">
-        <v>45689</v>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5809,8 +5873,10 @@
     <row r="242">
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr"/>
-      <c r="C242" s="2" t="n">
-        <v>45689</v>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5883,8 +5949,10 @@
     <row r="245">
       <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr"/>
-      <c r="C245" s="2" t="n">
-        <v>45689</v>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5957,8 +6025,10 @@
     <row r="248">
       <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr"/>
-      <c r="C248" s="2" t="n">
-        <v>45689</v>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6031,8 +6101,10 @@
     <row r="251">
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr"/>
-      <c r="C251" s="2" t="n">
-        <v>45689</v>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6105,8 +6177,10 @@
     <row r="254">
       <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr"/>
-      <c r="C254" s="2" t="n">
-        <v>45690</v>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6339,8 +6413,10 @@
     <row r="265">
       <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr"/>
-      <c r="C265" s="2" t="n">
-        <v>45690</v>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -6413,8 +6489,10 @@
     <row r="268">
       <c r="A268" t="inlineStr"/>
       <c r="B268" t="inlineStr"/>
-      <c r="C268" s="2" t="n">
-        <v>45690</v>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -6487,8 +6565,10 @@
     <row r="271">
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr"/>
-      <c r="C271" s="2" t="n">
-        <v>45690</v>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -6561,8 +6641,10 @@
     <row r="274">
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr"/>
-      <c r="C274" s="2" t="n">
-        <v>45690</v>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -6635,8 +6717,10 @@
     <row r="277">
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr"/>
-      <c r="C277" s="2" t="n">
-        <v>45690</v>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -6929,8 +7013,10 @@
     <row r="291">
       <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr"/>
-      <c r="C291" s="2" t="n">
-        <v>45691</v>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7003,8 +7089,10 @@
     <row r="294">
       <c r="A294" t="inlineStr"/>
       <c r="B294" t="inlineStr"/>
-      <c r="C294" s="2" t="n">
-        <v>45691</v>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7077,8 +7165,10 @@
     <row r="297">
       <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr"/>
-      <c r="C297" s="2" t="n">
-        <v>45691</v>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7163,8 +7253,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
         </is>
       </c>
-      <c r="C300" s="2" t="n">
-        <v>45692</v>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>04/Feb/2025</t>
+        </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7241,8 +7333,10 @@
     <row r="303">
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr"/>
-      <c r="C303" s="2" t="n">
-        <v>45692</v>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>04/Feb/2025</t>
+        </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -7323,8 +7417,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79"}</t>
         </is>
       </c>
-      <c r="C306" s="2" t="n">
-        <v>45692</v>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>04/Feb/2025</t>
+        </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -7441,8 +7537,10 @@
     <row r="311">
       <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr"/>
-      <c r="C311" s="2" t="n">
-        <v>45693</v>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -7515,8 +7613,10 @@
     <row r="314">
       <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr"/>
-      <c r="C314" s="2" t="n">
-        <v>45693</v>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -7589,8 +7689,10 @@
     <row r="317">
       <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr"/>
-      <c r="C317" s="2" t="n">
-        <v>45693</v>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -7663,8 +7765,10 @@
     <row r="320">
       <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr"/>
-      <c r="C320" s="2" t="n">
-        <v>45693</v>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -7737,8 +7841,10 @@
     <row r="323">
       <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr"/>
-      <c r="C323" s="2" t="n">
-        <v>45693</v>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -7811,8 +7917,10 @@
     <row r="326">
       <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr"/>
-      <c r="C326" s="2" t="n">
-        <v>45693</v>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -7885,8 +7993,10 @@
     <row r="329">
       <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr"/>
-      <c r="C329" s="2" t="n">
-        <v>45693</v>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -7967,8 +8077,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50"}</t>
         </is>
       </c>
-      <c r="C332" s="2" t="n">
-        <v>45697</v>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>09/Feb/2025</t>
+        </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -8045,8 +8157,10 @@
     <row r="335">
       <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr"/>
-      <c r="C335" s="2" t="n">
-        <v>45698</v>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>10/Feb/2025</t>
+        </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -8119,8 +8233,10 @@
     <row r="338">
       <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr"/>
-      <c r="C338" s="2" t="n">
-        <v>45699</v>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -8237,8 +8353,10 @@
     <row r="343">
       <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr"/>
-      <c r="C343" s="2" t="n">
-        <v>45699</v>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -8371,8 +8489,10 @@
     <row r="349">
       <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr"/>
-      <c r="C349" s="2" t="n">
-        <v>45699</v>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -8453,8 +8573,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77"}</t>
         </is>
       </c>
-      <c r="C352" s="2" t="n">
-        <v>45699</v>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -8531,8 +8653,10 @@
     <row r="355">
       <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr"/>
-      <c r="C355" s="2" t="n">
-        <v>45700</v>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>12/Feb/2025</t>
+        </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -8646,8 +8770,10 @@
     <row r="360">
       <c r="A360" t="inlineStr"/>
       <c r="B360" t="inlineStr"/>
-      <c r="C360" s="2" t="n">
-        <v>45700</v>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>12/Feb/2025</t>
+        </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -8720,8 +8846,10 @@
     <row r="363">
       <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr"/>
-      <c r="C363" s="2" t="n">
-        <v>45701</v>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>13/Feb/2025</t>
+        </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -8794,8 +8922,10 @@
     <row r="366">
       <c r="A366" t="inlineStr"/>
       <c r="B366" t="inlineStr"/>
-      <c r="C366" s="2" t="n">
-        <v>45704</v>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -8928,8 +9058,10 @@
     <row r="372">
       <c r="A372" t="inlineStr"/>
       <c r="B372" t="inlineStr"/>
-      <c r="C372" s="2" t="n">
-        <v>45704</v>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -9042,8 +9174,10 @@
     <row r="377">
       <c r="A377" t="inlineStr"/>
       <c r="B377" t="inlineStr"/>
-      <c r="C377" s="2" t="n">
-        <v>45704</v>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -9116,8 +9250,10 @@
     <row r="380">
       <c r="A380" t="inlineStr"/>
       <c r="B380" t="inlineStr"/>
-      <c r="C380" s="2" t="n">
-        <v>45704</v>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -9230,8 +9366,10 @@
     <row r="385">
       <c r="A385" t="inlineStr"/>
       <c r="B385" t="inlineStr"/>
-      <c r="C385" s="2" t="n">
-        <v>45704</v>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -9304,8 +9442,10 @@
     <row r="388">
       <c r="A388" t="inlineStr"/>
       <c r="B388" t="inlineStr"/>
-      <c r="C388" s="2" t="n">
-        <v>45705</v>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>17/Feb/2025</t>
+        </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -9418,8 +9558,10 @@
     <row r="393">
       <c r="A393" t="inlineStr"/>
       <c r="B393" t="inlineStr"/>
-      <c r="C393" s="2" t="n">
-        <v>45705</v>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>17/Feb/2025</t>
+        </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -9492,8 +9634,10 @@
     <row r="396">
       <c r="A396" t="inlineStr"/>
       <c r="B396" t="inlineStr"/>
-      <c r="C396" s="2" t="n">
-        <v>45705</v>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>17/Feb/2025</t>
+        </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -9566,8 +9710,10 @@
     <row r="399">
       <c r="A399" t="inlineStr"/>
       <c r="B399" t="inlineStr"/>
-      <c r="C399" s="2" t="n">
-        <v>45706</v>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -9640,8 +9786,10 @@
     <row r="402">
       <c r="A402" t="inlineStr"/>
       <c r="B402" t="inlineStr"/>
-      <c r="C402" s="2" t="n">
-        <v>45706</v>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -9714,8 +9862,10 @@
     <row r="405">
       <c r="A405" t="inlineStr"/>
       <c r="B405" t="inlineStr"/>
-      <c r="C405" s="2" t="n">
-        <v>45706</v>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -9788,8 +9938,10 @@
     <row r="408">
       <c r="A408" t="inlineStr"/>
       <c r="B408" t="inlineStr"/>
-      <c r="C408" s="2" t="n">
-        <v>45706</v>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -9862,8 +10014,10 @@
     <row r="411">
       <c r="A411" t="inlineStr"/>
       <c r="B411" t="inlineStr"/>
-      <c r="C411" s="2" t="n">
-        <v>45706</v>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -9944,8 +10098,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90"}</t>
         </is>
       </c>
-      <c r="C414" s="2" t="n">
-        <v>45707</v>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>19/Feb/2025</t>
+        </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -10030,8 +10186,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82"}</t>
         </is>
       </c>
-      <c r="C417" s="2" t="n">
-        <v>45711</v>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>23/Feb/2025</t>
+        </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -10108,8 +10266,10 @@
     <row r="420">
       <c r="A420" t="inlineStr"/>
       <c r="B420" t="inlineStr"/>
-      <c r="C420" s="2" t="n">
-        <v>45712</v>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -10182,8 +10342,10 @@
     <row r="423">
       <c r="A423" t="inlineStr"/>
       <c r="B423" t="inlineStr"/>
-      <c r="C423" s="2" t="n">
-        <v>45712</v>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -10256,8 +10418,10 @@
     <row r="426">
       <c r="A426" t="inlineStr"/>
       <c r="B426" t="inlineStr"/>
-      <c r="C426" s="2" t="n">
-        <v>45712</v>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -10370,8 +10534,10 @@
     <row r="431">
       <c r="A431" t="inlineStr"/>
       <c r="B431" t="inlineStr"/>
-      <c r="C431" s="2" t="n">
-        <v>45712</v>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -10444,8 +10610,10 @@
     <row r="434">
       <c r="A434" t="inlineStr"/>
       <c r="B434" t="inlineStr"/>
-      <c r="C434" s="2" t="n">
-        <v>45712</v>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -10558,8 +10726,10 @@
     <row r="439">
       <c r="A439" t="inlineStr"/>
       <c r="B439" t="inlineStr"/>
-      <c r="C439" s="2" t="n">
-        <v>45712</v>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -10632,8 +10802,10 @@
     <row r="442">
       <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr"/>
-      <c r="C442" s="2" t="n">
-        <v>45712</v>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -10706,8 +10878,10 @@
     <row r="445">
       <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr"/>
-      <c r="C445" s="2" t="n">
-        <v>45712</v>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -10780,8 +10954,10 @@
     <row r="448">
       <c r="A448" t="inlineStr"/>
       <c r="B448" t="inlineStr"/>
-      <c r="C448" s="2" t="n">
-        <v>45712</v>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -10854,8 +11030,10 @@
     <row r="451">
       <c r="A451" t="inlineStr"/>
       <c r="B451" t="inlineStr"/>
-      <c r="C451" s="2" t="n">
-        <v>45712</v>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -10928,8 +11106,10 @@
     <row r="454">
       <c r="A454" t="inlineStr"/>
       <c r="B454" t="inlineStr"/>
-      <c r="C454" s="2" t="n">
-        <v>45712</v>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -11002,8 +11182,10 @@
     <row r="457">
       <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr"/>
-      <c r="C457" s="2" t="n">
-        <v>45712</v>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -11076,8 +11258,10 @@
     <row r="460">
       <c r="A460" t="inlineStr"/>
       <c r="B460" t="inlineStr"/>
-      <c r="C460" s="2" t="n">
-        <v>45712</v>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -11150,8 +11334,10 @@
     <row r="463">
       <c r="A463" t="inlineStr"/>
       <c r="B463" t="inlineStr"/>
-      <c r="C463" s="2" t="n">
-        <v>45712</v>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -11224,8 +11410,10 @@
     <row r="466">
       <c r="A466" t="inlineStr"/>
       <c r="B466" t="inlineStr"/>
-      <c r="C466" s="2" t="n">
-        <v>45713</v>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>25/Feb/2025</t>
+        </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -11306,8 +11494,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00"}</t>
         </is>
       </c>
-      <c r="C469" s="2" t="n">
-        <v>45713</v>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>25/Feb/2025</t>
+        </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -11392,8 +11582,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89"}</t>
         </is>
       </c>
-      <c r="C472" s="2" t="n">
-        <v>45714</v>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>26/Feb/2025</t>
+        </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -11478,8 +11670,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00"}</t>
         </is>
       </c>
-      <c r="C475" s="2" t="n">
-        <v>45714</v>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>26/Feb/2025</t>
+        </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -11564,8 +11758,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97"}</t>
         </is>
       </c>
-      <c r="C478" s="2" t="n">
-        <v>45714</v>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>26/Feb/2025</t>
+        </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -11642,8 +11838,10 @@
     <row r="481">
       <c r="A481" t="inlineStr"/>
       <c r="B481" t="inlineStr"/>
-      <c r="C481" s="2" t="n">
-        <v>45714</v>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>26/Feb/2025</t>
+        </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -11724,8 +11922,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61"}</t>
         </is>
       </c>
-      <c r="C484" s="2" t="n">
-        <v>45714</v>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>26/Feb/2025</t>
+        </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -11802,8 +12002,10 @@
     <row r="487">
       <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr"/>
-      <c r="C487" s="2" t="n">
-        <v>45715</v>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -11876,8 +12078,10 @@
     <row r="490">
       <c r="A490" t="inlineStr"/>
       <c r="B490" t="inlineStr"/>
-      <c r="C490" s="2" t="n">
-        <v>45715</v>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -11950,8 +12154,10 @@
     <row r="493">
       <c r="A493" t="inlineStr"/>
       <c r="B493" t="inlineStr"/>
-      <c r="C493" s="2" t="n">
-        <v>45715</v>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -12024,8 +12230,10 @@
     <row r="496">
       <c r="A496" t="inlineStr"/>
       <c r="B496" t="inlineStr"/>
-      <c r="C496" s="2" t="n">
-        <v>45715</v>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -12098,8 +12306,10 @@
     <row r="499">
       <c r="A499" t="inlineStr"/>
       <c r="B499" t="inlineStr"/>
-      <c r="C499" s="2" t="n">
-        <v>45715</v>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -12172,8 +12382,10 @@
     <row r="502">
       <c r="A502" t="inlineStr"/>
       <c r="B502" t="inlineStr"/>
-      <c r="C502" s="2" t="n">
-        <v>45715</v>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -12246,8 +12458,10 @@
     <row r="505">
       <c r="A505" t="inlineStr"/>
       <c r="B505" t="inlineStr"/>
-      <c r="C505" s="2" t="n">
-        <v>45715</v>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -12320,8 +12534,10 @@
     <row r="508">
       <c r="A508" t="inlineStr"/>
       <c r="B508" t="inlineStr"/>
-      <c r="C508" s="2" t="n">
-        <v>45715</v>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -12394,8 +12610,10 @@
     <row r="511">
       <c r="A511" t="inlineStr"/>
       <c r="B511" t="inlineStr"/>
-      <c r="C511" s="2" t="n">
-        <v>45715</v>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -12468,8 +12686,10 @@
     <row r="514">
       <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr"/>
-      <c r="C514" s="2" t="n">
-        <v>45715</v>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -12542,8 +12762,10 @@
     <row r="517">
       <c r="A517" t="inlineStr"/>
       <c r="B517" t="inlineStr"/>
-      <c r="C517" s="2" t="n">
-        <v>45715</v>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -12616,8 +12838,10 @@
     <row r="520">
       <c r="A520" t="inlineStr"/>
       <c r="B520" t="inlineStr"/>
-      <c r="C520" s="2" t="n">
-        <v>45715</v>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -12698,8 +12922,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37"}</t>
         </is>
       </c>
-      <c r="C523" s="2" t="n">
-        <v>45715</v>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -12816,8 +13042,10 @@
     <row r="528">
       <c r="A528" t="inlineStr"/>
       <c r="B528" t="inlineStr"/>
-      <c r="C528" s="2" t="n">
-        <v>45715</v>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -12890,8 +13118,10 @@
     <row r="531">
       <c r="A531" t="inlineStr"/>
       <c r="B531" t="inlineStr"/>
-      <c r="C531" s="2" t="n">
-        <v>45715</v>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -12964,8 +13194,10 @@
     <row r="534">
       <c r="A534" t="inlineStr"/>
       <c r="B534" t="inlineStr"/>
-      <c r="C534" s="2" t="n">
-        <v>45716</v>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>28/Feb/2025</t>
+        </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -13038,8 +13270,10 @@
     <row r="537">
       <c r="A537" t="inlineStr"/>
       <c r="B537" t="inlineStr"/>
-      <c r="C537" s="2" t="n">
-        <v>45716</v>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>28/Feb/2025</t>
+        </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -13152,8 +13386,10 @@
     <row r="542">
       <c r="A542" t="inlineStr"/>
       <c r="B542" t="inlineStr"/>
-      <c r="C542" s="2" t="n">
-        <v>45716</v>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>28/Feb/2025</t>
+        </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -15726,8 +15962,10 @@
     <row r="670">
       <c r="A670" t="inlineStr"/>
       <c r="B670" t="inlineStr"/>
-      <c r="C670" s="2" t="n">
-        <v>45717</v>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>01/Mar/2025</t>
+        </is>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -15848,8 +16086,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54"}</t>
         </is>
       </c>
-      <c r="C675" s="2" t="n">
-        <v>45717</v>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>01/Mar/2025</t>
+        </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -15926,8 +16166,10 @@
     <row r="678">
       <c r="A678" t="inlineStr"/>
       <c r="B678" t="inlineStr"/>
-      <c r="C678" s="2" t="n">
-        <v>45718</v>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>02/Mar/2025</t>
+        </is>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -16040,8 +16282,10 @@
     <row r="683">
       <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr"/>
-      <c r="C683" s="2" t="n">
-        <v>45719</v>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>03/Mar/2025</t>
+        </is>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -16174,8 +16418,10 @@
     <row r="689">
       <c r="A689" t="inlineStr"/>
       <c r="B689" t="inlineStr"/>
-      <c r="C689" s="2" t="n">
-        <v>45719</v>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>03/Mar/2025</t>
+        </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -16248,8 +16494,10 @@
     <row r="692">
       <c r="A692" t="inlineStr"/>
       <c r="B692" t="inlineStr"/>
-      <c r="C692" s="2" t="n">
-        <v>45719</v>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>03/Mar/2025</t>
+        </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -16322,8 +16570,10 @@
     <row r="695">
       <c r="A695" t="inlineStr"/>
       <c r="B695" t="inlineStr"/>
-      <c r="C695" s="2" t="n">
-        <v>45720</v>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>04/Mar/2025</t>
+        </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -16404,8 +16654,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50"}</t>
         </is>
       </c>
-      <c r="C698" s="2" t="n">
-        <v>45722</v>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>06/Mar/2025</t>
+        </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -16482,8 +16734,10 @@
     <row r="701">
       <c r="A701" t="inlineStr"/>
       <c r="B701" t="inlineStr"/>
-      <c r="C701" s="2" t="n">
-        <v>45725</v>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>09/Mar/2025</t>
+        </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -16564,8 +16818,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00"}</t>
         </is>
       </c>
-      <c r="C704" s="2" t="n">
-        <v>45725</v>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>09/Mar/2025</t>
+        </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -16650,8 +16906,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
-      <c r="C707" s="2" t="n">
-        <v>45725</v>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>09/Mar/2025</t>
+        </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -16736,8 +16994,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90"}</t>
         </is>
       </c>
-      <c r="C710" s="2" t="n">
-        <v>45726</v>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>10/Mar/2025</t>
+        </is>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -16854,8 +17114,10 @@
     <row r="715">
       <c r="A715" t="inlineStr"/>
       <c r="B715" t="inlineStr"/>
-      <c r="C715" s="2" t="n">
-        <v>45726</v>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>10/Mar/2025</t>
+        </is>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -16928,8 +17190,10 @@
     <row r="718">
       <c r="A718" t="inlineStr"/>
       <c r="B718" t="inlineStr"/>
-      <c r="C718" s="2" t="n">
-        <v>45726</v>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>10/Mar/2025</t>
+        </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -17002,8 +17266,10 @@
     <row r="721">
       <c r="A721" t="inlineStr"/>
       <c r="B721" t="inlineStr"/>
-      <c r="C721" s="2" t="n">
-        <v>45726</v>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>10/Mar/2025</t>
+        </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -17116,8 +17382,10 @@
     <row r="726">
       <c r="A726" t="inlineStr"/>
       <c r="B726" t="inlineStr"/>
-      <c r="C726" s="2" t="n">
-        <v>45728</v>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>12/Mar/2025</t>
+        </is>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -17190,8 +17458,10 @@
     <row r="729">
       <c r="A729" t="inlineStr"/>
       <c r="B729" t="inlineStr"/>
-      <c r="C729" s="2" t="n">
-        <v>45728</v>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>12/Mar/2025</t>
+        </is>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -17384,8 +17654,10 @@
     <row r="738">
       <c r="A738" t="inlineStr"/>
       <c r="B738" t="inlineStr"/>
-      <c r="C738" s="2" t="n">
-        <v>45728</v>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>12/Mar/2025</t>
+        </is>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -17518,8 +17790,10 @@
     <row r="744">
       <c r="A744" t="inlineStr"/>
       <c r="B744" t="inlineStr"/>
-      <c r="C744" s="2" t="n">
-        <v>45728</v>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>12/Mar/2025</t>
+        </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -17672,8 +17946,10 @@
     <row r="751">
       <c r="A751" t="inlineStr"/>
       <c r="B751" t="inlineStr"/>
-      <c r="C751" s="2" t="n">
-        <v>45733</v>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>17/Mar/2025</t>
+        </is>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -17746,8 +18022,10 @@
     <row r="754">
       <c r="A754" t="inlineStr"/>
       <c r="B754" t="inlineStr"/>
-      <c r="C754" s="2" t="n">
-        <v>45733</v>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>17/Mar/2025</t>
+        </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -17820,8 +18098,10 @@
     <row r="757">
       <c r="A757" t="inlineStr"/>
       <c r="B757" t="inlineStr"/>
-      <c r="C757" s="2" t="n">
-        <v>45734</v>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -17902,8 +18182,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58"}</t>
         </is>
       </c>
-      <c r="C760" s="2" t="n">
-        <v>45734</v>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -17980,8 +18262,10 @@
     <row r="763">
       <c r="A763" t="inlineStr"/>
       <c r="B763" t="inlineStr"/>
-      <c r="C763" s="2" t="n">
-        <v>45734</v>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -18174,8 +18458,10 @@
     <row r="772">
       <c r="A772" t="inlineStr"/>
       <c r="B772" t="inlineStr"/>
-      <c r="C772" s="2" t="n">
-        <v>45734</v>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -18248,8 +18534,10 @@
     <row r="775">
       <c r="A775" t="inlineStr"/>
       <c r="B775" t="inlineStr"/>
-      <c r="C775" s="2" t="n">
-        <v>45734</v>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -18330,8 +18618,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99"}</t>
         </is>
       </c>
-      <c r="C778" s="2" t="n">
-        <v>45735</v>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>19/Mar/2025</t>
+        </is>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -18408,8 +18698,10 @@
     <row r="781">
       <c r="A781" t="inlineStr"/>
       <c r="B781" t="inlineStr"/>
-      <c r="C781" s="2" t="n">
-        <v>45736</v>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>20/Mar/2025</t>
+        </is>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -18602,8 +18894,10 @@
     <row r="790">
       <c r="A790" t="inlineStr"/>
       <c r="B790" t="inlineStr"/>
-      <c r="C790" s="2" t="n">
-        <v>45736</v>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>20/Mar/2025</t>
+        </is>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -18796,8 +19090,10 @@
     <row r="799">
       <c r="A799" t="inlineStr"/>
       <c r="B799" t="inlineStr"/>
-      <c r="C799" s="2" t="n">
-        <v>45740</v>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -18870,8 +19166,10 @@
     <row r="802">
       <c r="A802" t="inlineStr"/>
       <c r="B802" t="inlineStr"/>
-      <c r="C802" s="2" t="n">
-        <v>45740</v>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -18944,8 +19242,10 @@
     <row r="805">
       <c r="A805" t="inlineStr"/>
       <c r="B805" t="inlineStr"/>
-      <c r="C805" s="2" t="n">
-        <v>45740</v>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -19018,8 +19318,10 @@
     <row r="808">
       <c r="A808" t="inlineStr"/>
       <c r="B808" t="inlineStr"/>
-      <c r="C808" s="2" t="n">
-        <v>45740</v>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -19392,8 +19694,10 @@
     <row r="826">
       <c r="A826" t="inlineStr"/>
       <c r="B826" t="inlineStr"/>
-      <c r="C826" s="2" t="n">
-        <v>45740</v>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -19506,8 +19810,10 @@
     <row r="831">
       <c r="A831" t="inlineStr"/>
       <c r="B831" t="inlineStr"/>
-      <c r="C831" s="2" t="n">
-        <v>45741</v>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>25/Mar/2025</t>
+        </is>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -19580,8 +19886,10 @@
     <row r="834">
       <c r="A834" t="inlineStr"/>
       <c r="B834" t="inlineStr"/>
-      <c r="C834" s="2" t="n">
-        <v>45741</v>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>25/Mar/2025</t>
+        </is>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -19662,8 +19970,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10"}</t>
         </is>
       </c>
-      <c r="C837" s="2" t="n">
-        <v>45741</v>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>25/Mar/2025</t>
+        </is>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -19748,8 +20058,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97"}</t>
         </is>
       </c>
-      <c r="C840" s="2" t="n">
-        <v>45741</v>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>25/Mar/2025</t>
+        </is>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -19826,8 +20138,10 @@
     <row r="843">
       <c r="A843" t="inlineStr"/>
       <c r="B843" t="inlineStr"/>
-      <c r="C843" s="2" t="n">
-        <v>45743</v>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>27/Mar/2025</t>
+        </is>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -19988,8 +20302,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94"}</t>
         </is>
       </c>
-      <c r="C850" s="2" t="n">
-        <v>45743</v>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>27/Mar/2025</t>
+        </is>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -20114,8 +20430,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77"}</t>
         </is>
       </c>
-      <c r="C855" s="2" t="n">
-        <v>45743</v>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>27/Mar/2025</t>
+        </is>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -20200,8 +20518,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68"}</t>
         </is>
       </c>
-      <c r="C858" s="2" t="n">
-        <v>45743</v>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>27/Mar/2025</t>
+        </is>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -20278,8 +20598,10 @@
     <row r="861">
       <c r="A861" t="inlineStr"/>
       <c r="B861" t="inlineStr"/>
-      <c r="C861" s="2" t="n">
-        <v>45747</v>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>31/Mar/2025</t>
+        </is>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -22832,8 +23154,10 @@
     <row r="988">
       <c r="A988" t="inlineStr"/>
       <c r="B988" t="inlineStr"/>
-      <c r="C988" s="2" t="n">
-        <v>45748</v>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>01/Apr/2025</t>
+        </is>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -22906,8 +23230,10 @@
     <row r="991">
       <c r="A991" t="inlineStr"/>
       <c r="B991" t="inlineStr"/>
-      <c r="C991" s="2" t="n">
-        <v>45748</v>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>01/Apr/2025</t>
+        </is>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -22980,8 +23306,10 @@
     <row r="994">
       <c r="A994" t="inlineStr"/>
       <c r="B994" t="inlineStr"/>
-      <c r="C994" s="2" t="n">
-        <v>45748</v>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>01/Apr/2025</t>
+        </is>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -23062,8 +23390,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95"}</t>
         </is>
       </c>
-      <c r="C997" s="2" t="n">
-        <v>45754</v>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>07/Apr/2025</t>
+        </is>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -23148,8 +23478,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86"}</t>
         </is>
       </c>
-      <c r="C1000" s="2" t="n">
-        <v>45754</v>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>07/Apr/2025</t>
+        </is>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -23234,8 +23566,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
-      <c r="C1003" s="2" t="n">
-        <v>45754</v>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>07/Apr/2025</t>
+        </is>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -23312,8 +23646,10 @@
     <row r="1006">
       <c r="A1006" t="inlineStr"/>
       <c r="B1006" t="inlineStr"/>
-      <c r="C1006" s="2" t="n">
-        <v>45754</v>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>07/Apr/2025</t>
+        </is>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -23390,8 +23726,10 @@
     <row r="1009">
       <c r="A1009" t="inlineStr"/>
       <c r="B1009" t="inlineStr"/>
-      <c r="C1009" s="2" t="n">
-        <v>45755</v>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>08/Apr/2025</t>
+        </is>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -23464,8 +23802,10 @@
     <row r="1012">
       <c r="A1012" t="inlineStr"/>
       <c r="B1012" t="inlineStr"/>
-      <c r="C1012" s="2" t="n">
-        <v>45755</v>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>08/Apr/2025</t>
+        </is>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -23538,8 +23878,10 @@
     <row r="1015">
       <c r="A1015" t="inlineStr"/>
       <c r="B1015" t="inlineStr"/>
-      <c r="C1015" s="2" t="n">
-        <v>45757</v>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>10/Apr/2025</t>
+        </is>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -23612,8 +23954,10 @@
     <row r="1018">
       <c r="A1018" t="inlineStr"/>
       <c r="B1018" t="inlineStr"/>
-      <c r="C1018" s="2" t="n">
-        <v>45757</v>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>10/Apr/2025</t>
+        </is>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -23726,8 +24070,10 @@
     <row r="1023">
       <c r="A1023" t="inlineStr"/>
       <c r="B1023" t="inlineStr"/>
-      <c r="C1023" s="2" t="n">
-        <v>45757</v>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>10/Apr/2025</t>
+        </is>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -23852,8 +24198,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03"}</t>
         </is>
       </c>
-      <c r="C1028" s="2" t="n">
-        <v>45762</v>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>15/Apr/2025</t>
+        </is>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -23938,8 +24286,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20"}</t>
         </is>
       </c>
-      <c r="C1031" s="2" t="n">
-        <v>45763</v>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>16/Apr/2025</t>
+        </is>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -24056,8 +24406,10 @@
     <row r="1036">
       <c r="A1036" t="inlineStr"/>
       <c r="B1036" t="inlineStr"/>
-      <c r="C1036" s="2" t="n">
-        <v>45763</v>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>16/Apr/2025</t>
+        </is>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -24138,8 +24490,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00"}</t>
         </is>
       </c>
-      <c r="C1039" s="2" t="n">
-        <v>45764</v>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>17/Apr/2025</t>
+        </is>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -24216,8 +24570,10 @@
     <row r="1042">
       <c r="A1042" t="inlineStr"/>
       <c r="B1042" t="inlineStr"/>
-      <c r="C1042" s="2" t="n">
-        <v>45764</v>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>17/Apr/2025</t>
+        </is>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -24290,8 +24646,10 @@
     <row r="1045">
       <c r="A1045" t="inlineStr"/>
       <c r="B1045" t="inlineStr"/>
-      <c r="C1045" s="2" t="n">
-        <v>45767</v>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>20/Apr/2025</t>
+        </is>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -24364,8 +24722,10 @@
     <row r="1048">
       <c r="A1048" t="inlineStr"/>
       <c r="B1048" t="inlineStr"/>
-      <c r="C1048" s="2" t="n">
-        <v>45767</v>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>20/Apr/2025</t>
+        </is>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -24446,8 +24806,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09"}</t>
         </is>
       </c>
-      <c r="C1051" s="2" t="n">
-        <v>45768</v>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -24644,8 +25006,10 @@
     <row r="1060">
       <c r="A1060" t="inlineStr"/>
       <c r="B1060" t="inlineStr"/>
-      <c r="C1060" s="2" t="n">
-        <v>45768</v>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -24786,8 +25150,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00"}</t>
         </is>
       </c>
-      <c r="C1066" s="2" t="n">
-        <v>45768</v>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -24864,8 +25230,10 @@
     <row r="1069">
       <c r="A1069" t="inlineStr"/>
       <c r="B1069" t="inlineStr"/>
-      <c r="C1069" s="2" t="n">
-        <v>45768</v>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -24938,8 +25306,10 @@
     <row r="1072">
       <c r="A1072" t="inlineStr"/>
       <c r="B1072" t="inlineStr"/>
-      <c r="C1072" s="2" t="n">
-        <v>45768</v>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -25121,8 +25491,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92"}</t>
         </is>
       </c>
-      <c r="C1080" s="2" t="n">
-        <v>45769</v>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>22/Apr/2025</t>
+        </is>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -25207,8 +25579,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76"}</t>
         </is>
       </c>
-      <c r="C1083" s="2" t="n">
-        <v>45769</v>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>22/Apr/2025</t>
+        </is>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -25293,8 +25667,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00"}</t>
         </is>
       </c>
-      <c r="C1086" s="2" t="n">
-        <v>45770</v>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>23/Apr/2025</t>
+        </is>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -25371,8 +25747,10 @@
     <row r="1089">
       <c r="A1089" t="inlineStr"/>
       <c r="B1089" t="inlineStr"/>
-      <c r="C1089" s="2" t="n">
-        <v>45770</v>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>23/Apr/2025</t>
+        </is>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -25445,8 +25823,10 @@
     <row r="1092">
       <c r="A1092" t="inlineStr"/>
       <c r="B1092" t="inlineStr"/>
-      <c r="C1092" s="2" t="n">
-        <v>45770</v>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>23/Apr/2025</t>
+        </is>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -25519,8 +25899,10 @@
     <row r="1095">
       <c r="A1095" t="inlineStr"/>
       <c r="B1095" t="inlineStr"/>
-      <c r="C1095" s="2" t="n">
-        <v>45770</v>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>23/Apr/2025</t>
+        </is>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
@@ -25601,8 +25983,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52"}</t>
         </is>
       </c>
-      <c r="C1098" s="2" t="n">
-        <v>45770</v>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>23/Apr/2025</t>
+        </is>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -25679,8 +26063,10 @@
     <row r="1101">
       <c r="A1101" t="inlineStr"/>
       <c r="B1101" t="inlineStr"/>
-      <c r="C1101" s="2" t="n">
-        <v>45771</v>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -25753,8 +26139,10 @@
     <row r="1104">
       <c r="A1104" t="inlineStr"/>
       <c r="B1104" t="inlineStr"/>
-      <c r="C1104" s="2" t="n">
-        <v>45771</v>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -25827,8 +26215,10 @@
     <row r="1107">
       <c r="A1107" t="inlineStr"/>
       <c r="B1107" t="inlineStr"/>
-      <c r="C1107" s="2" t="n">
-        <v>45771</v>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
@@ -25901,8 +26291,10 @@
     <row r="1110">
       <c r="A1110" t="inlineStr"/>
       <c r="B1110" t="inlineStr"/>
-      <c r="C1110" s="2" t="n">
-        <v>45771</v>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
@@ -25975,8 +26367,10 @@
     <row r="1113">
       <c r="A1113" t="inlineStr"/>
       <c r="B1113" t="inlineStr"/>
-      <c r="C1113" s="2" t="n">
-        <v>45771</v>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D1113" t="inlineStr">
         <is>
@@ -26049,8 +26443,10 @@
     <row r="1116">
       <c r="A1116" t="inlineStr"/>
       <c r="B1116" t="inlineStr"/>
-      <c r="C1116" s="2" t="n">
-        <v>45771</v>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
@@ -26127,8 +26523,10 @@
     <row r="1119">
       <c r="A1119" t="inlineStr"/>
       <c r="B1119" t="inlineStr"/>
-      <c r="C1119" s="2" t="n">
-        <v>45771</v>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -26209,8 +26607,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55"}</t>
         </is>
       </c>
-      <c r="C1122" s="2" t="n">
-        <v>45774</v>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>27/Apr/2025</t>
+        </is>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
@@ -26295,8 +26695,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78"}</t>
         </is>
       </c>
-      <c r="C1125" s="2" t="n">
-        <v>45774</v>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>27/Apr/2025</t>
+        </is>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
@@ -26381,8 +26783,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80"}</t>
         </is>
       </c>
-      <c r="C1128" s="2" t="n">
-        <v>45775</v>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>28/Apr/2025</t>
+        </is>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
@@ -26459,8 +26863,10 @@
     <row r="1131">
       <c r="A1131" t="inlineStr"/>
       <c r="B1131" t="inlineStr"/>
-      <c r="C1131" s="2" t="n">
-        <v>45775</v>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>28/Apr/2025</t>
+        </is>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
@@ -26593,8 +26999,10 @@
     <row r="1137">
       <c r="A1137" t="inlineStr"/>
       <c r="B1137" t="inlineStr"/>
-      <c r="C1137" s="2" t="n">
-        <v>45775</v>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>28/Apr/2025</t>
+        </is>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
@@ -26667,8 +27075,10 @@
     <row r="1140">
       <c r="A1140" t="inlineStr"/>
       <c r="B1140" t="inlineStr"/>
-      <c r="C1140" s="2" t="n">
-        <v>45776</v>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>29/Apr/2025</t>
+        </is>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
@@ -26741,8 +27151,10 @@
     <row r="1143">
       <c r="A1143" t="inlineStr"/>
       <c r="B1143" t="inlineStr"/>
-      <c r="C1143" s="2" t="n">
-        <v>45777</v>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -26815,8 +27227,10 @@
     <row r="1146">
       <c r="A1146" t="inlineStr"/>
       <c r="B1146" t="inlineStr"/>
-      <c r="C1146" s="2" t="n">
-        <v>45777</v>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -26957,8 +27371,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36"}</t>
         </is>
       </c>
-      <c r="C1152" s="2" t="n">
-        <v>45777</v>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
@@ -27043,8 +27459,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40"}</t>
         </is>
       </c>
-      <c r="C1155" s="2" t="n">
-        <v>45777</v>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
@@ -27129,8 +27547,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54"}</t>
         </is>
       </c>
-      <c r="C1158" s="2" t="n">
-        <v>45777</v>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -27207,8 +27627,10 @@
     <row r="1161">
       <c r="A1161" t="inlineStr"/>
       <c r="B1161" t="inlineStr"/>
-      <c r="C1161" s="2" t="n">
-        <v>45777</v>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -27281,8 +27703,10 @@
     <row r="1164">
       <c r="A1164" t="inlineStr"/>
       <c r="B1164" t="inlineStr"/>
-      <c r="C1164" s="2" t="n">
-        <v>45777</v>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -27355,8 +27779,10 @@
     <row r="1167">
       <c r="A1167" t="inlineStr"/>
       <c r="B1167" t="inlineStr"/>
-      <c r="C1167" s="2" t="n">
-        <v>45777</v>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -27429,8 +27855,10 @@
     <row r="1170">
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr"/>
-      <c r="C1170" s="2" t="n">
-        <v>45777</v>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
@@ -27543,8 +27971,10 @@
     <row r="1175">
       <c r="A1175" t="inlineStr"/>
       <c r="B1175" t="inlineStr"/>
-      <c r="C1175" s="2" t="n">
-        <v>45777</v>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -29937,8 +30367,10 @@
     <row r="1294">
       <c r="A1294" t="inlineStr"/>
       <c r="B1294" t="inlineStr"/>
-      <c r="C1294" s="2" t="n">
-        <v>45778</v>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
@@ -30011,8 +30443,10 @@
     <row r="1297">
       <c r="A1297" t="inlineStr"/>
       <c r="B1297" t="inlineStr"/>
-      <c r="C1297" s="2" t="n">
-        <v>45778</v>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -30085,8 +30519,10 @@
     <row r="1300">
       <c r="A1300" t="inlineStr"/>
       <c r="B1300" t="inlineStr"/>
-      <c r="C1300" s="2" t="n">
-        <v>45778</v>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
@@ -30159,8 +30595,10 @@
     <row r="1303">
       <c r="A1303" t="inlineStr"/>
       <c r="B1303" t="inlineStr"/>
-      <c r="C1303" s="2" t="n">
-        <v>45778</v>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -30233,8 +30671,10 @@
     <row r="1306">
       <c r="A1306" t="inlineStr"/>
       <c r="B1306" t="inlineStr"/>
-      <c r="C1306" s="2" t="n">
-        <v>45778</v>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -30307,8 +30747,10 @@
     <row r="1309">
       <c r="A1309" t="inlineStr"/>
       <c r="B1309" t="inlineStr"/>
-      <c r="C1309" s="2" t="n">
-        <v>45778</v>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
@@ -30381,8 +30823,10 @@
     <row r="1312">
       <c r="A1312" t="inlineStr"/>
       <c r="B1312" t="inlineStr"/>
-      <c r="C1312" s="2" t="n">
-        <v>45778</v>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -30455,8 +30899,10 @@
     <row r="1315">
       <c r="A1315" t="inlineStr"/>
       <c r="B1315" t="inlineStr"/>
-      <c r="C1315" s="2" t="n">
-        <v>45778</v>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -30529,8 +30975,10 @@
     <row r="1318">
       <c r="A1318" t="inlineStr"/>
       <c r="B1318" t="inlineStr"/>
-      <c r="C1318" s="2" t="n">
-        <v>45778</v>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -30603,8 +31051,10 @@
     <row r="1321">
       <c r="A1321" t="inlineStr"/>
       <c r="B1321" t="inlineStr"/>
-      <c r="C1321" s="2" t="n">
-        <v>45778</v>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
@@ -30717,8 +31167,10 @@
     <row r="1326">
       <c r="A1326" t="inlineStr"/>
       <c r="B1326" t="inlineStr"/>
-      <c r="C1326" s="2" t="n">
-        <v>45778</v>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
@@ -30831,8 +31283,10 @@
     <row r="1331">
       <c r="A1331" t="inlineStr"/>
       <c r="B1331" t="inlineStr"/>
-      <c r="C1331" s="2" t="n">
-        <v>45782</v>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>05/May/2025</t>
+        </is>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
@@ -30905,8 +31359,10 @@
     <row r="1334">
       <c r="A1334" t="inlineStr"/>
       <c r="B1334" t="inlineStr"/>
-      <c r="C1334" s="2" t="n">
-        <v>45784</v>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>07/May/2025</t>
+        </is>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -30979,8 +31435,10 @@
     <row r="1337">
       <c r="A1337" t="inlineStr"/>
       <c r="B1337" t="inlineStr"/>
-      <c r="C1337" s="2" t="n">
-        <v>45784</v>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>07/May/2025</t>
+        </is>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -31053,8 +31511,10 @@
     <row r="1340">
       <c r="A1340" t="inlineStr"/>
       <c r="B1340" t="inlineStr"/>
-      <c r="C1340" s="2" t="n">
-        <v>45785</v>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>08/May/2025</t>
+        </is>
       </c>
       <c r="D1340" t="inlineStr">
         <is>
@@ -31127,8 +31587,10 @@
     <row r="1343">
       <c r="A1343" t="inlineStr"/>
       <c r="B1343" t="inlineStr"/>
-      <c r="C1343" s="2" t="n">
-        <v>45785</v>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>08/May/2025</t>
+        </is>
       </c>
       <c r="D1343" t="inlineStr">
         <is>
@@ -31201,8 +31663,10 @@
     <row r="1346">
       <c r="A1346" t="inlineStr"/>
       <c r="B1346" t="inlineStr"/>
-      <c r="C1346" s="2" t="n">
-        <v>45785</v>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>08/May/2025</t>
+        </is>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
@@ -31275,8 +31739,10 @@
     <row r="1349">
       <c r="A1349" t="inlineStr"/>
       <c r="B1349" t="inlineStr"/>
-      <c r="C1349" s="2" t="n">
-        <v>45789</v>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>12/May/2025</t>
+        </is>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -31349,8 +31815,10 @@
     <row r="1352">
       <c r="A1352" t="inlineStr"/>
       <c r="B1352" t="inlineStr"/>
-      <c r="C1352" s="2" t="n">
-        <v>45789</v>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>12/May/2025</t>
+        </is>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
@@ -31423,8 +31891,10 @@
     <row r="1355">
       <c r="A1355" t="inlineStr"/>
       <c r="B1355" t="inlineStr"/>
-      <c r="C1355" s="2" t="n">
-        <v>45789</v>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>12/May/2025</t>
+        </is>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
@@ -31497,8 +31967,10 @@
     <row r="1358">
       <c r="A1358" t="inlineStr"/>
       <c r="B1358" t="inlineStr"/>
-      <c r="C1358" s="2" t="n">
-        <v>45790</v>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>13/May/2025</t>
+        </is>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
@@ -31571,8 +32043,10 @@
     <row r="1361">
       <c r="A1361" t="inlineStr"/>
       <c r="B1361" t="inlineStr"/>
-      <c r="C1361" s="2" t="n">
-        <v>45790</v>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>13/May/2025</t>
+        </is>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
@@ -31645,8 +32119,10 @@
     <row r="1364">
       <c r="A1364" t="inlineStr"/>
       <c r="B1364" t="inlineStr"/>
-      <c r="C1364" s="2" t="n">
-        <v>45790</v>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>13/May/2025</t>
+        </is>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
@@ -31719,8 +32195,10 @@
     <row r="1367">
       <c r="A1367" t="inlineStr"/>
       <c r="B1367" t="inlineStr"/>
-      <c r="C1367" s="2" t="n">
-        <v>45791</v>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>14/May/2025</t>
+        </is>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
@@ -31793,8 +32271,10 @@
     <row r="1370">
       <c r="A1370" t="inlineStr"/>
       <c r="B1370" t="inlineStr"/>
-      <c r="C1370" s="2" t="n">
-        <v>45791</v>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>14/May/2025</t>
+        </is>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -31867,8 +32347,10 @@
     <row r="1373">
       <c r="A1373" t="inlineStr"/>
       <c r="B1373" t="inlineStr"/>
-      <c r="C1373" s="2" t="n">
-        <v>45792</v>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>15/May/2025</t>
+        </is>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
@@ -32001,8 +32483,10 @@
     <row r="1379">
       <c r="A1379" t="inlineStr"/>
       <c r="B1379" t="inlineStr"/>
-      <c r="C1379" s="2" t="n">
-        <v>45792</v>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>15/May/2025</t>
+        </is>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
@@ -32075,8 +32559,10 @@
     <row r="1382">
       <c r="A1382" t="inlineStr"/>
       <c r="B1382" t="inlineStr"/>
-      <c r="C1382" s="2" t="n">
-        <v>45792</v>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>15/May/2025</t>
+        </is>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
@@ -32149,8 +32635,10 @@
     <row r="1385">
       <c r="A1385" t="inlineStr"/>
       <c r="B1385" t="inlineStr"/>
-      <c r="C1385" s="2" t="n">
-        <v>45792</v>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>15/May/2025</t>
+        </is>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
@@ -32231,8 +32719,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42"}</t>
         </is>
       </c>
-      <c r="C1388" s="2" t="n">
-        <v>45794</v>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>17/May/2025</t>
+        </is>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
@@ -32317,8 +32807,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76"}</t>
         </is>
       </c>
-      <c r="C1391" s="2" t="n">
-        <v>45794</v>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>17/May/2025</t>
+        </is>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
@@ -32403,8 +32895,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81"}</t>
         </is>
       </c>
-      <c r="C1394" s="2" t="n">
-        <v>45794</v>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>17/May/2025</t>
+        </is>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
@@ -32481,8 +32975,10 @@
     <row r="1397">
       <c r="A1397" t="inlineStr"/>
       <c r="B1397" t="inlineStr"/>
-      <c r="C1397" s="2" t="n">
-        <v>45794</v>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>17/May/2025</t>
+        </is>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
@@ -32555,8 +33051,10 @@
     <row r="1400">
       <c r="A1400" t="inlineStr"/>
       <c r="B1400" t="inlineStr"/>
-      <c r="C1400" s="2" t="n">
-        <v>45795</v>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
@@ -32629,8 +33127,10 @@
     <row r="1403">
       <c r="A1403" t="inlineStr"/>
       <c r="B1403" t="inlineStr"/>
-      <c r="C1403" s="2" t="n">
-        <v>45795</v>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
@@ -32703,8 +33203,10 @@
     <row r="1406">
       <c r="A1406" t="inlineStr"/>
       <c r="B1406" t="inlineStr"/>
-      <c r="C1406" s="2" t="n">
-        <v>45795</v>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
@@ -32789,8 +33291,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06"}</t>
         </is>
       </c>
-      <c r="C1409" s="2" t="n">
-        <v>45795</v>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
@@ -32867,8 +33371,10 @@
     <row r="1412">
       <c r="A1412" t="inlineStr"/>
       <c r="B1412" t="inlineStr"/>
-      <c r="C1412" s="2" t="n">
-        <v>45795</v>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -32941,8 +33447,10 @@
     <row r="1415">
       <c r="A1415" t="inlineStr"/>
       <c r="B1415" t="inlineStr"/>
-      <c r="C1415" s="2" t="n">
-        <v>45795</v>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
@@ -33015,8 +33523,10 @@
     <row r="1418">
       <c r="A1418" t="inlineStr"/>
       <c r="B1418" t="inlineStr"/>
-      <c r="C1418" s="2" t="n">
-        <v>45796</v>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>19/May/2025</t>
+        </is>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
@@ -33089,8 +33599,10 @@
     <row r="1421">
       <c r="A1421" t="inlineStr"/>
       <c r="B1421" t="inlineStr"/>
-      <c r="C1421" s="2" t="n">
-        <v>45797</v>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>20/May/2025</t>
+        </is>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
@@ -33163,8 +33675,10 @@
     <row r="1424">
       <c r="A1424" t="inlineStr"/>
       <c r="B1424" t="inlineStr"/>
-      <c r="C1424" s="2" t="n">
-        <v>45799</v>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>22/May/2025</t>
+        </is>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -33245,8 +33759,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68"}</t>
         </is>
       </c>
-      <c r="C1427" s="2" t="n">
-        <v>45802</v>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>25/May/2025</t>
+        </is>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
@@ -33363,8 +33879,10 @@
     <row r="1432">
       <c r="A1432" t="inlineStr"/>
       <c r="B1432" t="inlineStr"/>
-      <c r="C1432" s="2" t="n">
-        <v>45805</v>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>28/May/2025</t>
+        </is>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
@@ -33481,8 +33999,10 @@
     <row r="1437">
       <c r="A1437" t="inlineStr"/>
       <c r="B1437" t="inlineStr"/>
-      <c r="C1437" s="2" t="n">
-        <v>45805</v>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>28/May/2025</t>
+        </is>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
@@ -33703,8 +34223,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00"}</t>
         </is>
       </c>
-      <c r="C1447" s="2" t="n">
-        <v>45806</v>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1447" t="inlineStr">
         <is>
@@ -33781,8 +34303,10 @@
     <row r="1450">
       <c r="A1450" t="inlineStr"/>
       <c r="B1450" t="inlineStr"/>
-      <c r="C1450" s="2" t="n">
-        <v>45806</v>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
@@ -33863,8 +34387,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00"}</t>
         </is>
       </c>
-      <c r="C1453" s="2" t="n">
-        <v>45806</v>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
@@ -34009,8 +34535,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06"}</t>
         </is>
       </c>
-      <c r="C1459" s="2" t="n">
-        <v>45806</v>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
@@ -34087,8 +34615,10 @@
     <row r="1462">
       <c r="A1462" t="inlineStr"/>
       <c r="B1462" t="inlineStr"/>
-      <c r="C1462" s="2" t="n">
-        <v>45806</v>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
@@ -34161,8 +34691,10 @@
     <row r="1465">
       <c r="A1465" t="inlineStr"/>
       <c r="B1465" t="inlineStr"/>
-      <c r="C1465" s="2" t="n">
-        <v>45806</v>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
@@ -34235,8 +34767,10 @@
     <row r="1468">
       <c r="A1468" t="inlineStr"/>
       <c r="B1468" t="inlineStr"/>
-      <c r="C1468" s="2" t="n">
-        <v>45806</v>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
@@ -34349,8 +34883,10 @@
     <row r="1473">
       <c r="A1473" t="inlineStr"/>
       <c r="B1473" t="inlineStr"/>
-      <c r="C1473" s="2" t="n">
-        <v>45806</v>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
@@ -34423,8 +34959,10 @@
     <row r="1476">
       <c r="A1476" t="inlineStr"/>
       <c r="B1476" t="inlineStr"/>
-      <c r="C1476" s="2" t="n">
-        <v>45806</v>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
@@ -34497,8 +35035,10 @@
     <row r="1479">
       <c r="A1479" t="inlineStr"/>
       <c r="B1479" t="inlineStr"/>
-      <c r="C1479" s="2" t="n">
-        <v>45806</v>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
@@ -34571,8 +35111,10 @@
     <row r="1482">
       <c r="A1482" t="inlineStr"/>
       <c r="B1482" t="inlineStr"/>
-      <c r="C1482" s="2" t="n">
-        <v>45808</v>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>31/May/2025</t>
+        </is>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
@@ -36965,8 +37507,10 @@
     <row r="1601">
       <c r="A1601" t="inlineStr"/>
       <c r="B1601" t="inlineStr"/>
-      <c r="C1601" s="2" t="n">
-        <v>45809</v>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1601" t="inlineStr">
         <is>
@@ -37047,8 +37591,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11"}</t>
         </is>
       </c>
-      <c r="C1604" s="2" t="n">
-        <v>45809</v>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1604" t="inlineStr">
         <is>
@@ -37125,8 +37671,10 @@
     <row r="1607">
       <c r="A1607" t="inlineStr"/>
       <c r="B1607" t="inlineStr"/>
-      <c r="C1607" s="2" t="n">
-        <v>45809</v>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1607" t="inlineStr">
         <is>
@@ -37199,8 +37747,10 @@
     <row r="1610">
       <c r="A1610" t="inlineStr"/>
       <c r="B1610" t="inlineStr"/>
-      <c r="C1610" s="2" t="n">
-        <v>45809</v>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1610" t="inlineStr">
         <is>
@@ -37273,8 +37823,10 @@
     <row r="1613">
       <c r="A1613" t="inlineStr"/>
       <c r="B1613" t="inlineStr"/>
-      <c r="C1613" s="2" t="n">
-        <v>45810</v>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>02/Jun/2025</t>
+        </is>
       </c>
       <c r="D1613" t="inlineStr">
         <is>
@@ -37356,8 +37908,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01"}</t>
         </is>
       </c>
-      <c r="C1616" s="2" t="n">
-        <v>45811</v>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1616" t="inlineStr">
         <is>
@@ -37434,8 +37988,10 @@
     <row r="1619">
       <c r="A1619" t="inlineStr"/>
       <c r="B1619" t="inlineStr"/>
-      <c r="C1619" s="2" t="n">
-        <v>45811</v>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1619" t="inlineStr">
         <is>
@@ -37508,8 +38064,10 @@
     <row r="1622">
       <c r="A1622" t="inlineStr"/>
       <c r="B1622" t="inlineStr"/>
-      <c r="C1622" s="2" t="n">
-        <v>45811</v>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1622" t="inlineStr">
         <is>
@@ -37582,8 +38140,10 @@
     <row r="1625">
       <c r="A1625" t="inlineStr"/>
       <c r="B1625" t="inlineStr"/>
-      <c r="C1625" s="2" t="n">
-        <v>45811</v>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1625" t="inlineStr">
         <is>
@@ -37656,8 +38216,10 @@
     <row r="1628">
       <c r="A1628" t="inlineStr"/>
       <c r="B1628" t="inlineStr"/>
-      <c r="C1628" s="2" t="n">
-        <v>45811</v>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1628" t="inlineStr">
         <is>
@@ -37730,8 +38292,10 @@
     <row r="1631">
       <c r="A1631" t="inlineStr"/>
       <c r="B1631" t="inlineStr"/>
-      <c r="C1631" s="2" t="n">
-        <v>45811</v>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1631" t="inlineStr">
         <is>
@@ -37804,8 +38368,10 @@
     <row r="1634">
       <c r="A1634" t="inlineStr"/>
       <c r="B1634" t="inlineStr"/>
-      <c r="C1634" s="2" t="n">
-        <v>45811</v>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1634" t="inlineStr">
         <is>
@@ -37878,8 +38444,10 @@
     <row r="1637">
       <c r="A1637" t="inlineStr"/>
       <c r="B1637" t="inlineStr"/>
-      <c r="C1637" s="2" t="n">
-        <v>45811</v>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1637" t="inlineStr">
         <is>
@@ -37952,8 +38520,10 @@
     <row r="1640">
       <c r="A1640" t="inlineStr"/>
       <c r="B1640" t="inlineStr"/>
-      <c r="C1640" s="2" t="n">
-        <v>45811</v>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1640" t="inlineStr">
         <is>
@@ -38026,8 +38596,10 @@
     <row r="1643">
       <c r="A1643" t="inlineStr"/>
       <c r="B1643" t="inlineStr"/>
-      <c r="C1643" s="2" t="n">
-        <v>45811</v>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1643" t="inlineStr">
         <is>
@@ -38100,8 +38672,10 @@
     <row r="1646">
       <c r="A1646" t="inlineStr"/>
       <c r="B1646" t="inlineStr"/>
-      <c r="C1646" s="2" t="n">
-        <v>45811</v>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1646" t="inlineStr">
         <is>
@@ -38174,8 +38748,10 @@
     <row r="1649">
       <c r="A1649" t="inlineStr"/>
       <c r="B1649" t="inlineStr"/>
-      <c r="C1649" s="2" t="n">
-        <v>45811</v>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1649" t="inlineStr">
         <is>
@@ -38248,8 +38824,10 @@
     <row r="1652">
       <c r="A1652" t="inlineStr"/>
       <c r="B1652" t="inlineStr"/>
-      <c r="C1652" s="2" t="n">
-        <v>45811</v>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1652" t="inlineStr">
         <is>
@@ -38322,8 +38900,10 @@
     <row r="1655">
       <c r="A1655" t="inlineStr"/>
       <c r="B1655" t="inlineStr"/>
-      <c r="C1655" s="2" t="n">
-        <v>45811</v>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1655" t="inlineStr">
         <is>
@@ -38396,8 +38976,10 @@
     <row r="1658">
       <c r="A1658" t="inlineStr"/>
       <c r="B1658" t="inlineStr"/>
-      <c r="C1658" s="2" t="n">
-        <v>45811</v>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1658" t="inlineStr">
         <is>
@@ -38470,8 +39052,10 @@
     <row r="1661">
       <c r="A1661" t="inlineStr"/>
       <c r="B1661" t="inlineStr"/>
-      <c r="C1661" s="2" t="n">
-        <v>45811</v>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1661" t="inlineStr">
         <is>
@@ -38544,8 +39128,10 @@
     <row r="1664">
       <c r="A1664" t="inlineStr"/>
       <c r="B1664" t="inlineStr"/>
-      <c r="C1664" s="2" t="n">
-        <v>45811</v>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1664" t="inlineStr">
         <is>
@@ -38618,8 +39204,10 @@
     <row r="1667">
       <c r="A1667" t="inlineStr"/>
       <c r="B1667" t="inlineStr"/>
-      <c r="C1667" s="2" t="n">
-        <v>45811</v>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1667" t="inlineStr">
         <is>
@@ -38692,8 +39280,10 @@
     <row r="1670">
       <c r="A1670" t="inlineStr"/>
       <c r="B1670" t="inlineStr"/>
-      <c r="C1670" s="2" t="n">
-        <v>45811</v>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1670" t="inlineStr">
         <is>
@@ -38766,8 +39356,10 @@
     <row r="1673">
       <c r="A1673" t="inlineStr"/>
       <c r="B1673" t="inlineStr"/>
-      <c r="C1673" s="2" t="n">
-        <v>45811</v>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1673" t="inlineStr">
         <is>
@@ -38840,8 +39432,10 @@
     <row r="1676">
       <c r="A1676" t="inlineStr"/>
       <c r="B1676" t="inlineStr"/>
-      <c r="C1676" s="2" t="n">
-        <v>45811</v>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1676" t="inlineStr">
         <is>
@@ -38914,8 +39508,10 @@
     <row r="1679">
       <c r="A1679" t="inlineStr"/>
       <c r="B1679" t="inlineStr"/>
-      <c r="C1679" s="2" t="n">
-        <v>45811</v>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1679" t="inlineStr">
         <is>
@@ -39108,8 +39704,10 @@
     <row r="1688">
       <c r="A1688" t="inlineStr"/>
       <c r="B1688" t="inlineStr"/>
-      <c r="C1688" s="2" t="n">
-        <v>45811</v>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1688" t="inlineStr">
         <is>
@@ -39182,8 +39780,10 @@
     <row r="1691">
       <c r="A1691" t="inlineStr"/>
       <c r="B1691" t="inlineStr"/>
-      <c r="C1691" s="2" t="n">
-        <v>45812</v>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1691" t="inlineStr">
         <is>
@@ -39256,8 +39856,10 @@
     <row r="1694">
       <c r="A1694" t="inlineStr"/>
       <c r="B1694" t="inlineStr"/>
-      <c r="C1694" s="2" t="n">
-        <v>45812</v>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1694" t="inlineStr">
         <is>
@@ -39330,8 +39932,10 @@
     <row r="1697">
       <c r="A1697" t="inlineStr"/>
       <c r="B1697" t="inlineStr"/>
-      <c r="C1697" s="2" t="n">
-        <v>45812</v>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1697" t="inlineStr">
         <is>
@@ -39404,8 +40008,10 @@
     <row r="1700">
       <c r="A1700" t="inlineStr"/>
       <c r="B1700" t="inlineStr"/>
-      <c r="C1700" s="2" t="n">
-        <v>45812</v>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1700" t="inlineStr">
         <is>
@@ -39478,8 +40084,10 @@
     <row r="1703">
       <c r="A1703" t="inlineStr"/>
       <c r="B1703" t="inlineStr"/>
-      <c r="C1703" s="2" t="n">
-        <v>45813</v>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>05/Jun/2025</t>
+        </is>
       </c>
       <c r="D1703" t="inlineStr">
         <is>
@@ -39552,8 +40160,10 @@
     <row r="1706">
       <c r="A1706" t="inlineStr"/>
       <c r="B1706" t="inlineStr"/>
-      <c r="C1706" s="2" t="n">
-        <v>45813</v>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>05/Jun/2025</t>
+        </is>
       </c>
       <c r="D1706" t="inlineStr">
         <is>
@@ -39626,8 +40236,10 @@
     <row r="1709">
       <c r="A1709" t="inlineStr"/>
       <c r="B1709" t="inlineStr"/>
-      <c r="C1709" s="2" t="n">
-        <v>45813</v>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>05/Jun/2025</t>
+        </is>
       </c>
       <c r="D1709" t="inlineStr">
         <is>
@@ -39700,8 +40312,10 @@
     <row r="1712">
       <c r="A1712" t="inlineStr"/>
       <c r="B1712" t="inlineStr"/>
-      <c r="C1712" s="2" t="n">
-        <v>45823</v>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>15/Jun/2025</t>
+        </is>
       </c>
       <c r="D1712" t="inlineStr">
         <is>
@@ -39774,8 +40388,10 @@
     <row r="1715">
       <c r="A1715" t="inlineStr"/>
       <c r="B1715" t="inlineStr"/>
-      <c r="C1715" s="2" t="n">
-        <v>45823</v>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>15/Jun/2025</t>
+        </is>
       </c>
       <c r="D1715" t="inlineStr">
         <is>
@@ -39848,8 +40464,10 @@
     <row r="1718">
       <c r="A1718" t="inlineStr"/>
       <c r="B1718" t="inlineStr"/>
-      <c r="C1718" s="2" t="n">
-        <v>45823</v>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>15/Jun/2025</t>
+        </is>
       </c>
       <c r="D1718" t="inlineStr">
         <is>
@@ -39930,8 +40548,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
-      <c r="C1721" s="2" t="n">
-        <v>45824</v>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>16/Jun/2025</t>
+        </is>
       </c>
       <c r="D1721" t="inlineStr">
         <is>
@@ -40008,8 +40628,10 @@
     <row r="1724">
       <c r="A1724" t="inlineStr"/>
       <c r="B1724" t="inlineStr"/>
-      <c r="C1724" s="2" t="n">
-        <v>45825</v>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>17/Jun/2025</t>
+        </is>
       </c>
       <c r="D1724" t="inlineStr">
         <is>
@@ -40094,8 +40716,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50"}</t>
         </is>
       </c>
-      <c r="C1727" s="2" t="n">
-        <v>45825</v>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>17/Jun/2025</t>
+        </is>
       </c>
       <c r="D1727" t="inlineStr">
         <is>
@@ -40172,8 +40796,10 @@
     <row r="1730">
       <c r="A1730" t="inlineStr"/>
       <c r="B1730" t="inlineStr"/>
-      <c r="C1730" s="2" t="n">
-        <v>45825</v>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>17/Jun/2025</t>
+        </is>
       </c>
       <c r="D1730" t="inlineStr">
         <is>
@@ -40246,8 +40872,10 @@
     <row r="1733">
       <c r="A1733" t="inlineStr"/>
       <c r="B1733" t="inlineStr"/>
-      <c r="C1733" s="2" t="n">
-        <v>45826</v>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>18/Jun/2025</t>
+        </is>
       </c>
       <c r="D1733" t="inlineStr">
         <is>
@@ -40380,8 +41008,10 @@
     <row r="1739">
       <c r="A1739" t="inlineStr"/>
       <c r="B1739" t="inlineStr"/>
-      <c r="C1739" s="2" t="n">
-        <v>45826</v>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>18/Jun/2025</t>
+        </is>
       </c>
       <c r="D1739" t="inlineStr">
         <is>
@@ -40454,8 +41084,10 @@
     <row r="1742">
       <c r="A1742" t="inlineStr"/>
       <c r="B1742" t="inlineStr"/>
-      <c r="C1742" s="2" t="n">
-        <v>45826</v>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>18/Jun/2025</t>
+        </is>
       </c>
       <c r="D1742" t="inlineStr">
         <is>
@@ -40570,8 +41202,10 @@
     <row r="1747">
       <c r="A1747" t="inlineStr"/>
       <c r="B1747" t="inlineStr"/>
-      <c r="C1747" s="2" t="n">
-        <v>45826</v>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>18/Jun/2025</t>
+        </is>
       </c>
       <c r="D1747" t="inlineStr">
         <is>
@@ -40684,8 +41318,10 @@
     <row r="1752">
       <c r="A1752" t="inlineStr"/>
       <c r="B1752" t="inlineStr"/>
-      <c r="C1752" s="2" t="n">
-        <v>45827</v>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>19/Jun/2025</t>
+        </is>
       </c>
       <c r="D1752" t="inlineStr">
         <is>
@@ -40806,8 +41442,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39"}</t>
         </is>
       </c>
-      <c r="C1757" s="2" t="n">
-        <v>45830</v>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>22/Jun/2025</t>
+        </is>
       </c>
       <c r="D1757" t="inlineStr">
         <is>
@@ -40924,8 +41562,10 @@
     <row r="1762">
       <c r="A1762" t="inlineStr"/>
       <c r="B1762" t="inlineStr"/>
-      <c r="C1762" s="2" t="n">
-        <v>45831</v>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1762" t="inlineStr">
         <is>
@@ -40998,8 +41638,10 @@
     <row r="1765">
       <c r="A1765" t="inlineStr"/>
       <c r="B1765" t="inlineStr"/>
-      <c r="C1765" s="2" t="n">
-        <v>45831</v>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1765" t="inlineStr">
         <is>
@@ -41072,8 +41714,10 @@
     <row r="1768">
       <c r="A1768" t="inlineStr"/>
       <c r="B1768" t="inlineStr"/>
-      <c r="C1768" s="2" t="n">
-        <v>45831</v>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1768" t="inlineStr">
         <is>
@@ -41146,8 +41790,10 @@
     <row r="1771">
       <c r="A1771" t="inlineStr"/>
       <c r="B1771" t="inlineStr"/>
-      <c r="C1771" s="2" t="n">
-        <v>45831</v>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1771" t="inlineStr">
         <is>
@@ -41220,8 +41866,10 @@
     <row r="1774">
       <c r="A1774" t="inlineStr"/>
       <c r="B1774" t="inlineStr"/>
-      <c r="C1774" s="2" t="n">
-        <v>45831</v>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1774" t="inlineStr">
         <is>
@@ -41302,8 +41950,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00"}</t>
         </is>
       </c>
-      <c r="C1777" s="2" t="n">
-        <v>45831</v>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1777" t="inlineStr">
         <is>
@@ -41380,8 +42030,10 @@
     <row r="1780">
       <c r="A1780" t="inlineStr"/>
       <c r="B1780" t="inlineStr"/>
-      <c r="C1780" s="2" t="n">
-        <v>45831</v>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1780" t="inlineStr">
         <is>
@@ -41454,8 +42106,10 @@
     <row r="1783">
       <c r="A1783" t="inlineStr"/>
       <c r="B1783" t="inlineStr"/>
-      <c r="C1783" s="2" t="n">
-        <v>45831</v>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1783" t="inlineStr">
         <is>
@@ -41568,8 +42222,10 @@
     <row r="1788">
       <c r="A1788" t="inlineStr"/>
       <c r="B1788" t="inlineStr"/>
-      <c r="C1788" s="2" t="n">
-        <v>45831</v>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1788" t="inlineStr">
         <is>
@@ -41650,8 +42306,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00"}</t>
         </is>
       </c>
-      <c r="C1791" s="2" t="n">
-        <v>45832</v>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1791" t="inlineStr">
         <is>
@@ -41728,8 +42386,10 @@
     <row r="1794">
       <c r="A1794" t="inlineStr"/>
       <c r="B1794" t="inlineStr"/>
-      <c r="C1794" s="2" t="n">
-        <v>45832</v>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1794" t="inlineStr">
         <is>
@@ -41802,8 +42462,10 @@
     <row r="1797">
       <c r="A1797" t="inlineStr"/>
       <c r="B1797" t="inlineStr"/>
-      <c r="C1797" s="2" t="n">
-        <v>45832</v>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1797" t="inlineStr">
         <is>
@@ -41884,8 +42546,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98"}</t>
         </is>
       </c>
-      <c r="C1800" s="2" t="n">
-        <v>45832</v>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1800" t="inlineStr">
         <is>
@@ -41962,8 +42626,10 @@
     <row r="1803">
       <c r="A1803" t="inlineStr"/>
       <c r="B1803" t="inlineStr"/>
-      <c r="C1803" s="2" t="n">
-        <v>45832</v>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1803" t="inlineStr">
         <is>
@@ -42076,8 +42742,10 @@
     <row r="1808">
       <c r="A1808" t="inlineStr"/>
       <c r="B1808" t="inlineStr"/>
-      <c r="C1808" s="2" t="n">
-        <v>45832</v>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1808" t="inlineStr">
         <is>
@@ -42190,8 +42858,10 @@
     <row r="1813">
       <c r="A1813" t="inlineStr"/>
       <c r="B1813" t="inlineStr"/>
-      <c r="C1813" s="2" t="n">
-        <v>45832</v>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1813" t="inlineStr">
         <is>
@@ -42304,8 +42974,10 @@
     <row r="1818">
       <c r="A1818" t="inlineStr"/>
       <c r="B1818" t="inlineStr"/>
-      <c r="C1818" s="2" t="n">
-        <v>45832</v>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1818" t="inlineStr">
         <is>
@@ -42418,8 +43090,10 @@
     <row r="1823">
       <c r="A1823" t="inlineStr"/>
       <c r="B1823" t="inlineStr"/>
-      <c r="C1823" s="2" t="n">
-        <v>45832</v>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1823" t="inlineStr">
         <is>
@@ -42592,8 +43266,10 @@
     <row r="1831">
       <c r="A1831" t="inlineStr"/>
       <c r="B1831" t="inlineStr"/>
-      <c r="C1831" s="2" t="n">
-        <v>45833</v>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>25/Jun/2025</t>
+        </is>
       </c>
       <c r="D1831" t="inlineStr">
         <is>
@@ -42666,8 +43342,10 @@
     <row r="1834">
       <c r="A1834" t="inlineStr"/>
       <c r="B1834" t="inlineStr"/>
-      <c r="C1834" s="2" t="n">
-        <v>45833</v>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>25/Jun/2025</t>
+        </is>
       </c>
       <c r="D1834" t="inlineStr">
         <is>
@@ -42748,8 +43426,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01"}</t>
         </is>
       </c>
-      <c r="C1837" s="2" t="n">
-        <v>45833</v>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>25/Jun/2025</t>
+        </is>
       </c>
       <c r="D1837" t="inlineStr">
         <is>
@@ -42826,8 +43506,10 @@
     <row r="1840">
       <c r="A1840" t="inlineStr"/>
       <c r="B1840" t="inlineStr"/>
-      <c r="C1840" s="2" t="n">
-        <v>45834</v>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>26/Jun/2025</t>
+        </is>
       </c>
       <c r="D1840" t="inlineStr">
         <is>
@@ -42900,8 +43582,10 @@
     <row r="1843">
       <c r="A1843" t="inlineStr"/>
       <c r="B1843" t="inlineStr"/>
-      <c r="C1843" s="2" t="n">
-        <v>45834</v>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>26/Jun/2025</t>
+        </is>
       </c>
       <c r="D1843" t="inlineStr">
         <is>
@@ -43022,8 +43706,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55"}</t>
         </is>
       </c>
-      <c r="C1848" s="2" t="n">
-        <v>45837</v>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>29/Jun/2025</t>
+        </is>
       </c>
       <c r="D1848" t="inlineStr">
         <is>
@@ -43100,8 +43786,10 @@
     <row r="1851">
       <c r="A1851" t="inlineStr"/>
       <c r="B1851" t="inlineStr"/>
-      <c r="C1851" s="2" t="n">
-        <v>45838</v>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>30/Jun/2025</t>
+        </is>
       </c>
       <c r="D1851" t="inlineStr">
         <is>
@@ -43174,8 +43862,10 @@
     <row r="1854">
       <c r="A1854" t="inlineStr"/>
       <c r="B1854" t="inlineStr"/>
-      <c r="C1854" s="2" t="n">
-        <v>45838</v>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>30/Jun/2025</t>
+        </is>
       </c>
       <c r="D1854" t="inlineStr">
         <is>
@@ -45288,8 +45978,10 @@
     <row r="1959">
       <c r="A1959" t="inlineStr"/>
       <c r="B1959" t="inlineStr"/>
-      <c r="C1959" s="2" t="n">
-        <v>45838</v>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>30/Jun/2025</t>
+        </is>
       </c>
       <c r="D1959" t="inlineStr">
         <is>
@@ -45362,8 +46054,10 @@
     <row r="1962">
       <c r="A1962" t="inlineStr"/>
       <c r="B1962" t="inlineStr"/>
-      <c r="C1962" s="2" t="n">
-        <v>45838</v>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>30/Jun/2025</t>
+        </is>
       </c>
       <c r="D1962" t="inlineStr">
         <is>

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -432,6 +432,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -446,10 +446,10 @@
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="12.78" customWidth="1" min="8" max="8"/>
     <col width="9" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="11.22" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -446,14 +446,14 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10.33" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="12.78" customWidth="1" min="8" max="8"/>
     <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="11.22" customWidth="1" min="11" max="11"/>
+    <col width="12.78" customWidth="1" min="10" max="10"/>
+    <col width="14.22" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -898,8 +898,16 @@
       <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>M073</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/8/5023", "lender_amount": "95200.00", "borrower_amount": "95200.00", "po_number": "FOB/PO/2023/8/5023"}</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -972,8 +980,16 @@
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>M074</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/12/5124", "lender_amount": "164204.00", "borrower_amount": "164204.00", "po_number": "FOB/PO/2023/12/5124"}</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1127,7 +1143,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1208,7 +1224,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1485,8 +1501,16 @@
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "MBD/PO/2024/9/10", "lender_amount": "25000.00", "borrower_amount": "25000.00", "po_number": "MBD/PO/2024/9/10"}</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>02/Jan/2025</t>
@@ -1565,7 +1589,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1646,7 +1670,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2019,7 +2043,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00", "lc_number": "L/C-187724010124/24"}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2100,7 +2124,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2546,7 +2570,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2627,7 +2651,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5552,8 +5576,16 @@
       <c r="K238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
-      <c r="B239" t="inlineStr"/>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
+      <c r="B239" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/8/5000", "lender_amount": "289000.00", "borrower_amount": "289000.00", "po_number": "FOB/PO/2023/8/5000"}</t>
+        </is>
+      </c>
       <c r="C239" t="inlineStr">
         <is>
           <t>01/Feb/2025</t>
@@ -6942,7 +6974,7 @@
       </c>
       <c r="B300" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00", "lc_number": "L/C-187724010124/24"}</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7096,7 +7128,7 @@
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79", "lc_number": "L/C-187724010124/24"}</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7208,8 +7240,16 @@
       <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
-      <c r="B311" t="inlineStr"/>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>M078</t>
+        </is>
+      </c>
+      <c r="B311" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/9/29742", "lender_amount": "124670.00", "borrower_amount": "124670.00", "po_number": "OPE/PO/2024/9/29742"}</t>
+        </is>
+      </c>
       <c r="C311" t="inlineStr">
         <is>
           <t>05/Feb/2025</t>
@@ -7726,7 +7766,7 @@
       </c>
       <c r="B332" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -8194,7 +8234,7 @@
       </c>
       <c r="B352" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77", "lc_number": "L/C-147125020003/25"}</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -8951,8 +8991,16 @@
       <c r="K384" t="inlineStr"/>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr"/>
-      <c r="B385" t="inlineStr"/>
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>M076</t>
+        </is>
+      </c>
+      <c r="B385" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/6/27130", "lender_amount": "1100.00", "borrower_amount": "1100.00", "po_number": "OPE/PO/2024/6/27130"}</t>
+        </is>
+      </c>
       <c r="C385" t="inlineStr">
         <is>
           <t>16/Feb/2025</t>
@@ -9653,7 +9701,7 @@
       </c>
       <c r="B414" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90", "lc_number": "L/C-308524990243/24"}</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -9734,7 +9782,7 @@
       </c>
       <c r="B417" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82", "lc_number": "L/C-147124020653/25"}</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -10986,7 +11034,7 @@
       </c>
       <c r="B469" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00", "lc_number": "L/C-141325020063/25"}</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -11067,7 +11115,7 @@
       </c>
       <c r="B472" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89", "lc_number": "L/C-141325020068/25"}</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -11148,7 +11196,7 @@
       </c>
       <c r="B475" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00", "lc_number": "L/C-141325020068/25"}</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -11229,7 +11277,7 @@
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97", "lc_number": "L/C-141325020063/25"}</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -11383,7 +11431,7 @@
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61", "lc_number": "L/C-147124020708/24"}</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -12260,8 +12308,16 @@
       <c r="K519" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr"/>
-      <c r="B520" t="inlineStr"/>
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>M077</t>
+        </is>
+      </c>
+      <c r="B520" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "GEO/PO/2023/3/12915", "lender_amount": "400000.00", "borrower_amount": "400000.00", "po_number": "GEO/PO/2023/3/12915"}</t>
+        </is>
+      </c>
       <c r="C520" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -12340,7 +12396,7 @@
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37", "lc_number": "LC-155824020001/24"}</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -15348,7 +15404,7 @@
       </c>
       <c r="B675" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54", "lc_number": "L/C-308524990243/24"}</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -15889,7 +15945,7 @@
       </c>
       <c r="B698" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50", "lc_number": "L/C-222825150235/25"}</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -16043,7 +16099,7 @@
       </c>
       <c r="B704" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00", "lc_number": "L/C-222825150235/25"}</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -16124,7 +16180,7 @@
       </c>
       <c r="B707" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -16205,7 +16261,7 @@
       </c>
       <c r="B710" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90", "lc_number": "L/C-187724010122/24"}</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -17339,7 +17395,7 @@
       </c>
       <c r="B760" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58", "lc_number": "L/C-147125020027/25"}</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -17753,7 +17809,7 @@
       </c>
       <c r="B778" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -19042,7 +19098,7 @@
       </c>
       <c r="B837" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10", "lc_number": "L/C-147124020708/24"}</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -19123,7 +19179,7 @@
       </c>
       <c r="B840" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97", "lc_number": "L/C-308524990243/24"}</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -19353,7 +19409,7 @@
       </c>
       <c r="B850" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94", "lc_number": "L/C-141325020104/25"}</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -19472,7 +19528,7 @@
       </c>
       <c r="B855" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77", "lc_number": "L/C-308524022495/24"}</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -19553,7 +19609,7 @@
       </c>
       <c r="B858" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68", "lc_number": "L/C-308524022495/24"}</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -22056,8 +22112,16 @@
       <c r="K987" t="inlineStr"/>
     </row>
     <row r="988">
-      <c r="A988" t="inlineStr"/>
-      <c r="B988" t="inlineStr"/>
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>M080</t>
+        </is>
+      </c>
+      <c r="B988" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "CHA/PO/2023/12/20766", "lender_amount": "2000000.00", "borrower_amount": "2000000.00", "po_number": "CHA/PO/2023/12/20766"}</t>
+        </is>
+      </c>
       <c r="C988" t="inlineStr">
         <is>
           <t>01/Apr/2025</t>
@@ -22282,7 +22346,7 @@
       </c>
       <c r="B997" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95", "lc_number": "L/C-308525021741/25"}</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -22363,7 +22427,7 @@
       </c>
       <c r="B1000" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86", "lc_number": "L/C-308525021745/25"}</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -22444,7 +22508,7 @@
       </c>
       <c r="B1003" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "L/C-308524026037/24"}</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -23039,7 +23103,7 @@
       </c>
       <c r="B1028" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03", "lc_number": "LC-141325020063/25"}</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -23120,7 +23184,7 @@
       </c>
       <c r="B1031" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20", "lc_number": "L/C-141325020063/25"}</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -23312,7 +23376,7 @@
       </c>
       <c r="B1039" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00", "lc_number": "L/C-155823010186/23"}</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -23612,7 +23676,7 @@
       </c>
       <c r="B1051" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09", "lc_number": "LC-308524026037/222824023549"}</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -23937,7 +24001,7 @@
       </c>
       <c r="B1066" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00", "lc_number": "LC-308524022495/24"}</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -24260,7 +24324,7 @@
       </c>
       <c r="B1080" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92", "lc_number": "L/C-147125020027/25"}</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -24341,7 +24405,7 @@
       </c>
       <c r="B1083" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76", "lc_number": "L/C-222825150151/25"}</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -24422,7 +24486,7 @@
       </c>
       <c r="B1086" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00", "lc_number": "L/C-141325020063/25"}</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -24722,7 +24786,7 @@
       </c>
       <c r="B1098" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52", "lc_number": "L/C-308524026037/24"}</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -25314,7 +25378,7 @@
       </c>
       <c r="B1122" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55", "lc_number": "LC-155825020020/25"}</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -25395,7 +25459,7 @@
       </c>
       <c r="B1125" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78", "lc_number": "L/C-141325020104/25"}</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -25476,7 +25540,7 @@
       </c>
       <c r="B1128" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80", "lc_number": "LC-141325020063/25"}</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -26036,7 +26100,7 @@
       </c>
       <c r="B1152" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36", "lc_number": "L/C-141325020104/25"}</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -26117,7 +26181,7 @@
       </c>
       <c r="B1155" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40", "lc_number": "L/C-147125020063/25"}</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -26198,7 +26262,7 @@
       </c>
       <c r="B1158" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54", "lc_number": "L/C-141325020068/25"}</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -28879,8 +28943,16 @@
       <c r="K1293" t="inlineStr"/>
     </row>
     <row r="1294">
-      <c r="A1294" t="inlineStr"/>
-      <c r="B1294" t="inlineStr"/>
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>M081</t>
+        </is>
+      </c>
+      <c r="B1294" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "BPD/PO/2025/3/32659", "lender_amount": "768000.00", "borrower_amount": "768000.00", "po_number": "BPD/PO/2025/3/32659"}</t>
+        </is>
+      </c>
       <c r="C1294" t="inlineStr">
         <is>
           <t>01/May/2025</t>
@@ -29171,8 +29243,16 @@
       <c r="K1305" t="inlineStr"/>
     </row>
     <row r="1306">
-      <c r="A1306" t="inlineStr"/>
-      <c r="B1306" t="inlineStr"/>
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>M082</t>
+        </is>
+      </c>
+      <c r="B1306" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2023/10/18781", "lender_amount": "13920.00", "borrower_amount": "13920.00", "po_number": "OPE/PO/2023/10/18781"}</t>
+        </is>
+      </c>
       <c r="C1306" t="inlineStr">
         <is>
           <t>01/May/2025</t>
@@ -31136,7 +31216,7 @@
       </c>
       <c r="B1388" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42", "lc_number": "LC-141325020104/25"}</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
@@ -31217,7 +31297,7 @@
       </c>
       <c r="B1391" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76", "lc_number": "LC-141325020112/25"}</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
@@ -31298,7 +31378,7 @@
       </c>
       <c r="B1394" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81", "lc_number": "LC-141325020112/25"}</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -31671,7 +31751,7 @@
       </c>
       <c r="B1409" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06", "lc_number": "LC-141325020063/25"}</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
@@ -32117,7 +32197,7 @@
       </c>
       <c r="B1427" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68", "lc_number": "LC-141325020163/25"}</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
@@ -32553,7 +32633,7 @@
       </c>
       <c r="B1447" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00", "lc_number": "LC-222825150235/25"}</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
@@ -32707,7 +32787,7 @@
       </c>
       <c r="B1453" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00", "lc_number": "LC-141325020068/25"}</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -32845,7 +32925,7 @@
       </c>
       <c r="B1459" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06", "lc_number": "LC-308524990243/24"}</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
@@ -35752,7 +35832,7 @@
       </c>
       <c r="B1604" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11", "lc_number": "LC-308525021741/25"}</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
@@ -35826,8 +35906,16 @@
       <c r="K1606" t="inlineStr"/>
     </row>
     <row r="1607">
-      <c r="A1607" t="inlineStr"/>
-      <c r="B1607" t="inlineStr"/>
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>M083</t>
+        </is>
+      </c>
+      <c r="B1607" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "MOD/PO/2024/10/30061", "lender_amount": "89910.00", "borrower_amount": "89910.00", "po_number": "MOD/PO/2024/10/30061"}</t>
+        </is>
+      </c>
       <c r="C1607" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -35972,8 +36060,16 @@
       <c r="K1612" t="inlineStr"/>
     </row>
     <row r="1613">
-      <c r="A1613" t="inlineStr"/>
-      <c r="B1613" t="inlineStr"/>
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>M084</t>
+        </is>
+      </c>
+      <c r="B1613" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/10/29964", "lender_amount": "24800.00", "borrower_amount": "24800.00", "po_number": "OPE/PO/2024/10/29964"}</t>
+        </is>
+      </c>
       <c r="C1613" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
@@ -36053,7 +36149,7 @@
       </c>
       <c r="B1616" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01", "lc_number": "LC-155825010037/25"}</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
@@ -38139,8 +38235,16 @@
       <c r="K1702" t="inlineStr"/>
     </row>
     <row r="1703">
-      <c r="A1703" t="inlineStr"/>
-      <c r="B1703" t="inlineStr"/>
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>M085</t>
+        </is>
+      </c>
+      <c r="B1703" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2025/4/33343", "lender_amount": "199850.00", "borrower_amount": "199850.00", "po_number": "OPE/PO/2025/4/33343"}</t>
+        </is>
+      </c>
       <c r="C1703" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
@@ -38212,8 +38316,16 @@
       <c r="K1705" t="inlineStr"/>
     </row>
     <row r="1706">
-      <c r="A1706" t="inlineStr"/>
-      <c r="B1706" t="inlineStr"/>
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>M086</t>
+        </is>
+      </c>
+      <c r="B1706" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/11/30293", "lender_amount": "45094.20", "borrower_amount": "45094.20", "po_number": "OPE/PO/2024/11/30293"}</t>
+        </is>
+      </c>
       <c r="C1706" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
@@ -38584,7 +38696,7 @@
       </c>
       <c r="B1721" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "LC-141325020163/25"}</t>
         </is>
       </c>
       <c r="C1721" t="inlineStr">
@@ -38738,7 +38850,7 @@
       </c>
       <c r="B1727" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50", "lc_number": "LC-308525021746/25"}</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr">
@@ -39430,7 +39542,7 @@
       </c>
       <c r="B1757" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39", "lc_number": "LC-141325020063/141325020112"}</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr">
@@ -39914,7 +40026,7 @@
       </c>
       <c r="B1777" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00", "lc_number": "LC-308524022166 "}</t>
         </is>
       </c>
       <c r="C1777" t="inlineStr">
@@ -40252,7 +40364,7 @@
       </c>
       <c r="B1791" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00", "lc_number": "LC-308524022166 "}</t>
         </is>
       </c>
       <c r="C1791" t="inlineStr">
@@ -40479,7 +40591,7 @@
       </c>
       <c r="B1800" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98", "lc_number": "L/C-308524026037/24"}</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr">
@@ -41318,7 +41430,7 @@
       </c>
       <c r="B1837" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01", "lc_number": "L/C-147125020202/25"}</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr">
@@ -41583,7 +41695,7 @@
       </c>
       <c r="B1848" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55", "lc_number": "L/C-147124020074/24"}</t>
         </is>
       </c>
       <c r="C1848" t="inlineStr">

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -898,16 +898,8 @@
       <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>M073</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/8/5023", "lender_amount": "95200.00", "borrower_amount": "95200.00", "po_number": "FOB/PO/2023/8/5023"}</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -980,16 +972,8 @@
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>M074</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/12/5124", "lender_amount": "164204.00", "borrower_amount": "164204.00", "po_number": "FOB/PO/2023/12/5124"}</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1143,7 +1127,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68"}</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1224,7 +1208,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22"}</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1501,16 +1485,8 @@
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>M079</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "MBD/PO/2024/9/10", "lender_amount": "25000.00", "borrower_amount": "25000.00", "po_number": "MBD/PO/2024/9/10"}</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>02/Jan/2025</t>
@@ -1589,7 +1565,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77"}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1670,7 +1646,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2043,7 +2019,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00", "lc_number": "L/C-187724010124/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2124,7 +2100,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2570,7 +2546,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63"}</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2651,7 +2627,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93"}</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5576,16 +5552,8 @@
       <c r="K238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>M075</t>
-        </is>
-      </c>
-      <c r="B239" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/8/5000", "lender_amount": "289000.00", "borrower_amount": "289000.00", "po_number": "FOB/PO/2023/8/5000"}</t>
-        </is>
-      </c>
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
           <t>01/Feb/2025</t>
@@ -6974,7 +6942,7 @@
       </c>
       <c r="B300" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00", "lc_number": "L/C-187724010124/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7128,7 +7096,7 @@
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79", "lc_number": "L/C-187724010124/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79"}</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7240,16 +7208,8 @@
       <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>M078</t>
-        </is>
-      </c>
-      <c r="B311" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/9/29742", "lender_amount": "124670.00", "borrower_amount": "124670.00", "po_number": "OPE/PO/2024/9/29742"}</t>
-        </is>
-      </c>
+      <c r="A311" t="inlineStr"/>
+      <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
           <t>05/Feb/2025</t>
@@ -7766,7 +7726,7 @@
       </c>
       <c r="B332" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50"}</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -8234,7 +8194,7 @@
       </c>
       <c r="B352" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77", "lc_number": "L/C-147125020003/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77"}</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -8991,16 +8951,8 @@
       <c r="K384" t="inlineStr"/>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>M076</t>
-        </is>
-      </c>
-      <c r="B385" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/6/27130", "lender_amount": "1100.00", "borrower_amount": "1100.00", "po_number": "OPE/PO/2024/6/27130"}</t>
-        </is>
-      </c>
+      <c r="A385" t="inlineStr"/>
+      <c r="B385" t="inlineStr"/>
       <c r="C385" t="inlineStr">
         <is>
           <t>16/Feb/2025</t>
@@ -9701,7 +9653,7 @@
       </c>
       <c r="B414" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90", "lc_number": "L/C-308524990243/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90"}</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -9782,7 +9734,7 @@
       </c>
       <c r="B417" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82", "lc_number": "L/C-147124020653/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82"}</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11034,7 +10986,7 @@
       </c>
       <c r="B469" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00", "lc_number": "L/C-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00"}</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -11115,7 +11067,7 @@
       </c>
       <c r="B472" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89", "lc_number": "L/C-141325020068/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89"}</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -11196,7 +11148,7 @@
       </c>
       <c r="B475" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00", "lc_number": "L/C-141325020068/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00"}</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -11277,7 +11229,7 @@
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97", "lc_number": "L/C-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97"}</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -11431,7 +11383,7 @@
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61", "lc_number": "L/C-147124020708/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61"}</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -12308,16 +12260,8 @@
       <c r="K519" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>M077</t>
-        </is>
-      </c>
-      <c r="B520" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "GEO/PO/2023/3/12915", "lender_amount": "400000.00", "borrower_amount": "400000.00", "po_number": "GEO/PO/2023/3/12915"}</t>
-        </is>
-      </c>
+      <c r="A520" t="inlineStr"/>
+      <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -12396,7 +12340,7 @@
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37", "lc_number": "LC-155824020001/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37"}</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -15404,7 +15348,7 @@
       </c>
       <c r="B675" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54", "lc_number": "L/C-308524990243/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54"}</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -15945,7 +15889,7 @@
       </c>
       <c r="B698" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50", "lc_number": "L/C-222825150235/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50"}</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -16099,7 +16043,7 @@
       </c>
       <c r="B704" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00", "lc_number": "L/C-222825150235/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00"}</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -16180,7 +16124,7 @@
       </c>
       <c r="B707" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -16261,7 +16205,7 @@
       </c>
       <c r="B710" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90", "lc_number": "L/C-187724010122/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90"}</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -17395,7 +17339,7 @@
       </c>
       <c r="B760" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58", "lc_number": "L/C-147125020027/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58"}</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -17809,7 +17753,7 @@
       </c>
       <c r="B778" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99"}</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -19098,7 +19042,7 @@
       </c>
       <c r="B837" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10", "lc_number": "L/C-147124020708/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10"}</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -19179,7 +19123,7 @@
       </c>
       <c r="B840" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97", "lc_number": "L/C-308524990243/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97"}</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -19409,7 +19353,7 @@
       </c>
       <c r="B850" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94", "lc_number": "L/C-141325020104/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94"}</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -19528,7 +19472,7 @@
       </c>
       <c r="B855" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77", "lc_number": "L/C-308524022495/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77"}</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -19609,7 +19553,7 @@
       </c>
       <c r="B858" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68", "lc_number": "L/C-308524022495/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68"}</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -22112,16 +22056,8 @@
       <c r="K987" t="inlineStr"/>
     </row>
     <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>M080</t>
-        </is>
-      </c>
-      <c r="B988" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "CHA/PO/2023/12/20766", "lender_amount": "2000000.00", "borrower_amount": "2000000.00", "po_number": "CHA/PO/2023/12/20766"}</t>
-        </is>
-      </c>
+      <c r="A988" t="inlineStr"/>
+      <c r="B988" t="inlineStr"/>
       <c r="C988" t="inlineStr">
         <is>
           <t>01/Apr/2025</t>
@@ -22346,7 +22282,7 @@
       </c>
       <c r="B997" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95", "lc_number": "L/C-308525021741/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95"}</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -22427,7 +22363,7 @@
       </c>
       <c r="B1000" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86", "lc_number": "L/C-308525021745/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86"}</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -22508,7 +22444,7 @@
       </c>
       <c r="B1003" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "L/C-308524026037/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -23103,7 +23039,7 @@
       </c>
       <c r="B1028" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03", "lc_number": "LC-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03"}</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -23184,7 +23120,7 @@
       </c>
       <c r="B1031" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20", "lc_number": "L/C-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20"}</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -23376,7 +23312,7 @@
       </c>
       <c r="B1039" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00", "lc_number": "L/C-155823010186/23"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00"}</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -23676,7 +23612,7 @@
       </c>
       <c r="B1051" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09", "lc_number": "LC-308524026037/222824023549"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09"}</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -24001,7 +23937,7 @@
       </c>
       <c r="B1066" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00", "lc_number": "LC-308524022495/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00"}</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -24324,7 +24260,7 @@
       </c>
       <c r="B1080" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92", "lc_number": "L/C-147125020027/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92"}</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -24405,7 +24341,7 @@
       </c>
       <c r="B1083" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76", "lc_number": "L/C-222825150151/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76"}</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -24486,7 +24422,7 @@
       </c>
       <c r="B1086" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00", "lc_number": "L/C-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00"}</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -24786,7 +24722,7 @@
       </c>
       <c r="B1098" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52", "lc_number": "L/C-308524026037/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52"}</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -25378,7 +25314,7 @@
       </c>
       <c r="B1122" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55", "lc_number": "LC-155825020020/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55"}</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -25459,7 +25395,7 @@
       </c>
       <c r="B1125" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78", "lc_number": "L/C-141325020104/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78"}</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -25540,7 +25476,7 @@
       </c>
       <c r="B1128" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80", "lc_number": "LC-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80"}</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -26100,7 +26036,7 @@
       </c>
       <c r="B1152" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36", "lc_number": "L/C-141325020104/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36"}</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -26181,7 +26117,7 @@
       </c>
       <c r="B1155" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40", "lc_number": "L/C-147125020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40"}</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -26262,7 +26198,7 @@
       </c>
       <c r="B1158" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54", "lc_number": "L/C-141325020068/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54"}</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -28943,16 +28879,8 @@
       <c r="K1293" t="inlineStr"/>
     </row>
     <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>M081</t>
-        </is>
-      </c>
-      <c r="B1294" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "BPD/PO/2025/3/32659", "lender_amount": "768000.00", "borrower_amount": "768000.00", "po_number": "BPD/PO/2025/3/32659"}</t>
-        </is>
-      </c>
+      <c r="A1294" t="inlineStr"/>
+      <c r="B1294" t="inlineStr"/>
       <c r="C1294" t="inlineStr">
         <is>
           <t>01/May/2025</t>
@@ -29243,16 +29171,8 @@
       <c r="K1305" t="inlineStr"/>
     </row>
     <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>M082</t>
-        </is>
-      </c>
-      <c r="B1306" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2023/10/18781", "lender_amount": "13920.00", "borrower_amount": "13920.00", "po_number": "OPE/PO/2023/10/18781"}</t>
-        </is>
-      </c>
+      <c r="A1306" t="inlineStr"/>
+      <c r="B1306" t="inlineStr"/>
       <c r="C1306" t="inlineStr">
         <is>
           <t>01/May/2025</t>
@@ -31216,7 +31136,7 @@
       </c>
       <c r="B1388" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42", "lc_number": "LC-141325020104/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42"}</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
@@ -31297,7 +31217,7 @@
       </c>
       <c r="B1391" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76", "lc_number": "LC-141325020112/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76"}</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
@@ -31378,7 +31298,7 @@
       </c>
       <c r="B1394" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81", "lc_number": "LC-141325020112/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81"}</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -31751,7 +31671,7 @@
       </c>
       <c r="B1409" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06", "lc_number": "LC-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06"}</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
@@ -32197,7 +32117,7 @@
       </c>
       <c r="B1427" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68", "lc_number": "LC-141325020163/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68"}</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
@@ -32633,7 +32553,7 @@
       </c>
       <c r="B1447" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00", "lc_number": "LC-222825150235/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00"}</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
@@ -32787,7 +32707,7 @@
       </c>
       <c r="B1453" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00", "lc_number": "LC-141325020068/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00"}</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -32925,7 +32845,7 @@
       </c>
       <c r="B1459" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06", "lc_number": "LC-308524990243/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06"}</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
@@ -35832,7 +35752,7 @@
       </c>
       <c r="B1604" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11", "lc_number": "LC-308525021741/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11"}</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
@@ -35906,16 +35826,8 @@
       <c r="K1606" t="inlineStr"/>
     </row>
     <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>M083</t>
-        </is>
-      </c>
-      <c r="B1607" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "MOD/PO/2024/10/30061", "lender_amount": "89910.00", "borrower_amount": "89910.00", "po_number": "MOD/PO/2024/10/30061"}</t>
-        </is>
-      </c>
+      <c r="A1607" t="inlineStr"/>
+      <c r="B1607" t="inlineStr"/>
       <c r="C1607" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -36060,16 +35972,8 @@
       <c r="K1612" t="inlineStr"/>
     </row>
     <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>M084</t>
-        </is>
-      </c>
-      <c r="B1613" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/10/29964", "lender_amount": "24800.00", "borrower_amount": "24800.00", "po_number": "OPE/PO/2024/10/29964"}</t>
-        </is>
-      </c>
+      <c r="A1613" t="inlineStr"/>
+      <c r="B1613" t="inlineStr"/>
       <c r="C1613" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
@@ -36149,7 +36053,7 @@
       </c>
       <c r="B1616" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01", "lc_number": "LC-155825010037/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01"}</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
@@ -38235,16 +38139,8 @@
       <c r="K1702" t="inlineStr"/>
     </row>
     <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>M085</t>
-        </is>
-      </c>
-      <c r="B1703" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2025/4/33343", "lender_amount": "199850.00", "borrower_amount": "199850.00", "po_number": "OPE/PO/2025/4/33343"}</t>
-        </is>
-      </c>
+      <c r="A1703" t="inlineStr"/>
+      <c r="B1703" t="inlineStr"/>
       <c r="C1703" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
@@ -38316,16 +38212,8 @@
       <c r="K1705" t="inlineStr"/>
     </row>
     <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>M086</t>
-        </is>
-      </c>
-      <c r="B1706" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/11/30293", "lender_amount": "45094.20", "borrower_amount": "45094.20", "po_number": "OPE/PO/2024/11/30293"}</t>
-        </is>
-      </c>
+      <c r="A1706" t="inlineStr"/>
+      <c r="B1706" t="inlineStr"/>
       <c r="C1706" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
@@ -38696,7 +38584,7 @@
       </c>
       <c r="B1721" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "LC-141325020163/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
       <c r="C1721" t="inlineStr">
@@ -38850,7 +38738,7 @@
       </c>
       <c r="B1727" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50", "lc_number": "LC-308525021746/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50"}</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr">
@@ -39542,7 +39430,7 @@
       </c>
       <c r="B1757" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39", "lc_number": "LC-141325020063/141325020112"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39"}</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr">
@@ -40026,7 +39914,7 @@
       </c>
       <c r="B1777" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00", "lc_number": "LC-308524022166 "}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00"}</t>
         </is>
       </c>
       <c r="C1777" t="inlineStr">
@@ -40364,7 +40252,7 @@
       </c>
       <c r="B1791" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00", "lc_number": "LC-308524022166 "}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00"}</t>
         </is>
       </c>
       <c r="C1791" t="inlineStr">
@@ -40591,7 +40479,7 @@
       </c>
       <c r="B1800" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98", "lc_number": "L/C-308524026037/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98"}</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr">
@@ -41430,7 +41318,7 @@
       </c>
       <c r="B1837" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01", "lc_number": "L/C-147125020202/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01"}</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr">
@@ -41695,7 +41583,7 @@
       </c>
       <c r="B1848" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55", "lc_number": "L/C-147124020074/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55"}</t>
         </is>
       </c>
       <c r="C1848" t="inlineStr">

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -1127,7 +1127,10 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1163,8 +1166,19 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
@@ -1180,8 +1194,19 @@
       <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
@@ -1208,7 +1233,10 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1244,8 +1272,19 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
@@ -1263,8 +1302,19 @@
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
@@ -1282,8 +1332,19 @@
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
@@ -1301,8 +1362,19 @@
       <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
@@ -1318,8 +1390,19 @@
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
@@ -1339,8 +1422,19 @@
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1565,7 +1659,10 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1601,8 +1698,19 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
@@ -1618,8 +1726,19 @@
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
@@ -1646,7 +1765,10 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1682,8 +1804,19 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
@@ -1699,8 +1832,19 @@
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
@@ -1720,8 +1864,19 @@
       <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>07/Jan/2025</t>
@@ -2019,7 +2174,10 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2055,8 +2213,19 @@
       <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
@@ -2072,8 +2241,19 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
@@ -2095,12 +2275,15 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>M009</t>
+          <t>M011</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2136,8 +2319,19 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
@@ -2153,8 +2347,19 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
@@ -2174,8 +2379,19 @@
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>19/Jan/2025</t>
@@ -2546,7 +2762,10 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2582,8 +2801,19 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
@@ -2599,8 +2829,19 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
@@ -2622,12 +2863,15 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>M010</t>
+          <t>M025</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2663,8 +2907,19 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
@@ -2680,8 +2935,19 @@
       <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
@@ -2701,8 +2967,19 @@
       <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>30/Jan/2025</t>
@@ -6942,7 +7219,10 @@
       </c>
       <c r="B300" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6978,8 +7258,19 @@
       <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
-      <c r="B301" t="inlineStr"/>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B301" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
       <c r="E301" s="4" t="inlineStr">
@@ -6995,8 +7286,19 @@
       <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
-      <c r="B302" t="inlineStr"/>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B302" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
@@ -7016,8 +7318,19 @@
       <c r="K302" t="inlineStr"/>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr"/>
-      <c r="B303" t="inlineStr"/>
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B303" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C303" t="inlineStr">
         <is>
           <t>04/Feb/2025</t>
@@ -7096,7 +7409,10 @@
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79"}</t>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7132,8 +7448,19 @@
       <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
-      <c r="B307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B307" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
       <c r="E307" s="4" t="inlineStr">
@@ -7151,8 +7478,19 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
-      <c r="B308" t="inlineStr"/>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B308" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
       <c r="E308" s="4" t="inlineStr">
@@ -7170,8 +7508,19 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
-      <c r="B309" t="inlineStr"/>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B309" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
       <c r="E309" s="4" t="inlineStr">
@@ -7187,8 +7536,19 @@
       <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
-      <c r="B310" t="inlineStr"/>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B310" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
@@ -7208,8 +7568,19 @@
       <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
-      <c r="B311" t="inlineStr"/>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B311" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C311" t="inlineStr">
         <is>
           <t>05/Feb/2025</t>
@@ -7726,7 +8097,10 @@
       </c>
       <c r="B332" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7762,8 +8136,19 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
-      <c r="B333" t="inlineStr"/>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B333" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
       <c r="E333" s="4" t="inlineStr">
@@ -7779,8 +8164,19 @@
       <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
-      <c r="B334" t="inlineStr"/>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B334" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
@@ -7800,8 +8196,19 @@
       <c r="K334" t="inlineStr"/>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr"/>
-      <c r="B335" t="inlineStr"/>
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B335" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C335" t="inlineStr">
         <is>
           <t>10/Feb/2025</t>
@@ -8194,7 +8601,10 @@
       </c>
       <c r="B352" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77"}</t>
+          <t>Match Type: LC Match
+L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -8230,8 +8640,19 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
-      <c r="B353" t="inlineStr"/>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B353" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
       <c r="E353" s="4" t="inlineStr">
@@ -8247,8 +8668,19 @@
       <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
-      <c r="B354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B354" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
@@ -8268,8 +8700,19 @@
       <c r="K354" t="inlineStr"/>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
-      <c r="B355" t="inlineStr"/>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B355" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C355" t="inlineStr">
         <is>
           <t>12/Feb/2025</t>
@@ -9653,7 +10096,10 @@
       </c>
       <c r="B414" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90"}</t>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -9689,8 +10135,19 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr"/>
-      <c r="B415" t="inlineStr"/>
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B415" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr"/>
       <c r="E415" s="4" t="inlineStr">
@@ -9706,8 +10163,19 @@
       <c r="K415" t="inlineStr"/>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr"/>
-      <c r="B416" t="inlineStr"/>
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B416" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
@@ -9734,7 +10202,10 @@
       </c>
       <c r="B417" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82"}</t>
+          <t>Match Type: LC Match
+L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -9770,8 +10241,19 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr"/>
-      <c r="B418" t="inlineStr"/>
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B418" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr"/>
       <c r="E418" s="4" t="inlineStr">
@@ -9787,8 +10269,19 @@
       <c r="K418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr"/>
-      <c r="B419" t="inlineStr"/>
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B419" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
@@ -9808,8 +10301,19 @@
       <c r="K419" t="inlineStr"/>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr"/>
-      <c r="B420" t="inlineStr"/>
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B420" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C420" t="inlineStr">
         <is>
           <t>24/Feb/2025</t>
@@ -10986,7 +11490,10 @@
       </c>
       <c r="B469" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00"}</t>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -11022,8 +11529,19 @@
       <c r="K469" t="inlineStr"/>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
-      <c r="B470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B470" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
       <c r="E470" s="4" t="inlineStr">
@@ -11039,8 +11557,19 @@
       <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
-      <c r="B471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B471" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
@@ -11067,7 +11596,10 @@
       </c>
       <c r="B472" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89"}</t>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -11103,8 +11635,19 @@
       <c r="K472" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
-      <c r="B473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B473" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" s="4" t="inlineStr">
@@ -11120,8 +11663,19 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
-      <c r="B474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B474" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
@@ -11148,7 +11702,10 @@
       </c>
       <c r="B475" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00"}</t>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -11184,8 +11741,19 @@
       <c r="K475" t="inlineStr"/>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
-      <c r="B476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B476" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -11201,8 +11769,19 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
-      <c r="B477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B477" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
@@ -11229,7 +11808,10 @@
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97"}</t>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -11265,8 +11847,19 @@
       <c r="K478" t="inlineStr"/>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
-      <c r="B479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B479" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr"/>
       <c r="E479" s="4" t="inlineStr">
@@ -11282,8 +11875,19 @@
       <c r="K479" t="inlineStr"/>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
-      <c r="B480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B480" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
@@ -11303,8 +11907,19 @@
       <c r="K480" t="inlineStr"/>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
-      <c r="B481" t="inlineStr"/>
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B481" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C481" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -11383,7 +11998,10 @@
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61"}</t>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -11419,8 +12037,19 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
-      <c r="B485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B485" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr"/>
       <c r="E485" s="4" t="inlineStr">
@@ -11436,8 +12065,19 @@
       <c r="K485" t="inlineStr"/>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
-      <c r="B486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B486" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
@@ -11457,8 +12097,19 @@
       <c r="K486" t="inlineStr"/>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr"/>
-      <c r="B487" t="inlineStr"/>
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B487" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C487" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -12340,7 +12991,10 @@
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37"}</t>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -12376,8 +13030,19 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr"/>
-      <c r="B524" t="inlineStr"/>
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B524" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr"/>
       <c r="E524" s="4" t="inlineStr">
@@ -12395,8 +13060,19 @@
       <c r="K524" t="inlineStr"/>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr"/>
-      <c r="B525" t="inlineStr"/>
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B525" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr"/>
       <c r="E525" s="4" t="inlineStr">
@@ -12414,8 +13090,19 @@
       <c r="K525" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr"/>
-      <c r="B526" t="inlineStr"/>
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B526" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr"/>
       <c r="E526" s="4" t="inlineStr">
@@ -12431,8 +13118,19 @@
       <c r="K526" t="inlineStr"/>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr"/>
-      <c r="B527" t="inlineStr"/>
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B527" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
@@ -12452,8 +13150,19 @@
       <c r="K527" t="inlineStr"/>
     </row>
     <row r="528">
-      <c r="A528" t="inlineStr"/>
-      <c r="B528" t="inlineStr"/>
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B528" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C528" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -15348,7 +16057,10 @@
       </c>
       <c r="B675" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54"}</t>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -15384,8 +16096,19 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr"/>
-      <c r="B676" t="inlineStr"/>
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B676" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -15401,8 +16124,19 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
-      <c r="B677" t="inlineStr"/>
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B677" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
@@ -15422,8 +16156,19 @@
       <c r="K677" t="inlineStr"/>
     </row>
     <row r="678">
-      <c r="A678" t="inlineStr"/>
-      <c r="B678" t="inlineStr"/>
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B678" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C678" t="inlineStr">
         <is>
           <t>02/Mar/2025</t>
@@ -15889,7 +16634,10 @@
       </c>
       <c r="B698" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50"}</t>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -15925,8 +16673,19 @@
       <c r="K698" t="inlineStr"/>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr"/>
-      <c r="B699" t="inlineStr"/>
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B699" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
       <c r="E699" s="4" t="inlineStr">
@@ -15942,8 +16701,19 @@
       <c r="K699" t="inlineStr"/>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr"/>
-      <c r="B700" t="inlineStr"/>
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B700" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
         <is>
@@ -15963,8 +16733,19 @@
       <c r="K700" t="inlineStr"/>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr"/>
-      <c r="B701" t="inlineStr"/>
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B701" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C701" t="inlineStr">
         <is>
           <t>09/Mar/2025</t>
@@ -16043,7 +16824,10 @@
       </c>
       <c r="B704" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00"}</t>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -16079,8 +16863,19 @@
       <c r="K704" t="inlineStr"/>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr"/>
-      <c r="B705" t="inlineStr"/>
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B705" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr"/>
       <c r="E705" s="4" t="inlineStr">
@@ -16096,8 +16891,19 @@
       <c r="K705" t="inlineStr"/>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr"/>
-      <c r="B706" t="inlineStr"/>
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B706" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
@@ -16124,7 +16930,10 @@
       </c>
       <c r="B707" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -16160,8 +16969,19 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr"/>
-      <c r="B708" t="inlineStr"/>
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B708" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr"/>
       <c r="E708" s="4" t="inlineStr">
@@ -16177,8 +16997,19 @@
       <c r="K708" t="inlineStr"/>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr"/>
-      <c r="B709" t="inlineStr"/>
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B709" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr">
         <is>
@@ -16205,7 +17036,10 @@
       </c>
       <c r="B710" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90"}</t>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -16241,8 +17075,19 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr"/>
-      <c r="B711" t="inlineStr"/>
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B711" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -16260,8 +17105,19 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr"/>
-      <c r="B712" t="inlineStr"/>
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B712" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr"/>
       <c r="E712" s="4" t="inlineStr">
@@ -16279,8 +17135,19 @@
       <c r="K712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr"/>
-      <c r="B713" t="inlineStr"/>
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B713" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr"/>
       <c r="E713" s="4" t="inlineStr">
@@ -16296,8 +17163,19 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr"/>
-      <c r="B714" t="inlineStr"/>
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B714" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
@@ -16317,8 +17195,19 @@
       <c r="K714" t="inlineStr"/>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr"/>
-      <c r="B715" t="inlineStr"/>
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B715" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C715" t="inlineStr">
         <is>
           <t>10/Mar/2025</t>
@@ -17339,7 +18228,10 @@
       </c>
       <c r="B760" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58"}</t>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -17375,8 +18267,19 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" t="inlineStr"/>
-      <c r="B761" t="inlineStr"/>
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B761" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C761" t="inlineStr"/>
       <c r="D761" t="inlineStr"/>
       <c r="E761" s="4" t="inlineStr">
@@ -17392,8 +18295,19 @@
       <c r="K761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr"/>
-      <c r="B762" t="inlineStr"/>
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B762" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
         <is>
@@ -17413,8 +18327,19 @@
       <c r="K762" t="inlineStr"/>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr"/>
-      <c r="B763" t="inlineStr"/>
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B763" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C763" t="inlineStr">
         <is>
           <t>18/Mar/2025</t>
@@ -17753,7 +18678,10 @@
       </c>
       <c r="B778" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -17789,8 +18717,19 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr"/>
-      <c r="B779" t="inlineStr"/>
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B779" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr"/>
       <c r="E779" s="4" t="inlineStr">
@@ -17806,8 +18745,19 @@
       <c r="K779" t="inlineStr"/>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr"/>
-      <c r="B780" t="inlineStr"/>
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B780" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
@@ -17827,8 +18777,19 @@
       <c r="K780" t="inlineStr"/>
     </row>
     <row r="781">
-      <c r="A781" t="inlineStr"/>
-      <c r="B781" t="inlineStr"/>
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B781" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C781" t="inlineStr">
         <is>
           <t>20/Mar/2025</t>
@@ -19042,7 +20003,10 @@
       </c>
       <c r="B837" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10"}</t>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -19078,8 +20042,19 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="inlineStr"/>
-      <c r="B838" t="inlineStr"/>
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B838" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C838" t="inlineStr"/>
       <c r="D838" t="inlineStr"/>
       <c r="E838" s="4" t="inlineStr">
@@ -19095,8 +20070,19 @@
       <c r="K838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" t="inlineStr"/>
-      <c r="B839" t="inlineStr"/>
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B839" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
         <is>
@@ -19123,7 +20109,10 @@
       </c>
       <c r="B840" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97"}</t>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -19159,8 +20148,19 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" t="inlineStr"/>
-      <c r="B841" t="inlineStr"/>
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B841" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C841" t="inlineStr"/>
       <c r="D841" t="inlineStr"/>
       <c r="E841" s="4" t="inlineStr">
@@ -19176,8 +20176,19 @@
       <c r="K841" t="inlineStr"/>
     </row>
     <row r="842">
-      <c r="A842" t="inlineStr"/>
-      <c r="B842" t="inlineStr"/>
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B842" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
@@ -19197,8 +20208,19 @@
       <c r="K842" t="inlineStr"/>
     </row>
     <row r="843">
-      <c r="A843" t="inlineStr"/>
-      <c r="B843" t="inlineStr"/>
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B843" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C843" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -19353,7 +20375,10 @@
       </c>
       <c r="B850" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94"}</t>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -19389,8 +20414,19 @@
       <c r="K850" t="inlineStr"/>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr"/>
-      <c r="B851" t="inlineStr"/>
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B851" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr"/>
       <c r="E851" s="4" t="inlineStr">
@@ -19408,8 +20444,19 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr"/>
-      <c r="B852" t="inlineStr"/>
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B852" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr"/>
       <c r="E852" s="4" t="inlineStr">
@@ -19427,8 +20474,19 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr"/>
-      <c r="B853" t="inlineStr"/>
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B853" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr"/>
       <c r="E853" s="4" t="inlineStr">
@@ -19444,8 +20502,19 @@
       <c r="K853" t="inlineStr"/>
     </row>
     <row r="854">
-      <c r="A854" t="inlineStr"/>
-      <c r="B854" t="inlineStr"/>
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B854" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C854" t="inlineStr"/>
       <c r="D854" t="inlineStr">
         <is>
@@ -19472,7 +20541,10 @@
       </c>
       <c r="B855" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77"}</t>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -19508,8 +20580,19 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr"/>
-      <c r="B856" t="inlineStr"/>
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B856" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr"/>
       <c r="E856" s="4" t="inlineStr">
@@ -19525,8 +20608,19 @@
       <c r="K856" t="inlineStr"/>
     </row>
     <row r="857">
-      <c r="A857" t="inlineStr"/>
-      <c r="B857" t="inlineStr"/>
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B857" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
         <is>
@@ -19553,7 +20647,10 @@
       </c>
       <c r="B858" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68"}</t>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -19589,8 +20686,19 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" t="inlineStr"/>
-      <c r="B859" t="inlineStr"/>
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B859" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr"/>
       <c r="E859" s="4" t="inlineStr">
@@ -19606,8 +20714,19 @@
       <c r="K859" t="inlineStr"/>
     </row>
     <row r="860">
-      <c r="A860" t="inlineStr"/>
-      <c r="B860" t="inlineStr"/>
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B860" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
         <is>
@@ -19627,8 +20746,19 @@
       <c r="K860" t="inlineStr"/>
     </row>
     <row r="861">
-      <c r="A861" t="inlineStr"/>
-      <c r="B861" t="inlineStr"/>
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B861" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C861" t="inlineStr">
         <is>
           <t>31/Mar/2025</t>
@@ -22282,7 +23412,10 @@
       </c>
       <c r="B997" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95"}</t>
+          <t>Match Type: LC Match
+L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -22318,8 +23451,19 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr"/>
-      <c r="B998" t="inlineStr"/>
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B998" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C998" t="inlineStr"/>
       <c r="D998" t="inlineStr"/>
       <c r="E998" s="4" t="inlineStr">
@@ -22335,8 +23479,19 @@
       <c r="K998" t="inlineStr"/>
     </row>
     <row r="999">
-      <c r="A999" t="inlineStr"/>
-      <c r="B999" t="inlineStr"/>
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B999" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr">
         <is>
@@ -22363,7 +23518,10 @@
       </c>
       <c r="B1000" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86"}</t>
+          <t>Match Type: LC Match
+L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -22399,8 +23557,19 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" t="inlineStr"/>
-      <c r="B1001" t="inlineStr"/>
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B1001" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C1001" t="inlineStr"/>
       <c r="D1001" t="inlineStr"/>
       <c r="E1001" s="4" t="inlineStr">
@@ -22416,8 +23585,19 @@
       <c r="K1001" t="inlineStr"/>
     </row>
     <row r="1002">
-      <c r="A1002" t="inlineStr"/>
-      <c r="B1002" t="inlineStr"/>
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B1002" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C1002" t="inlineStr"/>
       <c r="D1002" t="inlineStr">
         <is>
@@ -22444,7 +23624,10 @@
       </c>
       <c r="B1003" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -22480,8 +23663,19 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" t="inlineStr"/>
-      <c r="B1004" t="inlineStr"/>
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B1004" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1004" t="inlineStr"/>
       <c r="D1004" t="inlineStr"/>
       <c r="E1004" s="4" t="inlineStr">
@@ -22497,8 +23691,19 @@
       <c r="K1004" t="inlineStr"/>
     </row>
     <row r="1005">
-      <c r="A1005" t="inlineStr"/>
-      <c r="B1005" t="inlineStr"/>
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B1005" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr">
         <is>
@@ -22518,8 +23723,19 @@
       <c r="K1005" t="inlineStr"/>
     </row>
     <row r="1006">
-      <c r="A1006" t="inlineStr"/>
-      <c r="B1006" t="inlineStr"/>
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B1006" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1006" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -23039,7 +24255,10 @@
       </c>
       <c r="B1028" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03"}</t>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -23075,8 +24294,19 @@
       <c r="K1028" t="inlineStr"/>
     </row>
     <row r="1029">
-      <c r="A1029" t="inlineStr"/>
-      <c r="B1029" t="inlineStr"/>
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B1029" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
+        </is>
+      </c>
       <c r="C1029" t="inlineStr"/>
       <c r="D1029" t="inlineStr"/>
       <c r="E1029" s="4" t="inlineStr">
@@ -23092,8 +24322,19 @@
       <c r="K1029" t="inlineStr"/>
     </row>
     <row r="1030">
-      <c r="A1030" t="inlineStr"/>
-      <c r="B1030" t="inlineStr"/>
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B1030" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
+        </is>
+      </c>
       <c r="C1030" t="inlineStr"/>
       <c r="D1030" t="inlineStr">
         <is>
@@ -23120,7 +24361,10 @@
       </c>
       <c r="B1031" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20"}</t>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -23156,8 +24400,19 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr"/>
-      <c r="B1032" t="inlineStr"/>
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1032" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -23175,8 +24430,19 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr"/>
-      <c r="B1033" t="inlineStr"/>
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1033" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr"/>
       <c r="E1033" s="4" t="inlineStr">
@@ -23194,8 +24460,19 @@
       </c>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr"/>
-      <c r="B1034" t="inlineStr"/>
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1034" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1034" t="inlineStr"/>
       <c r="D1034" t="inlineStr"/>
       <c r="E1034" s="4" t="inlineStr">
@@ -23211,8 +24488,19 @@
       <c r="K1034" t="inlineStr"/>
     </row>
     <row r="1035">
-      <c r="A1035" t="inlineStr"/>
-      <c r="B1035" t="inlineStr"/>
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1035" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1035" t="inlineStr"/>
       <c r="D1035" t="inlineStr">
         <is>
@@ -23232,8 +24520,19 @@
       <c r="K1035" t="inlineStr"/>
     </row>
     <row r="1036">
-      <c r="A1036" t="inlineStr"/>
-      <c r="B1036" t="inlineStr"/>
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1036" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1036" t="inlineStr">
         <is>
           <t>16/Apr/2025</t>
@@ -23312,7 +24611,10 @@
       </c>
       <c r="B1039" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00"}</t>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -23348,8 +24650,19 @@
       <c r="K1039" t="inlineStr"/>
     </row>
     <row r="1040">
-      <c r="A1040" t="inlineStr"/>
-      <c r="B1040" t="inlineStr"/>
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B1040" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C1040" t="inlineStr"/>
       <c r="D1040" t="inlineStr"/>
       <c r="E1040" s="4" t="inlineStr">
@@ -23365,8 +24678,19 @@
       <c r="K1040" t="inlineStr"/>
     </row>
     <row r="1041">
-      <c r="A1041" t="inlineStr"/>
-      <c r="B1041" t="inlineStr"/>
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B1041" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C1041" t="inlineStr"/>
       <c r="D1041" t="inlineStr">
         <is>
@@ -23386,8 +24710,19 @@
       <c r="K1041" t="inlineStr"/>
     </row>
     <row r="1042">
-      <c r="A1042" t="inlineStr"/>
-      <c r="B1042" t="inlineStr"/>
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B1042" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C1042" t="inlineStr">
         <is>
           <t>17/Apr/2025</t>
@@ -23612,7 +24947,10 @@
       </c>
       <c r="B1051" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09"}</t>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -23648,8 +24986,19 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" t="inlineStr"/>
-      <c r="B1052" t="inlineStr"/>
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1052" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1052" t="inlineStr"/>
       <c r="D1052" t="inlineStr"/>
       <c r="E1052" s="4" t="inlineStr">
@@ -23667,8 +25016,19 @@
       <c r="K1052" t="inlineStr"/>
     </row>
     <row r="1053">
-      <c r="A1053" t="inlineStr"/>
-      <c r="B1053" t="inlineStr"/>
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1053" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1053" t="inlineStr"/>
       <c r="D1053" t="inlineStr"/>
       <c r="E1053" s="4" t="inlineStr">
@@ -23686,8 +25046,19 @@
       <c r="K1053" t="inlineStr"/>
     </row>
     <row r="1054">
-      <c r="A1054" t="inlineStr"/>
-      <c r="B1054" t="inlineStr"/>
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1054" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1054" t="inlineStr"/>
       <c r="D1054" t="inlineStr"/>
       <c r="E1054" s="4" t="inlineStr">
@@ -23705,8 +25076,19 @@
       <c r="K1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" t="inlineStr"/>
-      <c r="B1055" t="inlineStr"/>
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1055" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1055" t="inlineStr"/>
       <c r="D1055" t="inlineStr"/>
       <c r="E1055" s="4" t="inlineStr">
@@ -23724,8 +25106,19 @@
       <c r="K1055" t="inlineStr"/>
     </row>
     <row r="1056">
-      <c r="A1056" t="inlineStr"/>
-      <c r="B1056" t="inlineStr"/>
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1056" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1056" t="inlineStr"/>
       <c r="D1056" t="inlineStr"/>
       <c r="E1056" s="4" t="inlineStr">
@@ -23743,8 +25136,19 @@
       <c r="K1056" t="inlineStr"/>
     </row>
     <row r="1057">
-      <c r="A1057" t="inlineStr"/>
-      <c r="B1057" t="inlineStr"/>
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1057" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1057" t="inlineStr"/>
       <c r="D1057" t="inlineStr"/>
       <c r="E1057" s="4" t="inlineStr">
@@ -23762,8 +25166,19 @@
       <c r="K1057" t="inlineStr"/>
     </row>
     <row r="1058">
-      <c r="A1058" t="inlineStr"/>
-      <c r="B1058" t="inlineStr"/>
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1058" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1058" t="inlineStr"/>
       <c r="D1058" t="inlineStr"/>
       <c r="E1058" s="4" t="inlineStr">
@@ -23779,8 +25194,19 @@
       <c r="K1058" t="inlineStr"/>
     </row>
     <row r="1059">
-      <c r="A1059" t="inlineStr"/>
-      <c r="B1059" t="inlineStr"/>
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1059" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1059" t="inlineStr"/>
       <c r="D1059" t="inlineStr">
         <is>
@@ -23800,8 +25226,19 @@
       <c r="K1059" t="inlineStr"/>
     </row>
     <row r="1060">
-      <c r="A1060" t="inlineStr"/>
-      <c r="B1060" t="inlineStr"/>
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1060" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1060" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -23937,7 +25374,10 @@
       </c>
       <c r="B1066" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00"}</t>
+          <t>Match Type: LC Match
+LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -23973,8 +25413,19 @@
       <c r="K1066" t="inlineStr"/>
     </row>
     <row r="1067">
-      <c r="A1067" t="inlineStr"/>
-      <c r="B1067" t="inlineStr"/>
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B1067" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C1067" t="inlineStr"/>
       <c r="D1067" t="inlineStr"/>
       <c r="E1067" s="4" t="inlineStr">
@@ -23990,8 +25441,19 @@
       <c r="K1067" t="inlineStr"/>
     </row>
     <row r="1068">
-      <c r="A1068" t="inlineStr"/>
-      <c r="B1068" t="inlineStr"/>
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B1068" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C1068" t="inlineStr"/>
       <c r="D1068" t="inlineStr">
         <is>
@@ -24011,8 +25473,19 @@
       <c r="K1068" t="inlineStr"/>
     </row>
     <row r="1069">
-      <c r="A1069" t="inlineStr"/>
-      <c r="B1069" t="inlineStr"/>
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B1069" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C1069" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -24260,7 +25733,10 @@
       </c>
       <c r="B1080" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92"}</t>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -24296,8 +25772,19 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" t="inlineStr"/>
-      <c r="B1081" t="inlineStr"/>
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B1081" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C1081" t="inlineStr"/>
       <c r="D1081" t="inlineStr"/>
       <c r="E1081" s="4" t="inlineStr">
@@ -24313,8 +25800,19 @@
       <c r="K1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr"/>
-      <c r="B1082" t="inlineStr"/>
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B1082" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C1082" t="inlineStr"/>
       <c r="D1082" t="inlineStr">
         <is>
@@ -24341,7 +25839,10 @@
       </c>
       <c r="B1083" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76"}</t>
+          <t>Match Type: LC Match
+L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -24377,8 +25878,19 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" t="inlineStr"/>
-      <c r="B1084" t="inlineStr"/>
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B1084" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C1084" t="inlineStr"/>
       <c r="D1084" t="inlineStr"/>
       <c r="E1084" s="4" t="inlineStr">
@@ -24394,8 +25906,19 @@
       <c r="K1084" t="inlineStr"/>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr"/>
-      <c r="B1085" t="inlineStr"/>
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B1085" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C1085" t="inlineStr"/>
       <c r="D1085" t="inlineStr">
         <is>
@@ -24422,7 +25945,10 @@
       </c>
       <c r="B1086" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00"}</t>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -24458,8 +25984,19 @@
       <c r="K1086" t="inlineStr"/>
     </row>
     <row r="1087">
-      <c r="A1087" t="inlineStr"/>
-      <c r="B1087" t="inlineStr"/>
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B1087" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C1087" t="inlineStr"/>
       <c r="D1087" t="inlineStr"/>
       <c r="E1087" s="4" t="inlineStr">
@@ -24475,8 +26012,19 @@
       <c r="K1087" t="inlineStr"/>
     </row>
     <row r="1088">
-      <c r="A1088" t="inlineStr"/>
-      <c r="B1088" t="inlineStr"/>
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B1088" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C1088" t="inlineStr"/>
       <c r="D1088" t="inlineStr">
         <is>
@@ -24496,8 +26044,19 @@
       <c r="K1088" t="inlineStr"/>
     </row>
     <row r="1089">
-      <c r="A1089" t="inlineStr"/>
-      <c r="B1089" t="inlineStr"/>
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B1089" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C1089" t="inlineStr">
         <is>
           <t>23/Apr/2025</t>
@@ -24722,7 +26281,10 @@
       </c>
       <c r="B1098" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52"}</t>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -24758,8 +26320,19 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" t="inlineStr"/>
-      <c r="B1099" t="inlineStr"/>
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B1099" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr"/>
       <c r="E1099" s="4" t="inlineStr">
@@ -24775,8 +26348,19 @@
       <c r="K1099" t="inlineStr"/>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr"/>
-      <c r="B1100" t="inlineStr"/>
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B1100" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
@@ -24796,8 +26380,19 @@
       <c r="K1100" t="inlineStr"/>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr"/>
-      <c r="B1101" t="inlineStr"/>
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B1101" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C1101" t="inlineStr">
         <is>
           <t>24/Apr/2025</t>
@@ -25314,7 +26909,10 @@
       </c>
       <c r="B1122" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55"}</t>
+          <t>Match Type: LC Match
+LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -25350,8 +26948,19 @@
       <c r="K1122" t="inlineStr"/>
     </row>
     <row r="1123">
-      <c r="A1123" t="inlineStr"/>
-      <c r="B1123" t="inlineStr"/>
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B1123" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" s="4" t="inlineStr">
@@ -25367,8 +26976,19 @@
       <c r="K1123" t="inlineStr"/>
     </row>
     <row r="1124">
-      <c r="A1124" t="inlineStr"/>
-      <c r="B1124" t="inlineStr"/>
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B1124" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
@@ -25395,7 +27015,10 @@
       </c>
       <c r="B1125" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78"}</t>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -25431,8 +27054,19 @@
       <c r="K1125" t="inlineStr"/>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr"/>
-      <c r="B1126" t="inlineStr"/>
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B1126" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" s="4" t="inlineStr">
@@ -25448,8 +27082,19 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr"/>
-      <c r="B1127" t="inlineStr"/>
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B1127" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
@@ -25476,7 +27121,10 @@
       </c>
       <c r="B1128" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80"}</t>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -25512,8 +27160,19 @@
       <c r="K1128" t="inlineStr"/>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr"/>
-      <c r="B1129" t="inlineStr"/>
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B1129" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -25529,8 +27188,19 @@
       <c r="K1129" t="inlineStr"/>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr"/>
-      <c r="B1130" t="inlineStr"/>
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B1130" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
@@ -25550,8 +27220,19 @@
       <c r="K1130" t="inlineStr"/>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr"/>
-      <c r="B1131" t="inlineStr"/>
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B1131" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C1131" t="inlineStr">
         <is>
           <t>28/Apr/2025</t>
@@ -26036,7 +27717,10 @@
       </c>
       <c r="B1152" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36"}</t>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -26072,8 +27756,19 @@
       <c r="K1152" t="inlineStr"/>
     </row>
     <row r="1153">
-      <c r="A1153" t="inlineStr"/>
-      <c r="B1153" t="inlineStr"/>
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B1153" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" s="4" t="inlineStr">
@@ -26089,8 +27784,19 @@
       <c r="K1153" t="inlineStr"/>
     </row>
     <row r="1154">
-      <c r="A1154" t="inlineStr"/>
-      <c r="B1154" t="inlineStr"/>
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B1154" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C1154" t="inlineStr"/>
       <c r="D1154" t="inlineStr">
         <is>
@@ -26117,7 +27823,10 @@
       </c>
       <c r="B1155" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40"}</t>
+          <t>Match Type: LC Match
+L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -26153,8 +27862,19 @@
       <c r="K1155" t="inlineStr"/>
     </row>
     <row r="1156">
-      <c r="A1156" t="inlineStr"/>
-      <c r="B1156" t="inlineStr"/>
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B1156" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" s="4" t="inlineStr">
@@ -26170,8 +27890,19 @@
       <c r="K1156" t="inlineStr"/>
     </row>
     <row r="1157">
-      <c r="A1157" t="inlineStr"/>
-      <c r="B1157" t="inlineStr"/>
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B1157" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C1157" t="inlineStr"/>
       <c r="D1157" t="inlineStr">
         <is>
@@ -26198,7 +27929,10 @@
       </c>
       <c r="B1158" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54"}</t>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -26234,8 +27968,19 @@
       <c r="K1158" t="inlineStr"/>
     </row>
     <row r="1159">
-      <c r="A1159" t="inlineStr"/>
-      <c r="B1159" t="inlineStr"/>
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B1159" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C1159" t="inlineStr"/>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" s="4" t="inlineStr">
@@ -26251,8 +27996,19 @@
       <c r="K1159" t="inlineStr"/>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B1160" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
         <is>
@@ -26272,8 +28028,19 @@
       <c r="K1160" t="inlineStr"/>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
-      <c r="B1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B1161" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C1161" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -31136,7 +32903,10 @@
       </c>
       <c r="B1388" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42"}</t>
+          <t>Match Type: LC Match
+LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
@@ -31172,8 +32942,19 @@
       <c r="K1388" t="inlineStr"/>
     </row>
     <row r="1389">
-      <c r="A1389" t="inlineStr"/>
-      <c r="B1389" t="inlineStr"/>
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B1389" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" s="4" t="inlineStr">
@@ -31189,8 +32970,19 @@
       <c r="K1389" t="inlineStr"/>
     </row>
     <row r="1390">
-      <c r="A1390" t="inlineStr"/>
-      <c r="B1390" t="inlineStr"/>
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B1390" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
@@ -31217,7 +33009,10 @@
       </c>
       <c r="B1391" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76"}</t>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
@@ -31253,8 +33048,19 @@
       <c r="K1391" t="inlineStr"/>
     </row>
     <row r="1392">
-      <c r="A1392" t="inlineStr"/>
-      <c r="B1392" t="inlineStr"/>
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B1392" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" s="4" t="inlineStr">
@@ -31270,8 +33076,19 @@
       <c r="K1392" t="inlineStr"/>
     </row>
     <row r="1393">
-      <c r="A1393" t="inlineStr"/>
-      <c r="B1393" t="inlineStr"/>
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B1393" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
@@ -31298,7 +33115,10 @@
       </c>
       <c r="B1394" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81"}</t>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -31334,8 +33154,19 @@
       <c r="K1394" t="inlineStr"/>
     </row>
     <row r="1395">
-      <c r="A1395" t="inlineStr"/>
-      <c r="B1395" t="inlineStr"/>
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B1395" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" s="4" t="inlineStr">
@@ -31351,8 +33182,19 @@
       <c r="K1395" t="inlineStr"/>
     </row>
     <row r="1396">
-      <c r="A1396" t="inlineStr"/>
-      <c r="B1396" t="inlineStr"/>
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B1396" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
@@ -31372,8 +33214,19 @@
       <c r="K1396" t="inlineStr"/>
     </row>
     <row r="1397">
-      <c r="A1397" t="inlineStr"/>
-      <c r="B1397" t="inlineStr"/>
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B1397" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C1397" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -31671,7 +33524,10 @@
       </c>
       <c r="B1409" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06"}</t>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
@@ -31707,8 +33563,19 @@
       <c r="K1409" t="inlineStr"/>
     </row>
     <row r="1410">
-      <c r="A1410" t="inlineStr"/>
-      <c r="B1410" t="inlineStr"/>
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B1410" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" s="4" t="inlineStr">
@@ -31724,8 +33591,19 @@
       <c r="K1410" t="inlineStr"/>
     </row>
     <row r="1411">
-      <c r="A1411" t="inlineStr"/>
-      <c r="B1411" t="inlineStr"/>
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B1411" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
@@ -31745,8 +33623,19 @@
       <c r="K1411" t="inlineStr"/>
     </row>
     <row r="1412">
-      <c r="A1412" t="inlineStr"/>
-      <c r="B1412" t="inlineStr"/>
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B1412" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C1412" t="inlineStr">
         <is>
           <t>18/May/2025</t>
@@ -32117,7 +34006,10 @@
       </c>
       <c r="B1427" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68"}</t>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
@@ -32153,8 +34045,19 @@
       <c r="K1427" t="inlineStr"/>
     </row>
     <row r="1428">
-      <c r="A1428" t="inlineStr"/>
-      <c r="B1428" t="inlineStr"/>
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1428" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr"/>
       <c r="E1428" s="4" t="inlineStr">
@@ -32172,8 +34075,19 @@
       </c>
     </row>
     <row r="1429">
-      <c r="A1429" t="inlineStr"/>
-      <c r="B1429" t="inlineStr"/>
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1429" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr"/>
       <c r="E1429" s="4" t="inlineStr">
@@ -32191,8 +34105,19 @@
       </c>
     </row>
     <row r="1430">
-      <c r="A1430" t="inlineStr"/>
-      <c r="B1430" t="inlineStr"/>
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1430" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1430" t="inlineStr"/>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" s="4" t="inlineStr">
@@ -32208,8 +34133,19 @@
       <c r="K1430" t="inlineStr"/>
     </row>
     <row r="1431">
-      <c r="A1431" t="inlineStr"/>
-      <c r="B1431" t="inlineStr"/>
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1431" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1431" t="inlineStr"/>
       <c r="D1431" t="inlineStr">
         <is>
@@ -32229,8 +34165,19 @@
       <c r="K1431" t="inlineStr"/>
     </row>
     <row r="1432">
-      <c r="A1432" t="inlineStr"/>
-      <c r="B1432" t="inlineStr"/>
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1432" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1432" t="inlineStr">
         <is>
           <t>28/May/2025</t>
@@ -32553,7 +34500,10 @@
       </c>
       <c r="B1447" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00"}</t>
+          <t>Match Type: LC Match
+LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
@@ -32589,8 +34539,19 @@
       <c r="K1447" t="inlineStr"/>
     </row>
     <row r="1448">
-      <c r="A1448" t="inlineStr"/>
-      <c r="B1448" t="inlineStr"/>
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B1448" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C1448" t="inlineStr"/>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" s="4" t="inlineStr">
@@ -32606,8 +34567,19 @@
       <c r="K1448" t="inlineStr"/>
     </row>
     <row r="1449">
-      <c r="A1449" t="inlineStr"/>
-      <c r="B1449" t="inlineStr"/>
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B1449" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
         <is>
@@ -32627,8 +34599,19 @@
       <c r="K1449" t="inlineStr"/>
     </row>
     <row r="1450">
-      <c r="A1450" t="inlineStr"/>
-      <c r="B1450" t="inlineStr"/>
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B1450" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C1450" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -32707,7 +34690,10 @@
       </c>
       <c r="B1453" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00"}</t>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -32743,8 +34729,19 @@
       <c r="K1453" t="inlineStr"/>
     </row>
     <row r="1454">
-      <c r="A1454" t="inlineStr"/>
-      <c r="B1454" t="inlineStr"/>
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1454" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" s="4" t="inlineStr">
@@ -32762,8 +34759,19 @@
       </c>
     </row>
     <row r="1455">
-      <c r="A1455" t="inlineStr"/>
-      <c r="B1455" t="inlineStr"/>
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1455" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1455" t="inlineStr"/>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" s="4" t="inlineStr">
@@ -32781,8 +34789,19 @@
       </c>
     </row>
     <row r="1456">
-      <c r="A1456" t="inlineStr"/>
-      <c r="B1456" t="inlineStr"/>
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1456" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" s="4" t="inlineStr">
@@ -32800,8 +34819,19 @@
       </c>
     </row>
     <row r="1457">
-      <c r="A1457" t="inlineStr"/>
-      <c r="B1457" t="inlineStr"/>
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1457" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1457" t="inlineStr"/>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" s="4" t="inlineStr">
@@ -32817,8 +34847,19 @@
       <c r="K1457" t="inlineStr"/>
     </row>
     <row r="1458">
-      <c r="A1458" t="inlineStr"/>
-      <c r="B1458" t="inlineStr"/>
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1458" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1458" t="inlineStr"/>
       <c r="D1458" t="inlineStr">
         <is>
@@ -32845,7 +34886,10 @@
       </c>
       <c r="B1459" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06"}</t>
+          <t>Match Type: LC Match
+LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
@@ -32881,8 +34925,19 @@
       </c>
     </row>
     <row r="1460">
-      <c r="A1460" t="inlineStr"/>
-      <c r="B1460" t="inlineStr"/>
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B1460" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C1460" t="inlineStr"/>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" s="4" t="inlineStr">
@@ -32898,8 +34953,19 @@
       <c r="K1460" t="inlineStr"/>
     </row>
     <row r="1461">
-      <c r="A1461" t="inlineStr"/>
-      <c r="B1461" t="inlineStr"/>
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B1461" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C1461" t="inlineStr"/>
       <c r="D1461" t="inlineStr">
         <is>
@@ -32919,8 +34985,19 @@
       <c r="K1461" t="inlineStr"/>
     </row>
     <row r="1462">
-      <c r="A1462" t="inlineStr"/>
-      <c r="B1462" t="inlineStr"/>
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B1462" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C1462" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -35752,7 +37829,10 @@
       </c>
       <c r="B1604" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11"}</t>
+          <t>Match Type: LC Match
+LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
@@ -35788,8 +37868,19 @@
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="inlineStr"/>
-      <c r="B1605" t="inlineStr"/>
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1605" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" s="4" t="inlineStr">
@@ -35805,8 +37896,19 @@
       <c r="K1605" t="inlineStr"/>
     </row>
     <row r="1606">
-      <c r="A1606" t="inlineStr"/>
-      <c r="B1606" t="inlineStr"/>
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1606" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
         <is>
@@ -35826,8 +37928,19 @@
       <c r="K1606" t="inlineStr"/>
     </row>
     <row r="1607">
-      <c r="A1607" t="inlineStr"/>
-      <c r="B1607" t="inlineStr"/>
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1607" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1607" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -36053,7 +38166,10 @@
       </c>
       <c r="B1616" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01"}</t>
+          <t>Match Type: LC Match
+LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
@@ -36089,8 +38205,19 @@
       </c>
     </row>
     <row r="1617">
-      <c r="A1617" t="inlineStr"/>
-      <c r="B1617" t="inlineStr"/>
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1617" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" s="4" t="inlineStr">
@@ -36106,8 +38233,19 @@
       <c r="K1617" t="inlineStr"/>
     </row>
     <row r="1618">
-      <c r="A1618" t="inlineStr"/>
-      <c r="B1618" t="inlineStr"/>
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1618" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1618" t="inlineStr"/>
       <c r="D1618" t="inlineStr">
         <is>
@@ -36127,8 +38265,19 @@
       <c r="K1618" t="inlineStr"/>
     </row>
     <row r="1619">
-      <c r="A1619" t="inlineStr"/>
-      <c r="B1619" t="inlineStr"/>
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1619" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1619" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
@@ -38584,7 +40733,10 @@
       </c>
       <c r="B1721" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
         </is>
       </c>
       <c r="C1721" t="inlineStr">
@@ -38620,8 +40772,19 @@
       <c r="K1721" t="inlineStr"/>
     </row>
     <row r="1722">
-      <c r="A1722" t="inlineStr"/>
-      <c r="B1722" t="inlineStr"/>
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1722" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1722" t="inlineStr"/>
       <c r="D1722" t="inlineStr"/>
       <c r="E1722" s="4" t="inlineStr">
@@ -38637,8 +40800,19 @@
       <c r="K1722" t="inlineStr"/>
     </row>
     <row r="1723">
-      <c r="A1723" t="inlineStr"/>
-      <c r="B1723" t="inlineStr"/>
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1723" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1723" t="inlineStr"/>
       <c r="D1723" t="inlineStr">
         <is>
@@ -38658,8 +40832,19 @@
       <c r="K1723" t="inlineStr"/>
     </row>
     <row r="1724">
-      <c r="A1724" t="inlineStr"/>
-      <c r="B1724" t="inlineStr"/>
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1724" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1724" t="inlineStr">
         <is>
           <t>17/Jun/2025</t>
@@ -38738,7 +40923,10 @@
       </c>
       <c r="B1727" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50"}</t>
+          <t>Match Type: LC Match
+LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr">
@@ -38774,8 +40962,19 @@
       </c>
     </row>
     <row r="1728">
-      <c r="A1728" t="inlineStr"/>
-      <c r="B1728" t="inlineStr"/>
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1728" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1728" t="inlineStr"/>
       <c r="D1728" t="inlineStr"/>
       <c r="E1728" s="4" t="inlineStr">
@@ -38791,8 +40990,19 @@
       <c r="K1728" t="inlineStr"/>
     </row>
     <row r="1729">
-      <c r="A1729" t="inlineStr"/>
-      <c r="B1729" t="inlineStr"/>
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1729" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1729" t="inlineStr"/>
       <c r="D1729" t="inlineStr">
         <is>
@@ -38812,8 +41022,19 @@
       <c r="K1729" t="inlineStr"/>
     </row>
     <row r="1730">
-      <c r="A1730" t="inlineStr"/>
-      <c r="B1730" t="inlineStr"/>
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1730" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1730" t="inlineStr">
         <is>
           <t>17/Jun/2025</t>
@@ -39430,7 +41651,10 @@
       </c>
       <c r="B1757" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39"}</t>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr">
@@ -39466,8 +41690,19 @@
       </c>
     </row>
     <row r="1758">
-      <c r="A1758" t="inlineStr"/>
-      <c r="B1758" t="inlineStr"/>
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1758" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1758" t="inlineStr"/>
       <c r="D1758" t="inlineStr"/>
       <c r="E1758" s="4" t="inlineStr">
@@ -39485,8 +41720,19 @@
       </c>
     </row>
     <row r="1759">
-      <c r="A1759" t="inlineStr"/>
-      <c r="B1759" t="inlineStr"/>
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1759" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1759" t="inlineStr"/>
       <c r="D1759" t="inlineStr"/>
       <c r="E1759" s="4" t="inlineStr">
@@ -39504,8 +41750,19 @@
       <c r="K1759" t="inlineStr"/>
     </row>
     <row r="1760">
-      <c r="A1760" t="inlineStr"/>
-      <c r="B1760" t="inlineStr"/>
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1760" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1760" t="inlineStr"/>
       <c r="D1760" t="inlineStr"/>
       <c r="E1760" s="4" t="inlineStr">
@@ -39521,8 +41778,19 @@
       <c r="K1760" t="inlineStr"/>
     </row>
     <row r="1761">
-      <c r="A1761" t="inlineStr"/>
-      <c r="B1761" t="inlineStr"/>
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1761" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1761" t="inlineStr"/>
       <c r="D1761" t="inlineStr">
         <is>
@@ -39542,8 +41810,19 @@
       <c r="K1761" t="inlineStr"/>
     </row>
     <row r="1762">
-      <c r="A1762" t="inlineStr"/>
-      <c r="B1762" t="inlineStr"/>
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1762" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1762" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
@@ -39914,7 +42193,10 @@
       </c>
       <c r="B1777" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00"}</t>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
         </is>
       </c>
       <c r="C1777" t="inlineStr">
@@ -39950,8 +42232,19 @@
       <c r="K1777" t="inlineStr"/>
     </row>
     <row r="1778">
-      <c r="A1778" t="inlineStr"/>
-      <c r="B1778" t="inlineStr"/>
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1778" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1778" t="inlineStr"/>
       <c r="D1778" t="inlineStr"/>
       <c r="E1778" s="4" t="inlineStr">
@@ -39967,8 +42260,19 @@
       <c r="K1778" t="inlineStr"/>
     </row>
     <row r="1779">
-      <c r="A1779" t="inlineStr"/>
-      <c r="B1779" t="inlineStr"/>
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1779" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr">
         <is>
@@ -39988,8 +42292,19 @@
       <c r="K1779" t="inlineStr"/>
     </row>
     <row r="1780">
-      <c r="A1780" t="inlineStr"/>
-      <c r="B1780" t="inlineStr"/>
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1780" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1780" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
@@ -40252,7 +42567,10 @@
       </c>
       <c r="B1791" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00"}</t>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
         </is>
       </c>
       <c r="C1791" t="inlineStr">
@@ -40288,8 +42606,19 @@
       <c r="K1791" t="inlineStr"/>
     </row>
     <row r="1792">
-      <c r="A1792" t="inlineStr"/>
-      <c r="B1792" t="inlineStr"/>
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1792" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr"/>
       <c r="E1792" s="4" t="inlineStr">
@@ -40305,8 +42634,19 @@
       <c r="K1792" t="inlineStr"/>
     </row>
     <row r="1793">
-      <c r="A1793" t="inlineStr"/>
-      <c r="B1793" t="inlineStr"/>
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1793" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1793" t="inlineStr"/>
       <c r="D1793" t="inlineStr">
         <is>
@@ -40326,8 +42666,19 @@
       <c r="K1793" t="inlineStr"/>
     </row>
     <row r="1794">
-      <c r="A1794" t="inlineStr"/>
-      <c r="B1794" t="inlineStr"/>
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1794" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1794" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -40479,7 +42830,10 @@
       </c>
       <c r="B1800" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98"}</t>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr">
@@ -40515,8 +42869,19 @@
       </c>
     </row>
     <row r="1801">
-      <c r="A1801" t="inlineStr"/>
-      <c r="B1801" t="inlineStr"/>
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1801" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1801" t="inlineStr"/>
       <c r="D1801" t="inlineStr"/>
       <c r="E1801" s="4" t="inlineStr">
@@ -40532,8 +42897,19 @@
       <c r="K1801" t="inlineStr"/>
     </row>
     <row r="1802">
-      <c r="A1802" t="inlineStr"/>
-      <c r="B1802" t="inlineStr"/>
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1802" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1802" t="inlineStr"/>
       <c r="D1802" t="inlineStr">
         <is>
@@ -40553,8 +42929,19 @@
       <c r="K1802" t="inlineStr"/>
     </row>
     <row r="1803">
-      <c r="A1803" t="inlineStr"/>
-      <c r="B1803" t="inlineStr"/>
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1803" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1803" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -41318,7 +43705,10 @@
       </c>
       <c r="B1837" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01"}</t>
+          <t>Match Type: LC Match
+L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr">
@@ -41354,8 +43744,19 @@
       </c>
     </row>
     <row r="1838">
-      <c r="A1838" t="inlineStr"/>
-      <c r="B1838" t="inlineStr"/>
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1838" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1838" t="inlineStr"/>
       <c r="D1838" t="inlineStr"/>
       <c r="E1838" s="4" t="inlineStr">
@@ -41371,8 +43772,19 @@
       <c r="K1838" t="inlineStr"/>
     </row>
     <row r="1839">
-      <c r="A1839" t="inlineStr"/>
-      <c r="B1839" t="inlineStr"/>
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1839" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1839" t="inlineStr"/>
       <c r="D1839" t="inlineStr">
         <is>
@@ -41392,8 +43804,19 @@
       <c r="K1839" t="inlineStr"/>
     </row>
     <row r="1840">
-      <c r="A1840" t="inlineStr"/>
-      <c r="B1840" t="inlineStr"/>
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1840" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1840" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
@@ -41583,7 +44006,10 @@
       </c>
       <c r="B1848" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55"}</t>
+          <t>Match Type: LC Match
+L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
         </is>
       </c>
       <c r="C1848" t="inlineStr">
@@ -41619,8 +44045,19 @@
       </c>
     </row>
     <row r="1849">
-      <c r="A1849" t="inlineStr"/>
-      <c r="B1849" t="inlineStr"/>
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1849" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1849" t="inlineStr"/>
       <c r="D1849" t="inlineStr"/>
       <c r="E1849" s="4" t="inlineStr">
@@ -41636,8 +44073,19 @@
       <c r="K1849" t="inlineStr"/>
     </row>
     <row r="1850">
-      <c r="A1850" t="inlineStr"/>
-      <c r="B1850" t="inlineStr"/>
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1850" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1850" t="inlineStr"/>
       <c r="D1850" t="inlineStr">
         <is>
@@ -41657,8 +44105,19 @@
       <c r="K1850" t="inlineStr"/>
     </row>
     <row r="1851">
-      <c r="A1851" t="inlineStr"/>
-      <c r="B1851" t="inlineStr"/>
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1851" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1851" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -1171,14 +1171,7 @@
           <t>M001</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 5040781.68
-Borrower Amount: 5040781.68</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
@@ -1199,14 +1192,7 @@
           <t>M001</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 5040781.68
-Borrower Amount: 5040781.68</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
@@ -1277,14 +1263,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
@@ -1307,14 +1286,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
@@ -1337,14 +1309,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
@@ -1367,14 +1332,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
@@ -1395,14 +1353,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
@@ -1427,14 +1378,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1703,14 +1647,7 @@
           <t>M003</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
@@ -1731,14 +1668,7 @@
           <t>M003</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
@@ -1809,14 +1739,7 @@
           <t>M008</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
@@ -1837,14 +1760,7 @@
           <t>M008</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
@@ -1869,14 +1785,7 @@
           <t>M008</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>07/Jan/2025</t>
@@ -2218,14 +2127,7 @@
           <t>M011</t>
         </is>
       </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
@@ -2246,14 +2148,7 @@
           <t>M011</t>
         </is>
       </c>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
@@ -2281,9 +2176,9 @@
       <c r="B70" s="4" t="inlineStr">
         <is>
           <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2324,14 +2219,7 @@
           <t>M009</t>
         </is>
       </c>
-      <c r="B71" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
@@ -2352,14 +2240,7 @@
           <t>M009</t>
         </is>
       </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
@@ -2384,14 +2265,7 @@
           <t>M009</t>
         </is>
       </c>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>19/Jan/2025</t>
@@ -2806,14 +2680,7 @@
           <t>M025</t>
         </is>
       </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
@@ -2834,14 +2701,7 @@
           <t>M025</t>
         </is>
       </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
@@ -2870,8 +2730,8 @@
         <is>
           <t>Match Type: LC Match
 L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2912,14 +2772,7 @@
           <t>M010</t>
         </is>
       </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
@@ -2940,14 +2793,7 @@
           <t>M010</t>
         </is>
       </c>
-      <c r="B93" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
@@ -2972,14 +2818,7 @@
           <t>M010</t>
         </is>
       </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>30/Jan/2025</t>
@@ -7263,14 +7102,7 @@
           <t>M012</t>
         </is>
       </c>
-      <c r="B301" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
       <c r="E301" s="4" t="inlineStr">
@@ -7291,14 +7123,7 @@
           <t>M012</t>
         </is>
       </c>
-      <c r="B302" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
@@ -7323,14 +7148,7 @@
           <t>M012</t>
         </is>
       </c>
-      <c r="B303" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
           <t>04/Feb/2025</t>
@@ -7453,14 +7271,7 @@
           <t>M013</t>
         </is>
       </c>
-      <c r="B307" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
       <c r="E307" s="4" t="inlineStr">
@@ -7483,14 +7294,7 @@
           <t>M013</t>
         </is>
       </c>
-      <c r="B308" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
       <c r="E308" s="4" t="inlineStr">
@@ -7513,14 +7317,7 @@
           <t>M013</t>
         </is>
       </c>
-      <c r="B309" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
       <c r="E309" s="4" t="inlineStr">
@@ -7541,14 +7338,7 @@
           <t>M013</t>
         </is>
       </c>
-      <c r="B310" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
@@ -7573,14 +7363,7 @@
           <t>M013</t>
         </is>
       </c>
-      <c r="B311" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
           <t>05/Feb/2025</t>
@@ -8141,14 +7924,7 @@
           <t>M014</t>
         </is>
       </c>
-      <c r="B333" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
       <c r="E333" s="4" t="inlineStr">
@@ -8169,14 +7945,7 @@
           <t>M014</t>
         </is>
       </c>
-      <c r="B334" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
@@ -8201,14 +7970,7 @@
           <t>M014</t>
         </is>
       </c>
-      <c r="B335" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr">
         <is>
           <t>10/Feb/2025</t>
@@ -8645,14 +8407,7 @@
           <t>M015</t>
         </is>
       </c>
-      <c r="B353" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
       <c r="E353" s="4" t="inlineStr">
@@ -8673,14 +8428,7 @@
           <t>M015</t>
         </is>
       </c>
-      <c r="B354" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
@@ -8705,14 +8453,7 @@
           <t>M015</t>
         </is>
       </c>
-      <c r="B355" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="B355" t="inlineStr"/>
       <c r="C355" t="inlineStr">
         <is>
           <t>12/Feb/2025</t>
@@ -10140,14 +9881,7 @@
           <t>M017</t>
         </is>
       </c>
-      <c r="B415" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="B415" t="inlineStr"/>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr"/>
       <c r="E415" s="4" t="inlineStr">
@@ -10168,14 +9902,7 @@
           <t>M017</t>
         </is>
       </c>
-      <c r="B416" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
@@ -10246,14 +9973,7 @@
           <t>M018</t>
         </is>
       </c>
-      <c r="B418" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr"/>
       <c r="E418" s="4" t="inlineStr">
@@ -10274,14 +9994,7 @@
           <t>M018</t>
         </is>
       </c>
-      <c r="B419" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
@@ -10306,14 +10019,7 @@
           <t>M018</t>
         </is>
       </c>
-      <c r="B420" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
           <t>24/Feb/2025</t>
@@ -11534,14 +11240,7 @@
           <t>M020</t>
         </is>
       </c>
-      <c r="B470" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
       <c r="E470" s="4" t="inlineStr">
@@ -11562,14 +11261,7 @@
           <t>M020</t>
         </is>
       </c>
-      <c r="B471" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
@@ -11640,14 +11332,7 @@
           <t>M021</t>
         </is>
       </c>
-      <c r="B473" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" s="4" t="inlineStr">
@@ -11668,14 +11353,7 @@
           <t>M021</t>
         </is>
       </c>
-      <c r="B474" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
@@ -11746,14 +11424,7 @@
           <t>M022</t>
         </is>
       </c>
-      <c r="B476" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -11774,14 +11445,7 @@
           <t>M022</t>
         </is>
       </c>
-      <c r="B477" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
@@ -11852,14 +11516,7 @@
           <t>M024</t>
         </is>
       </c>
-      <c r="B479" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="B479" t="inlineStr"/>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr"/>
       <c r="E479" s="4" t="inlineStr">
@@ -11880,14 +11537,7 @@
           <t>M024</t>
         </is>
       </c>
-      <c r="B480" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
@@ -11912,14 +11562,7 @@
           <t>M024</t>
         </is>
       </c>
-      <c r="B481" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -12042,14 +11685,7 @@
           <t>M019</t>
         </is>
       </c>
-      <c r="B485" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="B485" t="inlineStr"/>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr"/>
       <c r="E485" s="4" t="inlineStr">
@@ -12070,14 +11706,7 @@
           <t>M019</t>
         </is>
       </c>
-      <c r="B486" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
@@ -12102,14 +11731,7 @@
           <t>M019</t>
         </is>
       </c>
-      <c r="B487" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="B487" t="inlineStr"/>
       <c r="C487" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -13035,14 +12657,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B524" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr"/>
       <c r="E524" s="4" t="inlineStr">
@@ -13065,14 +12680,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B525" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr"/>
       <c r="E525" s="4" t="inlineStr">
@@ -13095,14 +12703,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B526" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B526" t="inlineStr"/>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr"/>
       <c r="E526" s="4" t="inlineStr">
@@ -13123,14 +12724,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B527" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B527" t="inlineStr"/>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
@@ -13155,14 +12749,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B528" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B528" t="inlineStr"/>
       <c r="C528" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -16101,14 +15688,7 @@
           <t>M016</t>
         </is>
       </c>
-      <c r="B676" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="B676" t="inlineStr"/>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -16129,14 +15709,7 @@
           <t>M016</t>
         </is>
       </c>
-      <c r="B677" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
@@ -16161,14 +15734,7 @@
           <t>M016</t>
         </is>
       </c>
-      <c r="B678" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="B678" t="inlineStr"/>
       <c r="C678" t="inlineStr">
         <is>
           <t>02/Mar/2025</t>
@@ -16678,14 +16244,7 @@
           <t>M026</t>
         </is>
       </c>
-      <c r="B699" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="B699" t="inlineStr"/>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
       <c r="E699" s="4" t="inlineStr">
@@ -16706,14 +16265,7 @@
           <t>M026</t>
         </is>
       </c>
-      <c r="B700" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="B700" t="inlineStr"/>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
         <is>
@@ -16738,14 +16290,7 @@
           <t>M026</t>
         </is>
       </c>
-      <c r="B701" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="B701" t="inlineStr"/>
       <c r="C701" t="inlineStr">
         <is>
           <t>09/Mar/2025</t>
@@ -16868,14 +16413,7 @@
           <t>M027</t>
         </is>
       </c>
-      <c r="B705" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="B705" t="inlineStr"/>
       <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr"/>
       <c r="E705" s="4" t="inlineStr">
@@ -16896,14 +16434,7 @@
           <t>M027</t>
         </is>
       </c>
-      <c r="B706" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="B706" t="inlineStr"/>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
@@ -16974,14 +16505,7 @@
           <t>M028</t>
         </is>
       </c>
-      <c r="B708" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B708" t="inlineStr"/>
       <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr"/>
       <c r="E708" s="4" t="inlineStr">
@@ -17002,14 +16526,7 @@
           <t>M028</t>
         </is>
       </c>
-      <c r="B709" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B709" t="inlineStr"/>
       <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr">
         <is>
@@ -17080,14 +16597,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B711" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -17110,14 +16620,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B712" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr"/>
       <c r="E712" s="4" t="inlineStr">
@@ -17140,14 +16643,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B713" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B713" t="inlineStr"/>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr"/>
       <c r="E713" s="4" t="inlineStr">
@@ -17168,14 +16664,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B714" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
@@ -17200,14 +16689,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B715" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B715" t="inlineStr"/>
       <c r="C715" t="inlineStr">
         <is>
           <t>10/Mar/2025</t>
@@ -18272,14 +17754,7 @@
           <t>M030</t>
         </is>
       </c>
-      <c r="B761" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="B761" t="inlineStr"/>
       <c r="C761" t="inlineStr"/>
       <c r="D761" t="inlineStr"/>
       <c r="E761" s="4" t="inlineStr">
@@ -18300,14 +17775,7 @@
           <t>M030</t>
         </is>
       </c>
-      <c r="B762" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
         <is>
@@ -18332,14 +17800,7 @@
           <t>M030</t>
         </is>
       </c>
-      <c r="B763" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="B763" t="inlineStr"/>
       <c r="C763" t="inlineStr">
         <is>
           <t>18/Mar/2025</t>
@@ -18722,14 +18183,7 @@
           <t>M031</t>
         </is>
       </c>
-      <c r="B779" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="B779" t="inlineStr"/>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr"/>
       <c r="E779" s="4" t="inlineStr">
@@ -18750,14 +18204,7 @@
           <t>M031</t>
         </is>
       </c>
-      <c r="B780" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
@@ -18782,14 +18229,7 @@
           <t>M031</t>
         </is>
       </c>
-      <c r="B781" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="B781" t="inlineStr"/>
       <c r="C781" t="inlineStr">
         <is>
           <t>20/Mar/2025</t>
@@ -20047,14 +19487,7 @@
           <t>M032</t>
         </is>
       </c>
-      <c r="B838" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="B838" t="inlineStr"/>
       <c r="C838" t="inlineStr"/>
       <c r="D838" t="inlineStr"/>
       <c r="E838" s="4" t="inlineStr">
@@ -20075,14 +19508,7 @@
           <t>M032</t>
         </is>
       </c>
-      <c r="B839" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="B839" t="inlineStr"/>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
         <is>
@@ -20153,14 +19579,7 @@
           <t>M033</t>
         </is>
       </c>
-      <c r="B841" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+      <c r="B841" t="inlineStr"/>
       <c r="C841" t="inlineStr"/>
       <c r="D841" t="inlineStr"/>
       <c r="E841" s="4" t="inlineStr">
@@ -20181,14 +19600,7 @@
           <t>M033</t>
         </is>
       </c>
-      <c r="B842" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+      <c r="B842" t="inlineStr"/>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
@@ -20213,14 +19625,7 @@
           <t>M033</t>
         </is>
       </c>
-      <c r="B843" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+      <c r="B843" t="inlineStr"/>
       <c r="C843" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -20419,14 +19824,7 @@
           <t>M034</t>
         </is>
       </c>
-      <c r="B851" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="B851" t="inlineStr"/>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr"/>
       <c r="E851" s="4" t="inlineStr">
@@ -20449,14 +19847,7 @@
           <t>M034</t>
         </is>
       </c>
-      <c r="B852" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="B852" t="inlineStr"/>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr"/>
       <c r="E852" s="4" t="inlineStr">
@@ -20479,14 +19870,7 @@
           <t>M034</t>
         </is>
       </c>
-      <c r="B853" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="B853" t="inlineStr"/>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr"/>
       <c r="E853" s="4" t="inlineStr">
@@ -20507,14 +19891,7 @@
           <t>M034</t>
         </is>
       </c>
-      <c r="B854" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="B854" t="inlineStr"/>
       <c r="C854" t="inlineStr"/>
       <c r="D854" t="inlineStr">
         <is>
@@ -20585,14 +19962,7 @@
           <t>M035</t>
         </is>
       </c>
-      <c r="B856" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="B856" t="inlineStr"/>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr"/>
       <c r="E856" s="4" t="inlineStr">
@@ -20613,14 +19983,7 @@
           <t>M035</t>
         </is>
       </c>
-      <c r="B857" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="B857" t="inlineStr"/>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
         <is>
@@ -20691,14 +20054,7 @@
           <t>M036</t>
         </is>
       </c>
-      <c r="B859" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="B859" t="inlineStr"/>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr"/>
       <c r="E859" s="4" t="inlineStr">
@@ -20719,14 +20075,7 @@
           <t>M036</t>
         </is>
       </c>
-      <c r="B860" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="B860" t="inlineStr"/>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
         <is>
@@ -20751,14 +20100,7 @@
           <t>M036</t>
         </is>
       </c>
-      <c r="B861" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="B861" t="inlineStr"/>
       <c r="C861" t="inlineStr">
         <is>
           <t>31/Mar/2025</t>
@@ -23456,14 +22798,7 @@
           <t>M037</t>
         </is>
       </c>
-      <c r="B998" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="B998" t="inlineStr"/>
       <c r="C998" t="inlineStr"/>
       <c r="D998" t="inlineStr"/>
       <c r="E998" s="4" t="inlineStr">
@@ -23484,14 +22819,7 @@
           <t>M037</t>
         </is>
       </c>
-      <c r="B999" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="B999" t="inlineStr"/>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr">
         <is>
@@ -23562,14 +22890,7 @@
           <t>M038</t>
         </is>
       </c>
-      <c r="B1001" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="B1001" t="inlineStr"/>
       <c r="C1001" t="inlineStr"/>
       <c r="D1001" t="inlineStr"/>
       <c r="E1001" s="4" t="inlineStr">
@@ -23590,14 +22911,7 @@
           <t>M038</t>
         </is>
       </c>
-      <c r="B1002" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="B1002" t="inlineStr"/>
       <c r="C1002" t="inlineStr"/>
       <c r="D1002" t="inlineStr">
         <is>
@@ -23668,14 +22982,7 @@
           <t>M039</t>
         </is>
       </c>
-      <c r="B1004" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B1004" t="inlineStr"/>
       <c r="C1004" t="inlineStr"/>
       <c r="D1004" t="inlineStr"/>
       <c r="E1004" s="4" t="inlineStr">
@@ -23696,14 +23003,7 @@
           <t>M039</t>
         </is>
       </c>
-      <c r="B1005" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B1005" t="inlineStr"/>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr">
         <is>
@@ -23728,14 +23028,7 @@
           <t>M039</t>
         </is>
       </c>
-      <c r="B1006" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B1006" t="inlineStr"/>
       <c r="C1006" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -24299,14 +23592,7 @@
           <t>M040</t>
         </is>
       </c>
-      <c r="B1029" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 80051.03
-Borrower Amount: 80051.03</t>
-        </is>
-      </c>
+      <c r="B1029" t="inlineStr"/>
       <c r="C1029" t="inlineStr"/>
       <c r="D1029" t="inlineStr"/>
       <c r="E1029" s="4" t="inlineStr">
@@ -24327,14 +23613,7 @@
           <t>M040</t>
         </is>
       </c>
-      <c r="B1030" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 80051.03
-Borrower Amount: 80051.03</t>
-        </is>
-      </c>
+      <c r="B1030" t="inlineStr"/>
       <c r="C1030" t="inlineStr"/>
       <c r="D1030" t="inlineStr">
         <is>
@@ -24405,14 +23684,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B1032" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -24435,14 +23707,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B1033" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr"/>
       <c r="E1033" s="4" t="inlineStr">
@@ -24465,14 +23730,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B1034" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B1034" t="inlineStr"/>
       <c r="C1034" t="inlineStr"/>
       <c r="D1034" t="inlineStr"/>
       <c r="E1034" s="4" t="inlineStr">
@@ -24493,14 +23751,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B1035" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B1035" t="inlineStr"/>
       <c r="C1035" t="inlineStr"/>
       <c r="D1035" t="inlineStr">
         <is>
@@ -24525,14 +23776,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B1036" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B1036" t="inlineStr"/>
       <c r="C1036" t="inlineStr">
         <is>
           <t>16/Apr/2025</t>
@@ -24655,14 +23899,7 @@
           <t>M042</t>
         </is>
       </c>
-      <c r="B1040" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="B1040" t="inlineStr"/>
       <c r="C1040" t="inlineStr"/>
       <c r="D1040" t="inlineStr"/>
       <c r="E1040" s="4" t="inlineStr">
@@ -24683,14 +23920,7 @@
           <t>M042</t>
         </is>
       </c>
-      <c r="B1041" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="B1041" t="inlineStr"/>
       <c r="C1041" t="inlineStr"/>
       <c r="D1041" t="inlineStr">
         <is>
@@ -24715,14 +23945,7 @@
           <t>M042</t>
         </is>
       </c>
-      <c r="B1042" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="B1042" t="inlineStr"/>
       <c r="C1042" t="inlineStr">
         <is>
           <t>17/Apr/2025</t>
@@ -24991,14 +24214,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1052" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1052" t="inlineStr"/>
       <c r="C1052" t="inlineStr"/>
       <c r="D1052" t="inlineStr"/>
       <c r="E1052" s="4" t="inlineStr">
@@ -25021,14 +24237,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1053" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1053" t="inlineStr"/>
       <c r="C1053" t="inlineStr"/>
       <c r="D1053" t="inlineStr"/>
       <c r="E1053" s="4" t="inlineStr">
@@ -25051,14 +24260,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1054" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1054" t="inlineStr"/>
       <c r="C1054" t="inlineStr"/>
       <c r="D1054" t="inlineStr"/>
       <c r="E1054" s="4" t="inlineStr">
@@ -25081,14 +24283,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1055" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1055" t="inlineStr"/>
       <c r="C1055" t="inlineStr"/>
       <c r="D1055" t="inlineStr"/>
       <c r="E1055" s="4" t="inlineStr">
@@ -25111,14 +24306,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1056" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1056" t="inlineStr"/>
       <c r="C1056" t="inlineStr"/>
       <c r="D1056" t="inlineStr"/>
       <c r="E1056" s="4" t="inlineStr">
@@ -25141,14 +24329,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1057" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1057" t="inlineStr"/>
       <c r="C1057" t="inlineStr"/>
       <c r="D1057" t="inlineStr"/>
       <c r="E1057" s="4" t="inlineStr">
@@ -25171,14 +24352,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1058" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1058" t="inlineStr"/>
       <c r="C1058" t="inlineStr"/>
       <c r="D1058" t="inlineStr"/>
       <c r="E1058" s="4" t="inlineStr">
@@ -25199,14 +24373,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1059" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1059" t="inlineStr"/>
       <c r="C1059" t="inlineStr"/>
       <c r="D1059" t="inlineStr">
         <is>
@@ -25231,14 +24398,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B1060" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B1060" t="inlineStr"/>
       <c r="C1060" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -25418,14 +24578,7 @@
           <t>M044</t>
         </is>
       </c>
-      <c r="B1067" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="B1067" t="inlineStr"/>
       <c r="C1067" t="inlineStr"/>
       <c r="D1067" t="inlineStr"/>
       <c r="E1067" s="4" t="inlineStr">
@@ -25446,14 +24599,7 @@
           <t>M044</t>
         </is>
       </c>
-      <c r="B1068" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="B1068" t="inlineStr"/>
       <c r="C1068" t="inlineStr"/>
       <c r="D1068" t="inlineStr">
         <is>
@@ -25478,14 +24624,7 @@
           <t>M044</t>
         </is>
       </c>
-      <c r="B1069" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="B1069" t="inlineStr"/>
       <c r="C1069" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -25777,14 +24916,7 @@
           <t>M045</t>
         </is>
       </c>
-      <c r="B1081" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="B1081" t="inlineStr"/>
       <c r="C1081" t="inlineStr"/>
       <c r="D1081" t="inlineStr"/>
       <c r="E1081" s="4" t="inlineStr">
@@ -25805,14 +24937,7 @@
           <t>M045</t>
         </is>
       </c>
-      <c r="B1082" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="B1082" t="inlineStr"/>
       <c r="C1082" t="inlineStr"/>
       <c r="D1082" t="inlineStr">
         <is>
@@ -25883,14 +25008,7 @@
           <t>M046</t>
         </is>
       </c>
-      <c r="B1084" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="B1084" t="inlineStr"/>
       <c r="C1084" t="inlineStr"/>
       <c r="D1084" t="inlineStr"/>
       <c r="E1084" s="4" t="inlineStr">
@@ -25911,14 +25029,7 @@
           <t>M046</t>
         </is>
       </c>
-      <c r="B1085" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="B1085" t="inlineStr"/>
       <c r="C1085" t="inlineStr"/>
       <c r="D1085" t="inlineStr">
         <is>
@@ -25989,14 +25100,7 @@
           <t>M047</t>
         </is>
       </c>
-      <c r="B1087" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="B1087" t="inlineStr"/>
       <c r="C1087" t="inlineStr"/>
       <c r="D1087" t="inlineStr"/>
       <c r="E1087" s="4" t="inlineStr">
@@ -26017,14 +25121,7 @@
           <t>M047</t>
         </is>
       </c>
-      <c r="B1088" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="B1088" t="inlineStr"/>
       <c r="C1088" t="inlineStr"/>
       <c r="D1088" t="inlineStr">
         <is>
@@ -26049,14 +25146,7 @@
           <t>M047</t>
         </is>
       </c>
-      <c r="B1089" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="B1089" t="inlineStr"/>
       <c r="C1089" t="inlineStr">
         <is>
           <t>23/Apr/2025</t>
@@ -26325,14 +25415,7 @@
           <t>M048</t>
         </is>
       </c>
-      <c r="B1099" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="B1099" t="inlineStr"/>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr"/>
       <c r="E1099" s="4" t="inlineStr">
@@ -26353,14 +25436,7 @@
           <t>M048</t>
         </is>
       </c>
-      <c r="B1100" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="B1100" t="inlineStr"/>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
@@ -26385,14 +25461,7 @@
           <t>M048</t>
         </is>
       </c>
-      <c r="B1101" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="B1101" t="inlineStr"/>
       <c r="C1101" t="inlineStr">
         <is>
           <t>24/Apr/2025</t>
@@ -26953,14 +26022,7 @@
           <t>M049</t>
         </is>
       </c>
-      <c r="B1123" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="B1123" t="inlineStr"/>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" s="4" t="inlineStr">
@@ -26981,14 +26043,7 @@
           <t>M049</t>
         </is>
       </c>
-      <c r="B1124" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="B1124" t="inlineStr"/>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
@@ -27059,14 +26114,7 @@
           <t>M050</t>
         </is>
       </c>
-      <c r="B1126" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="B1126" t="inlineStr"/>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" s="4" t="inlineStr">
@@ -27087,14 +26135,7 @@
           <t>M050</t>
         </is>
       </c>
-      <c r="B1127" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
@@ -27165,14 +26206,7 @@
           <t>M051</t>
         </is>
       </c>
-      <c r="B1129" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="B1129" t="inlineStr"/>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -27193,14 +26227,7 @@
           <t>M051</t>
         </is>
       </c>
-      <c r="B1130" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="B1130" t="inlineStr"/>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
@@ -27225,14 +26252,7 @@
           <t>M051</t>
         </is>
       </c>
-      <c r="B1131" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="B1131" t="inlineStr"/>
       <c r="C1131" t="inlineStr">
         <is>
           <t>28/Apr/2025</t>
@@ -27761,14 +26781,7 @@
           <t>M052</t>
         </is>
       </c>
-      <c r="B1153" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="B1153" t="inlineStr"/>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" s="4" t="inlineStr">
@@ -27789,14 +26802,7 @@
           <t>M052</t>
         </is>
       </c>
-      <c r="B1154" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="B1154" t="inlineStr"/>
       <c r="C1154" t="inlineStr"/>
       <c r="D1154" t="inlineStr">
         <is>
@@ -27867,14 +26873,7 @@
           <t>M053</t>
         </is>
       </c>
-      <c r="B1156" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="B1156" t="inlineStr"/>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" s="4" t="inlineStr">
@@ -27895,14 +26894,7 @@
           <t>M053</t>
         </is>
       </c>
-      <c r="B1157" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="B1157" t="inlineStr"/>
       <c r="C1157" t="inlineStr"/>
       <c r="D1157" t="inlineStr">
         <is>
@@ -27973,14 +26965,7 @@
           <t>M054</t>
         </is>
       </c>
-      <c r="B1159" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="B1159" t="inlineStr"/>
       <c r="C1159" t="inlineStr"/>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" s="4" t="inlineStr">
@@ -28001,14 +26986,7 @@
           <t>M054</t>
         </is>
       </c>
-      <c r="B1160" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="B1160" t="inlineStr"/>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
         <is>
@@ -28033,14 +27011,7 @@
           <t>M054</t>
         </is>
       </c>
-      <c r="B1161" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="B1161" t="inlineStr"/>
       <c r="C1161" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -32947,14 +31918,7 @@
           <t>M055</t>
         </is>
       </c>
-      <c r="B1389" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="B1389" t="inlineStr"/>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" s="4" t="inlineStr">
@@ -32975,14 +31939,7 @@
           <t>M055</t>
         </is>
       </c>
-      <c r="B1390" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="B1390" t="inlineStr"/>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
@@ -33053,14 +32010,7 @@
           <t>M056</t>
         </is>
       </c>
-      <c r="B1392" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="B1392" t="inlineStr"/>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" s="4" t="inlineStr">
@@ -33081,14 +32031,7 @@
           <t>M056</t>
         </is>
       </c>
-      <c r="B1393" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="B1393" t="inlineStr"/>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
@@ -33159,14 +32102,7 @@
           <t>M057</t>
         </is>
       </c>
-      <c r="B1395" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="B1395" t="inlineStr"/>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" s="4" t="inlineStr">
@@ -33187,14 +32123,7 @@
           <t>M057</t>
         </is>
       </c>
-      <c r="B1396" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="B1396" t="inlineStr"/>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
@@ -33219,14 +32148,7 @@
           <t>M057</t>
         </is>
       </c>
-      <c r="B1397" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="B1397" t="inlineStr"/>
       <c r="C1397" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -33568,14 +32490,7 @@
           <t>M058</t>
         </is>
       </c>
-      <c r="B1410" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="B1410" t="inlineStr"/>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" s="4" t="inlineStr">
@@ -33596,14 +32511,7 @@
           <t>M058</t>
         </is>
       </c>
-      <c r="B1411" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="B1411" t="inlineStr"/>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
@@ -33628,14 +32536,7 @@
           <t>M058</t>
         </is>
       </c>
-      <c r="B1412" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="B1412" t="inlineStr"/>
       <c r="C1412" t="inlineStr">
         <is>
           <t>18/May/2025</t>
@@ -34050,14 +32951,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B1428" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B1428" t="inlineStr"/>
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr"/>
       <c r="E1428" s="4" t="inlineStr">
@@ -34080,14 +32974,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B1429" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B1429" t="inlineStr"/>
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr"/>
       <c r="E1429" s="4" t="inlineStr">
@@ -34110,14 +32997,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B1430" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B1430" t="inlineStr"/>
       <c r="C1430" t="inlineStr"/>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" s="4" t="inlineStr">
@@ -34138,14 +33018,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B1431" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B1431" t="inlineStr"/>
       <c r="C1431" t="inlineStr"/>
       <c r="D1431" t="inlineStr">
         <is>
@@ -34170,14 +33043,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B1432" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B1432" t="inlineStr"/>
       <c r="C1432" t="inlineStr">
         <is>
           <t>28/May/2025</t>
@@ -34544,14 +33410,7 @@
           <t>M060</t>
         </is>
       </c>
-      <c r="B1448" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="B1448" t="inlineStr"/>
       <c r="C1448" t="inlineStr"/>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" s="4" t="inlineStr">
@@ -34572,14 +33431,7 @@
           <t>M060</t>
         </is>
       </c>
-      <c r="B1449" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="B1449" t="inlineStr"/>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
         <is>
@@ -34604,14 +33456,7 @@
           <t>M060</t>
         </is>
       </c>
-      <c r="B1450" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="B1450" t="inlineStr"/>
       <c r="C1450" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -34734,14 +33579,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B1454" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B1454" t="inlineStr"/>
       <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" s="4" t="inlineStr">
@@ -34764,14 +33602,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B1455" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B1455" t="inlineStr"/>
       <c r="C1455" t="inlineStr"/>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" s="4" t="inlineStr">
@@ -34794,14 +33625,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B1456" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B1456" t="inlineStr"/>
       <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" s="4" t="inlineStr">
@@ -34824,14 +33648,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B1457" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B1457" t="inlineStr"/>
       <c r="C1457" t="inlineStr"/>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" s="4" t="inlineStr">
@@ -34852,14 +33669,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B1458" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B1458" t="inlineStr"/>
       <c r="C1458" t="inlineStr"/>
       <c r="D1458" t="inlineStr">
         <is>
@@ -34930,14 +33740,7 @@
           <t>M062</t>
         </is>
       </c>
-      <c r="B1460" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="B1460" t="inlineStr"/>
       <c r="C1460" t="inlineStr"/>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" s="4" t="inlineStr">
@@ -34958,14 +33761,7 @@
           <t>M062</t>
         </is>
       </c>
-      <c r="B1461" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="B1461" t="inlineStr"/>
       <c r="C1461" t="inlineStr"/>
       <c r="D1461" t="inlineStr">
         <is>
@@ -34990,14 +33786,7 @@
           <t>M062</t>
         </is>
       </c>
-      <c r="B1462" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="B1462" t="inlineStr"/>
       <c r="C1462" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -37873,14 +36662,7 @@
           <t>M063</t>
         </is>
       </c>
-      <c r="B1605" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="B1605" t="inlineStr"/>
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" s="4" t="inlineStr">
@@ -37901,14 +36683,7 @@
           <t>M063</t>
         </is>
       </c>
-      <c r="B1606" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="B1606" t="inlineStr"/>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
         <is>
@@ -37933,14 +36708,7 @@
           <t>M063</t>
         </is>
       </c>
-      <c r="B1607" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="B1607" t="inlineStr"/>
       <c r="C1607" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -38210,14 +36978,7 @@
           <t>M064</t>
         </is>
       </c>
-      <c r="B1617" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="B1617" t="inlineStr"/>
       <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" s="4" t="inlineStr">
@@ -38238,14 +36999,7 @@
           <t>M064</t>
         </is>
       </c>
-      <c r="B1618" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="B1618" t="inlineStr"/>
       <c r="C1618" t="inlineStr"/>
       <c r="D1618" t="inlineStr">
         <is>
@@ -38270,14 +37024,7 @@
           <t>M064</t>
         </is>
       </c>
-      <c r="B1619" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="B1619" t="inlineStr"/>
       <c r="C1619" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
@@ -40777,14 +39524,7 @@
           <t>M065</t>
         </is>
       </c>
-      <c r="B1722" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B1722" t="inlineStr"/>
       <c r="C1722" t="inlineStr"/>
       <c r="D1722" t="inlineStr"/>
       <c r="E1722" s="4" t="inlineStr">
@@ -40805,14 +39545,7 @@
           <t>M065</t>
         </is>
       </c>
-      <c r="B1723" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B1723" t="inlineStr"/>
       <c r="C1723" t="inlineStr"/>
       <c r="D1723" t="inlineStr">
         <is>
@@ -40837,14 +39570,7 @@
           <t>M065</t>
         </is>
       </c>
-      <c r="B1724" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B1724" t="inlineStr"/>
       <c r="C1724" t="inlineStr">
         <is>
           <t>17/Jun/2025</t>
@@ -40967,14 +39693,7 @@
           <t>M066</t>
         </is>
       </c>
-      <c r="B1728" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="B1728" t="inlineStr"/>
       <c r="C1728" t="inlineStr"/>
       <c r="D1728" t="inlineStr"/>
       <c r="E1728" s="4" t="inlineStr">
@@ -40995,14 +39714,7 @@
           <t>M066</t>
         </is>
       </c>
-      <c r="B1729" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="B1729" t="inlineStr"/>
       <c r="C1729" t="inlineStr"/>
       <c r="D1729" t="inlineStr">
         <is>
@@ -41027,14 +39739,7 @@
           <t>M066</t>
         </is>
       </c>
-      <c r="B1730" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="B1730" t="inlineStr"/>
       <c r="C1730" t="inlineStr">
         <is>
           <t>17/Jun/2025</t>
@@ -41695,14 +40400,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1758" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1758" t="inlineStr"/>
       <c r="C1758" t="inlineStr"/>
       <c r="D1758" t="inlineStr"/>
       <c r="E1758" s="4" t="inlineStr">
@@ -41725,14 +40423,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1759" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1759" t="inlineStr"/>
       <c r="C1759" t="inlineStr"/>
       <c r="D1759" t="inlineStr"/>
       <c r="E1759" s="4" t="inlineStr">
@@ -41755,14 +40446,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1760" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1760" t="inlineStr"/>
       <c r="C1760" t="inlineStr"/>
       <c r="D1760" t="inlineStr"/>
       <c r="E1760" s="4" t="inlineStr">
@@ -41783,14 +40467,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1761" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1761" t="inlineStr"/>
       <c r="C1761" t="inlineStr"/>
       <c r="D1761" t="inlineStr">
         <is>
@@ -41815,14 +40492,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1762" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1762" t="inlineStr"/>
       <c r="C1762" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
@@ -42237,14 +40907,7 @@
           <t>M068</t>
         </is>
       </c>
-      <c r="B1778" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="B1778" t="inlineStr"/>
       <c r="C1778" t="inlineStr"/>
       <c r="D1778" t="inlineStr"/>
       <c r="E1778" s="4" t="inlineStr">
@@ -42265,14 +40928,7 @@
           <t>M068</t>
         </is>
       </c>
-      <c r="B1779" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="B1779" t="inlineStr"/>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr">
         <is>
@@ -42297,14 +40953,7 @@
           <t>M068</t>
         </is>
       </c>
-      <c r="B1780" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="B1780" t="inlineStr"/>
       <c r="C1780" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
@@ -42611,14 +41260,7 @@
           <t>M069</t>
         </is>
       </c>
-      <c r="B1792" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="B1792" t="inlineStr"/>
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr"/>
       <c r="E1792" s="4" t="inlineStr">
@@ -42639,14 +41281,7 @@
           <t>M069</t>
         </is>
       </c>
-      <c r="B1793" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="B1793" t="inlineStr"/>
       <c r="C1793" t="inlineStr"/>
       <c r="D1793" t="inlineStr">
         <is>
@@ -42671,14 +41306,7 @@
           <t>M069</t>
         </is>
       </c>
-      <c r="B1794" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="B1794" t="inlineStr"/>
       <c r="C1794" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -42874,14 +41502,7 @@
           <t>M070</t>
         </is>
       </c>
-      <c r="B1801" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="B1801" t="inlineStr"/>
       <c r="C1801" t="inlineStr"/>
       <c r="D1801" t="inlineStr"/>
       <c r="E1801" s="4" t="inlineStr">
@@ -42902,14 +41523,7 @@
           <t>M070</t>
         </is>
       </c>
-      <c r="B1802" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="B1802" t="inlineStr"/>
       <c r="C1802" t="inlineStr"/>
       <c r="D1802" t="inlineStr">
         <is>
@@ -42934,14 +41548,7 @@
           <t>M070</t>
         </is>
       </c>
-      <c r="B1803" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="B1803" t="inlineStr"/>
       <c r="C1803" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -43749,14 +42356,7 @@
           <t>M071</t>
         </is>
       </c>
-      <c r="B1838" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="B1838" t="inlineStr"/>
       <c r="C1838" t="inlineStr"/>
       <c r="D1838" t="inlineStr"/>
       <c r="E1838" s="4" t="inlineStr">
@@ -43777,14 +42377,7 @@
           <t>M071</t>
         </is>
       </c>
-      <c r="B1839" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="B1839" t="inlineStr"/>
       <c r="C1839" t="inlineStr"/>
       <c r="D1839" t="inlineStr">
         <is>
@@ -43809,14 +42402,7 @@
           <t>M071</t>
         </is>
       </c>
-      <c r="B1840" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="B1840" t="inlineStr"/>
       <c r="C1840" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
@@ -44050,14 +42636,7 @@
           <t>M072</t>
         </is>
       </c>
-      <c r="B1849" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="B1849" t="inlineStr"/>
       <c r="C1849" t="inlineStr"/>
       <c r="D1849" t="inlineStr"/>
       <c r="E1849" s="4" t="inlineStr">
@@ -44078,14 +42657,7 @@
           <t>M072</t>
         </is>
       </c>
-      <c r="B1850" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="B1850" t="inlineStr"/>
       <c r="C1850" t="inlineStr"/>
       <c r="D1850" t="inlineStr">
         <is>
@@ -44110,14 +42682,7 @@
           <t>M072</t>
         </is>
       </c>
-      <c r="B1851" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="B1851" t="inlineStr"/>
       <c r="C1851" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -1166,11 +1166,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1187,11 +1183,7 @@
       <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
@@ -1258,11 +1250,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1281,11 +1269,7 @@
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1304,11 +1288,7 @@
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1327,11 +1307,7 @@
       <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1348,11 +1324,7 @@
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
@@ -1373,11 +1345,7 @@
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
@@ -1642,11 +1610,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
@@ -1663,11 +1627,7 @@
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
@@ -1734,11 +1694,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>M008</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
@@ -1755,11 +1711,7 @@
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>M008</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
@@ -1780,11 +1732,7 @@
       <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>M008</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
@@ -2122,11 +2070,7 @@
       <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
@@ -2143,11 +2087,7 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
@@ -2170,7 +2110,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>M011</t>
+          <t>M009</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -2214,11 +2154,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
@@ -2235,11 +2171,7 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
@@ -2260,11 +2192,7 @@
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
@@ -2675,11 +2603,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
+      <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
@@ -2696,11 +2620,7 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
@@ -2723,7 +2643,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M010</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -2767,11 +2687,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
+      <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
@@ -2788,11 +2704,7 @@
       <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
@@ -2813,11 +2725,7 @@
       <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
@@ -7097,11 +7005,7 @@
       <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
+      <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
@@ -7118,11 +7022,7 @@
       <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
+      <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
@@ -7143,11 +7043,7 @@
       <c r="K302" t="inlineStr"/>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
+      <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
@@ -7266,11 +7162,7 @@
       <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
+      <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -7289,11 +7181,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
+      <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
@@ -7312,11 +7200,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
+      <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
@@ -7333,11 +7217,7 @@
       <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
+      <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
@@ -7358,11 +7238,7 @@
       <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
+      <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
@@ -7919,11 +7795,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
+      <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
@@ -7940,11 +7812,7 @@
       <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
+      <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
@@ -7965,11 +7833,7 @@
       <c r="K334" t="inlineStr"/>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
+      <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr">
         <is>
@@ -8402,11 +8266,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
+      <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
@@ -8423,11 +8283,7 @@
       <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
+      <c r="A354" t="inlineStr"/>
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
@@ -8448,11 +8304,7 @@
       <c r="K354" t="inlineStr"/>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
+      <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr"/>
       <c r="C355" t="inlineStr">
         <is>
@@ -9876,11 +9728,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
+      <c r="A415" t="inlineStr"/>
       <c r="B415" t="inlineStr"/>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr"/>
@@ -9897,11 +9745,7 @@
       <c r="K415" t="inlineStr"/>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
+      <c r="A416" t="inlineStr"/>
       <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
@@ -9968,11 +9812,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
+      <c r="A418" t="inlineStr"/>
       <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr"/>
@@ -9989,11 +9829,7 @@
       <c r="K418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
+      <c r="A419" t="inlineStr"/>
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
@@ -10014,11 +9850,7 @@
       <c r="K419" t="inlineStr"/>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
+      <c r="A420" t="inlineStr"/>
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
@@ -11235,11 +11067,7 @@
       <c r="K469" t="inlineStr"/>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
+      <c r="A470" t="inlineStr"/>
       <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
@@ -11256,11 +11084,7 @@
       <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
+      <c r="A471" t="inlineStr"/>
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
@@ -11327,11 +11151,7 @@
       <c r="K472" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
+      <c r="A473" t="inlineStr"/>
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
@@ -11348,11 +11168,7 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
+      <c r="A474" t="inlineStr"/>
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
@@ -11419,11 +11235,7 @@
       <c r="K475" t="inlineStr"/>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
+      <c r="A476" t="inlineStr"/>
       <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
@@ -11440,11 +11252,7 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
@@ -11511,11 +11319,7 @@
       <c r="K478" t="inlineStr"/>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
+      <c r="A479" t="inlineStr"/>
       <c r="B479" t="inlineStr"/>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr"/>
@@ -11532,11 +11336,7 @@
       <c r="K479" t="inlineStr"/>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
+      <c r="A480" t="inlineStr"/>
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
@@ -11557,11 +11357,7 @@
       <c r="K480" t="inlineStr"/>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
+      <c r="A481" t="inlineStr"/>
       <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr">
         <is>
@@ -11680,11 +11476,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
+      <c r="A485" t="inlineStr"/>
       <c r="B485" t="inlineStr"/>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr"/>
@@ -11701,11 +11493,7 @@
       <c r="K485" t="inlineStr"/>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
+      <c r="A486" t="inlineStr"/>
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
@@ -11726,11 +11514,7 @@
       <c r="K486" t="inlineStr"/>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
+      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr"/>
       <c r="C487" t="inlineStr">
         <is>
@@ -12652,11 +12436,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A524" t="inlineStr"/>
       <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr"/>
@@ -12675,11 +12455,7 @@
       <c r="K524" t="inlineStr"/>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A525" t="inlineStr"/>
       <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr"/>
@@ -12698,11 +12474,7 @@
       <c r="K525" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A526" t="inlineStr"/>
       <c r="B526" t="inlineStr"/>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr"/>
@@ -12719,11 +12491,7 @@
       <c r="K526" t="inlineStr"/>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A527" t="inlineStr"/>
       <c r="B527" t="inlineStr"/>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
@@ -12744,11 +12512,7 @@
       <c r="K527" t="inlineStr"/>
     </row>
     <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A528" t="inlineStr"/>
       <c r="B528" t="inlineStr"/>
       <c r="C528" t="inlineStr">
         <is>
@@ -15683,11 +15447,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
+      <c r="A676" t="inlineStr"/>
       <c r="B676" t="inlineStr"/>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
@@ -15704,11 +15464,7 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
+      <c r="A677" t="inlineStr"/>
       <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
@@ -15729,11 +15485,7 @@
       <c r="K677" t="inlineStr"/>
     </row>
     <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
+      <c r="A678" t="inlineStr"/>
       <c r="B678" t="inlineStr"/>
       <c r="C678" t="inlineStr">
         <is>
@@ -16239,11 +15991,7 @@
       <c r="K698" t="inlineStr"/>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
+      <c r="A699" t="inlineStr"/>
       <c r="B699" t="inlineStr"/>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
@@ -16260,11 +16008,7 @@
       <c r="K699" t="inlineStr"/>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
+      <c r="A700" t="inlineStr"/>
       <c r="B700" t="inlineStr"/>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
@@ -16285,11 +16029,7 @@
       <c r="K700" t="inlineStr"/>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
+      <c r="A701" t="inlineStr"/>
       <c r="B701" t="inlineStr"/>
       <c r="C701" t="inlineStr">
         <is>
@@ -16408,11 +16148,7 @@
       <c r="K704" t="inlineStr"/>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
+      <c r="A705" t="inlineStr"/>
       <c r="B705" t="inlineStr"/>
       <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr"/>
@@ -16429,11 +16165,7 @@
       <c r="K705" t="inlineStr"/>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
+      <c r="A706" t="inlineStr"/>
       <c r="B706" t="inlineStr"/>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
@@ -16500,11 +16232,7 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
+      <c r="A708" t="inlineStr"/>
       <c r="B708" t="inlineStr"/>
       <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr"/>
@@ -16521,11 +16249,7 @@
       <c r="K708" t="inlineStr"/>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
+      <c r="A709" t="inlineStr"/>
       <c r="B709" t="inlineStr"/>
       <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr">
@@ -16592,11 +16316,7 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A711" t="inlineStr"/>
       <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
@@ -16615,11 +16335,7 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A712" t="inlineStr"/>
       <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr"/>
@@ -16638,11 +16354,7 @@
       <c r="K712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A713" t="inlineStr"/>
       <c r="B713" t="inlineStr"/>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr"/>
@@ -16659,11 +16371,7 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A714" t="inlineStr"/>
       <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
@@ -16684,11 +16392,7 @@
       <c r="K714" t="inlineStr"/>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A715" t="inlineStr"/>
       <c r="B715" t="inlineStr"/>
       <c r="C715" t="inlineStr">
         <is>
@@ -17749,11 +17453,7 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
+      <c r="A761" t="inlineStr"/>
       <c r="B761" t="inlineStr"/>
       <c r="C761" t="inlineStr"/>
       <c r="D761" t="inlineStr"/>
@@ -17770,11 +17470,7 @@
       <c r="K761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
+      <c r="A762" t="inlineStr"/>
       <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
@@ -17795,11 +17491,7 @@
       <c r="K762" t="inlineStr"/>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
+      <c r="A763" t="inlineStr"/>
       <c r="B763" t="inlineStr"/>
       <c r="C763" t="inlineStr">
         <is>
@@ -18178,11 +17870,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
+      <c r="A779" t="inlineStr"/>
       <c r="B779" t="inlineStr"/>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr"/>
@@ -18199,11 +17887,7 @@
       <c r="K779" t="inlineStr"/>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
+      <c r="A780" t="inlineStr"/>
       <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
@@ -18224,11 +17908,7 @@
       <c r="K780" t="inlineStr"/>
     </row>
     <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
+      <c r="A781" t="inlineStr"/>
       <c r="B781" t="inlineStr"/>
       <c r="C781" t="inlineStr">
         <is>
@@ -19482,11 +19162,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
+      <c r="A838" t="inlineStr"/>
       <c r="B838" t="inlineStr"/>
       <c r="C838" t="inlineStr"/>
       <c r="D838" t="inlineStr"/>
@@ -19503,11 +19179,7 @@
       <c r="K838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
+      <c r="A839" t="inlineStr"/>
       <c r="B839" t="inlineStr"/>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
@@ -19574,11 +19246,7 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
+      <c r="A841" t="inlineStr"/>
       <c r="B841" t="inlineStr"/>
       <c r="C841" t="inlineStr"/>
       <c r="D841" t="inlineStr"/>
@@ -19595,11 +19263,7 @@
       <c r="K841" t="inlineStr"/>
     </row>
     <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
+      <c r="A842" t="inlineStr"/>
       <c r="B842" t="inlineStr"/>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
@@ -19620,11 +19284,7 @@
       <c r="K842" t="inlineStr"/>
     </row>
     <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
+      <c r="A843" t="inlineStr"/>
       <c r="B843" t="inlineStr"/>
       <c r="C843" t="inlineStr">
         <is>
@@ -19819,11 +19479,7 @@
       <c r="K850" t="inlineStr"/>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
+      <c r="A851" t="inlineStr"/>
       <c r="B851" t="inlineStr"/>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr"/>
@@ -19842,11 +19498,7 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
+      <c r="A852" t="inlineStr"/>
       <c r="B852" t="inlineStr"/>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr"/>
@@ -19865,11 +19517,7 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
+      <c r="A853" t="inlineStr"/>
       <c r="B853" t="inlineStr"/>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr"/>
@@ -19886,11 +19534,7 @@
       <c r="K853" t="inlineStr"/>
     </row>
     <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
+      <c r="A854" t="inlineStr"/>
       <c r="B854" t="inlineStr"/>
       <c r="C854" t="inlineStr"/>
       <c r="D854" t="inlineStr">
@@ -19957,11 +19601,7 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
+      <c r="A856" t="inlineStr"/>
       <c r="B856" t="inlineStr"/>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr"/>
@@ -19978,11 +19618,7 @@
       <c r="K856" t="inlineStr"/>
     </row>
     <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
+      <c r="A857" t="inlineStr"/>
       <c r="B857" t="inlineStr"/>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
@@ -20049,11 +19685,7 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
+      <c r="A859" t="inlineStr"/>
       <c r="B859" t="inlineStr"/>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr"/>
@@ -20070,11 +19702,7 @@
       <c r="K859" t="inlineStr"/>
     </row>
     <row r="860">
-      <c r="A860" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
+      <c r="A860" t="inlineStr"/>
       <c r="B860" t="inlineStr"/>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
@@ -20095,11 +19723,7 @@
       <c r="K860" t="inlineStr"/>
     </row>
     <row r="861">
-      <c r="A861" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
+      <c r="A861" t="inlineStr"/>
       <c r="B861" t="inlineStr"/>
       <c r="C861" t="inlineStr">
         <is>
@@ -22793,11 +22417,7 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
+      <c r="A998" t="inlineStr"/>
       <c r="B998" t="inlineStr"/>
       <c r="C998" t="inlineStr"/>
       <c r="D998" t="inlineStr"/>
@@ -22814,11 +22434,7 @@
       <c r="K998" t="inlineStr"/>
     </row>
     <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
+      <c r="A999" t="inlineStr"/>
       <c r="B999" t="inlineStr"/>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr">
@@ -22885,11 +22501,7 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
+      <c r="A1001" t="inlineStr"/>
       <c r="B1001" t="inlineStr"/>
       <c r="C1001" t="inlineStr"/>
       <c r="D1001" t="inlineStr"/>
@@ -22906,11 +22518,7 @@
       <c r="K1001" t="inlineStr"/>
     </row>
     <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
+      <c r="A1002" t="inlineStr"/>
       <c r="B1002" t="inlineStr"/>
       <c r="C1002" t="inlineStr"/>
       <c r="D1002" t="inlineStr">
@@ -22977,11 +22585,7 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
+      <c r="A1004" t="inlineStr"/>
       <c r="B1004" t="inlineStr"/>
       <c r="C1004" t="inlineStr"/>
       <c r="D1004" t="inlineStr"/>
@@ -22998,11 +22602,7 @@
       <c r="K1004" t="inlineStr"/>
     </row>
     <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
+      <c r="A1005" t="inlineStr"/>
       <c r="B1005" t="inlineStr"/>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr">
@@ -23023,11 +22623,7 @@
       <c r="K1005" t="inlineStr"/>
     </row>
     <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
+      <c r="A1006" t="inlineStr"/>
       <c r="B1006" t="inlineStr"/>
       <c r="C1006" t="inlineStr">
         <is>
@@ -23587,11 +23183,7 @@
       <c r="K1028" t="inlineStr"/>
     </row>
     <row r="1029">
-      <c r="A1029" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
+      <c r="A1029" t="inlineStr"/>
       <c r="B1029" t="inlineStr"/>
       <c r="C1029" t="inlineStr"/>
       <c r="D1029" t="inlineStr"/>
@@ -23608,11 +23200,7 @@
       <c r="K1029" t="inlineStr"/>
     </row>
     <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
+      <c r="A1030" t="inlineStr"/>
       <c r="B1030" t="inlineStr"/>
       <c r="C1030" t="inlineStr"/>
       <c r="D1030" t="inlineStr">
@@ -23679,11 +23267,7 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A1032" t="inlineStr"/>
       <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
@@ -23702,11 +23286,7 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A1033" t="inlineStr"/>
       <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr"/>
@@ -23725,11 +23305,7 @@
       </c>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A1034" t="inlineStr"/>
       <c r="B1034" t="inlineStr"/>
       <c r="C1034" t="inlineStr"/>
       <c r="D1034" t="inlineStr"/>
@@ -23746,11 +23322,7 @@
       <c r="K1034" t="inlineStr"/>
     </row>
     <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A1035" t="inlineStr"/>
       <c r="B1035" t="inlineStr"/>
       <c r="C1035" t="inlineStr"/>
       <c r="D1035" t="inlineStr">
@@ -23771,11 +23343,7 @@
       <c r="K1035" t="inlineStr"/>
     </row>
     <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A1036" t="inlineStr"/>
       <c r="B1036" t="inlineStr"/>
       <c r="C1036" t="inlineStr">
         <is>
@@ -23894,11 +23462,7 @@
       <c r="K1039" t="inlineStr"/>
     </row>
     <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
+      <c r="A1040" t="inlineStr"/>
       <c r="B1040" t="inlineStr"/>
       <c r="C1040" t="inlineStr"/>
       <c r="D1040" t="inlineStr"/>
@@ -23915,11 +23479,7 @@
       <c r="K1040" t="inlineStr"/>
     </row>
     <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
+      <c r="A1041" t="inlineStr"/>
       <c r="B1041" t="inlineStr"/>
       <c r="C1041" t="inlineStr"/>
       <c r="D1041" t="inlineStr">
@@ -23940,11 +23500,7 @@
       <c r="K1041" t="inlineStr"/>
     </row>
     <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
+      <c r="A1042" t="inlineStr"/>
       <c r="B1042" t="inlineStr"/>
       <c r="C1042" t="inlineStr">
         <is>
@@ -24209,11 +23765,7 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1052" t="inlineStr"/>
       <c r="B1052" t="inlineStr"/>
       <c r="C1052" t="inlineStr"/>
       <c r="D1052" t="inlineStr"/>
@@ -24232,11 +23784,7 @@
       <c r="K1052" t="inlineStr"/>
     </row>
     <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1053" t="inlineStr"/>
       <c r="B1053" t="inlineStr"/>
       <c r="C1053" t="inlineStr"/>
       <c r="D1053" t="inlineStr"/>
@@ -24255,11 +23803,7 @@
       <c r="K1053" t="inlineStr"/>
     </row>
     <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1054" t="inlineStr"/>
       <c r="B1054" t="inlineStr"/>
       <c r="C1054" t="inlineStr"/>
       <c r="D1054" t="inlineStr"/>
@@ -24278,11 +23822,7 @@
       <c r="K1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1055" t="inlineStr"/>
       <c r="B1055" t="inlineStr"/>
       <c r="C1055" t="inlineStr"/>
       <c r="D1055" t="inlineStr"/>
@@ -24301,11 +23841,7 @@
       <c r="K1055" t="inlineStr"/>
     </row>
     <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1056" t="inlineStr"/>
       <c r="B1056" t="inlineStr"/>
       <c r="C1056" t="inlineStr"/>
       <c r="D1056" t="inlineStr"/>
@@ -24324,11 +23860,7 @@
       <c r="K1056" t="inlineStr"/>
     </row>
     <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1057" t="inlineStr"/>
       <c r="B1057" t="inlineStr"/>
       <c r="C1057" t="inlineStr"/>
       <c r="D1057" t="inlineStr"/>
@@ -24347,11 +23879,7 @@
       <c r="K1057" t="inlineStr"/>
     </row>
     <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1058" t="inlineStr"/>
       <c r="B1058" t="inlineStr"/>
       <c r="C1058" t="inlineStr"/>
       <c r="D1058" t="inlineStr"/>
@@ -24368,11 +23896,7 @@
       <c r="K1058" t="inlineStr"/>
     </row>
     <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1059" t="inlineStr"/>
       <c r="B1059" t="inlineStr"/>
       <c r="C1059" t="inlineStr"/>
       <c r="D1059" t="inlineStr">
@@ -24393,11 +23917,7 @@
       <c r="K1059" t="inlineStr"/>
     </row>
     <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A1060" t="inlineStr"/>
       <c r="B1060" t="inlineStr"/>
       <c r="C1060" t="inlineStr">
         <is>
@@ -24573,11 +24093,7 @@
       <c r="K1066" t="inlineStr"/>
     </row>
     <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
+      <c r="A1067" t="inlineStr"/>
       <c r="B1067" t="inlineStr"/>
       <c r="C1067" t="inlineStr"/>
       <c r="D1067" t="inlineStr"/>
@@ -24594,11 +24110,7 @@
       <c r="K1067" t="inlineStr"/>
     </row>
     <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
+      <c r="A1068" t="inlineStr"/>
       <c r="B1068" t="inlineStr"/>
       <c r="C1068" t="inlineStr"/>
       <c r="D1068" t="inlineStr">
@@ -24619,11 +24131,7 @@
       <c r="K1068" t="inlineStr"/>
     </row>
     <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
+      <c r="A1069" t="inlineStr"/>
       <c r="B1069" t="inlineStr"/>
       <c r="C1069" t="inlineStr">
         <is>
@@ -24911,11 +24419,7 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
+      <c r="A1081" t="inlineStr"/>
       <c r="B1081" t="inlineStr"/>
       <c r="C1081" t="inlineStr"/>
       <c r="D1081" t="inlineStr"/>
@@ -24932,11 +24436,7 @@
       <c r="K1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
+      <c r="A1082" t="inlineStr"/>
       <c r="B1082" t="inlineStr"/>
       <c r="C1082" t="inlineStr"/>
       <c r="D1082" t="inlineStr">
@@ -25003,11 +24503,7 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
+      <c r="A1084" t="inlineStr"/>
       <c r="B1084" t="inlineStr"/>
       <c r="C1084" t="inlineStr"/>
       <c r="D1084" t="inlineStr"/>
@@ -25024,11 +24520,7 @@
       <c r="K1084" t="inlineStr"/>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
+      <c r="A1085" t="inlineStr"/>
       <c r="B1085" t="inlineStr"/>
       <c r="C1085" t="inlineStr"/>
       <c r="D1085" t="inlineStr">
@@ -25095,11 +24587,7 @@
       <c r="K1086" t="inlineStr"/>
     </row>
     <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
+      <c r="A1087" t="inlineStr"/>
       <c r="B1087" t="inlineStr"/>
       <c r="C1087" t="inlineStr"/>
       <c r="D1087" t="inlineStr"/>
@@ -25116,11 +24604,7 @@
       <c r="K1087" t="inlineStr"/>
     </row>
     <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
+      <c r="A1088" t="inlineStr"/>
       <c r="B1088" t="inlineStr"/>
       <c r="C1088" t="inlineStr"/>
       <c r="D1088" t="inlineStr">
@@ -25141,11 +24625,7 @@
       <c r="K1088" t="inlineStr"/>
     </row>
     <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
+      <c r="A1089" t="inlineStr"/>
       <c r="B1089" t="inlineStr"/>
       <c r="C1089" t="inlineStr">
         <is>
@@ -25410,11 +24890,7 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
+      <c r="A1099" t="inlineStr"/>
       <c r="B1099" t="inlineStr"/>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr"/>
@@ -25431,11 +24907,7 @@
       <c r="K1099" t="inlineStr"/>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
+      <c r="A1100" t="inlineStr"/>
       <c r="B1100" t="inlineStr"/>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
@@ -25456,11 +24928,7 @@
       <c r="K1100" t="inlineStr"/>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
+      <c r="A1101" t="inlineStr"/>
       <c r="B1101" t="inlineStr"/>
       <c r="C1101" t="inlineStr">
         <is>
@@ -26017,11 +25485,7 @@
       <c r="K1122" t="inlineStr"/>
     </row>
     <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
+      <c r="A1123" t="inlineStr"/>
       <c r="B1123" t="inlineStr"/>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr"/>
@@ -26038,11 +25502,7 @@
       <c r="K1123" t="inlineStr"/>
     </row>
     <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
+      <c r="A1124" t="inlineStr"/>
       <c r="B1124" t="inlineStr"/>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
@@ -26109,11 +25569,7 @@
       <c r="K1125" t="inlineStr"/>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
+      <c r="A1126" t="inlineStr"/>
       <c r="B1126" t="inlineStr"/>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr"/>
@@ -26130,11 +25586,7 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
+      <c r="A1127" t="inlineStr"/>
       <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
@@ -26201,11 +25653,7 @@
       <c r="K1128" t="inlineStr"/>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
+      <c r="A1129" t="inlineStr"/>
       <c r="B1129" t="inlineStr"/>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
@@ -26222,11 +25670,7 @@
       <c r="K1129" t="inlineStr"/>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
+      <c r="A1130" t="inlineStr"/>
       <c r="B1130" t="inlineStr"/>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
@@ -26247,11 +25691,7 @@
       <c r="K1130" t="inlineStr"/>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
+      <c r="A1131" t="inlineStr"/>
       <c r="B1131" t="inlineStr"/>
       <c r="C1131" t="inlineStr">
         <is>
@@ -26776,11 +26216,7 @@
       <c r="K1152" t="inlineStr"/>
     </row>
     <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
+      <c r="A1153" t="inlineStr"/>
       <c r="B1153" t="inlineStr"/>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
@@ -26797,11 +26233,7 @@
       <c r="K1153" t="inlineStr"/>
     </row>
     <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
+      <c r="A1154" t="inlineStr"/>
       <c r="B1154" t="inlineStr"/>
       <c r="C1154" t="inlineStr"/>
       <c r="D1154" t="inlineStr">
@@ -26868,11 +26300,7 @@
       <c r="K1155" t="inlineStr"/>
     </row>
     <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
+      <c r="A1156" t="inlineStr"/>
       <c r="B1156" t="inlineStr"/>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr"/>
@@ -26889,11 +26317,7 @@
       <c r="K1156" t="inlineStr"/>
     </row>
     <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
+      <c r="A1157" t="inlineStr"/>
       <c r="B1157" t="inlineStr"/>
       <c r="C1157" t="inlineStr"/>
       <c r="D1157" t="inlineStr">
@@ -26960,11 +26384,7 @@
       <c r="K1158" t="inlineStr"/>
     </row>
     <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
+      <c r="A1159" t="inlineStr"/>
       <c r="B1159" t="inlineStr"/>
       <c r="C1159" t="inlineStr"/>
       <c r="D1159" t="inlineStr"/>
@@ -26981,11 +26401,7 @@
       <c r="K1159" t="inlineStr"/>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
+      <c r="A1160" t="inlineStr"/>
       <c r="B1160" t="inlineStr"/>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
@@ -27006,11 +26422,7 @@
       <c r="K1160" t="inlineStr"/>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
+      <c r="A1161" t="inlineStr"/>
       <c r="B1161" t="inlineStr"/>
       <c r="C1161" t="inlineStr">
         <is>
@@ -31913,11 +31325,7 @@
       <c r="K1388" t="inlineStr"/>
     </row>
     <row r="1389">
-      <c r="A1389" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
+      <c r="A1389" t="inlineStr"/>
       <c r="B1389" t="inlineStr"/>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr"/>
@@ -31934,11 +31342,7 @@
       <c r="K1389" t="inlineStr"/>
     </row>
     <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
+      <c r="A1390" t="inlineStr"/>
       <c r="B1390" t="inlineStr"/>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
@@ -32005,11 +31409,7 @@
       <c r="K1391" t="inlineStr"/>
     </row>
     <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
+      <c r="A1392" t="inlineStr"/>
       <c r="B1392" t="inlineStr"/>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr"/>
@@ -32026,11 +31426,7 @@
       <c r="K1392" t="inlineStr"/>
     </row>
     <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
+      <c r="A1393" t="inlineStr"/>
       <c r="B1393" t="inlineStr"/>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
@@ -32097,11 +31493,7 @@
       <c r="K1394" t="inlineStr"/>
     </row>
     <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
+      <c r="A1395" t="inlineStr"/>
       <c r="B1395" t="inlineStr"/>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr"/>
@@ -32118,11 +31510,7 @@
       <c r="K1395" t="inlineStr"/>
     </row>
     <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
+      <c r="A1396" t="inlineStr"/>
       <c r="B1396" t="inlineStr"/>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
@@ -32143,11 +31531,7 @@
       <c r="K1396" t="inlineStr"/>
     </row>
     <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
+      <c r="A1397" t="inlineStr"/>
       <c r="B1397" t="inlineStr"/>
       <c r="C1397" t="inlineStr">
         <is>
@@ -32485,11 +31869,7 @@
       <c r="K1409" t="inlineStr"/>
     </row>
     <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
+      <c r="A1410" t="inlineStr"/>
       <c r="B1410" t="inlineStr"/>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr"/>
@@ -32506,11 +31886,7 @@
       <c r="K1410" t="inlineStr"/>
     </row>
     <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
+      <c r="A1411" t="inlineStr"/>
       <c r="B1411" t="inlineStr"/>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
@@ -32531,11 +31907,7 @@
       <c r="K1411" t="inlineStr"/>
     </row>
     <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
+      <c r="A1412" t="inlineStr"/>
       <c r="B1412" t="inlineStr"/>
       <c r="C1412" t="inlineStr">
         <is>
@@ -32946,11 +32318,7 @@
       <c r="K1427" t="inlineStr"/>
     </row>
     <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A1428" t="inlineStr"/>
       <c r="B1428" t="inlineStr"/>
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr"/>
@@ -32969,11 +32337,7 @@
       </c>
     </row>
     <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A1429" t="inlineStr"/>
       <c r="B1429" t="inlineStr"/>
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr"/>
@@ -32992,11 +32356,7 @@
       </c>
     </row>
     <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A1430" t="inlineStr"/>
       <c r="B1430" t="inlineStr"/>
       <c r="C1430" t="inlineStr"/>
       <c r="D1430" t="inlineStr"/>
@@ -33013,11 +32373,7 @@
       <c r="K1430" t="inlineStr"/>
     </row>
     <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A1431" t="inlineStr"/>
       <c r="B1431" t="inlineStr"/>
       <c r="C1431" t="inlineStr"/>
       <c r="D1431" t="inlineStr">
@@ -33038,11 +32394,7 @@
       <c r="K1431" t="inlineStr"/>
     </row>
     <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A1432" t="inlineStr"/>
       <c r="B1432" t="inlineStr"/>
       <c r="C1432" t="inlineStr">
         <is>
@@ -33405,11 +32757,7 @@
       <c r="K1447" t="inlineStr"/>
     </row>
     <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
+      <c r="A1448" t="inlineStr"/>
       <c r="B1448" t="inlineStr"/>
       <c r="C1448" t="inlineStr"/>
       <c r="D1448" t="inlineStr"/>
@@ -33426,11 +32774,7 @@
       <c r="K1448" t="inlineStr"/>
     </row>
     <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
+      <c r="A1449" t="inlineStr"/>
       <c r="B1449" t="inlineStr"/>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
@@ -33451,11 +32795,7 @@
       <c r="K1449" t="inlineStr"/>
     </row>
     <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
+      <c r="A1450" t="inlineStr"/>
       <c r="B1450" t="inlineStr"/>
       <c r="C1450" t="inlineStr">
         <is>
@@ -33574,11 +32914,7 @@
       <c r="K1453" t="inlineStr"/>
     </row>
     <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A1454" t="inlineStr"/>
       <c r="B1454" t="inlineStr"/>
       <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
@@ -33597,11 +32933,7 @@
       </c>
     </row>
     <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A1455" t="inlineStr"/>
       <c r="B1455" t="inlineStr"/>
       <c r="C1455" t="inlineStr"/>
       <c r="D1455" t="inlineStr"/>
@@ -33620,11 +32952,7 @@
       </c>
     </row>
     <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A1456" t="inlineStr"/>
       <c r="B1456" t="inlineStr"/>
       <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
@@ -33643,11 +32971,7 @@
       </c>
     </row>
     <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A1457" t="inlineStr"/>
       <c r="B1457" t="inlineStr"/>
       <c r="C1457" t="inlineStr"/>
       <c r="D1457" t="inlineStr"/>
@@ -33664,11 +32988,7 @@
       <c r="K1457" t="inlineStr"/>
     </row>
     <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A1458" t="inlineStr"/>
       <c r="B1458" t="inlineStr"/>
       <c r="C1458" t="inlineStr"/>
       <c r="D1458" t="inlineStr">
@@ -33735,11 +33055,7 @@
       </c>
     </row>
     <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
+      <c r="A1460" t="inlineStr"/>
       <c r="B1460" t="inlineStr"/>
       <c r="C1460" t="inlineStr"/>
       <c r="D1460" t="inlineStr"/>
@@ -33756,11 +33072,7 @@
       <c r="K1460" t="inlineStr"/>
     </row>
     <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
+      <c r="A1461" t="inlineStr"/>
       <c r="B1461" t="inlineStr"/>
       <c r="C1461" t="inlineStr"/>
       <c r="D1461" t="inlineStr">
@@ -33781,11 +33093,7 @@
       <c r="K1461" t="inlineStr"/>
     </row>
     <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
+      <c r="A1462" t="inlineStr"/>
       <c r="B1462" t="inlineStr"/>
       <c r="C1462" t="inlineStr">
         <is>
@@ -36657,11 +35965,7 @@
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
+      <c r="A1605" t="inlineStr"/>
       <c r="B1605" t="inlineStr"/>
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr"/>
@@ -36678,11 +35982,7 @@
       <c r="K1605" t="inlineStr"/>
     </row>
     <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
+      <c r="A1606" t="inlineStr"/>
       <c r="B1606" t="inlineStr"/>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
@@ -36703,11 +36003,7 @@
       <c r="K1606" t="inlineStr"/>
     </row>
     <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
+      <c r="A1607" t="inlineStr"/>
       <c r="B1607" t="inlineStr"/>
       <c r="C1607" t="inlineStr">
         <is>
@@ -36973,11 +36269,7 @@
       </c>
     </row>
     <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
+      <c r="A1617" t="inlineStr"/>
       <c r="B1617" t="inlineStr"/>
       <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr"/>
@@ -36994,11 +36286,7 @@
       <c r="K1617" t="inlineStr"/>
     </row>
     <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
+      <c r="A1618" t="inlineStr"/>
       <c r="B1618" t="inlineStr"/>
       <c r="C1618" t="inlineStr"/>
       <c r="D1618" t="inlineStr">
@@ -37019,11 +36307,7 @@
       <c r="K1618" t="inlineStr"/>
     </row>
     <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
+      <c r="A1619" t="inlineStr"/>
       <c r="B1619" t="inlineStr"/>
       <c r="C1619" t="inlineStr">
         <is>
@@ -39519,11 +38803,7 @@
       <c r="K1721" t="inlineStr"/>
     </row>
     <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
+      <c r="A1722" t="inlineStr"/>
       <c r="B1722" t="inlineStr"/>
       <c r="C1722" t="inlineStr"/>
       <c r="D1722" t="inlineStr"/>
@@ -39540,11 +38820,7 @@
       <c r="K1722" t="inlineStr"/>
     </row>
     <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
+      <c r="A1723" t="inlineStr"/>
       <c r="B1723" t="inlineStr"/>
       <c r="C1723" t="inlineStr"/>
       <c r="D1723" t="inlineStr">
@@ -39565,11 +38841,7 @@
       <c r="K1723" t="inlineStr"/>
     </row>
     <row r="1724">
-      <c r="A1724" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
+      <c r="A1724" t="inlineStr"/>
       <c r="B1724" t="inlineStr"/>
       <c r="C1724" t="inlineStr">
         <is>
@@ -39688,11 +38960,7 @@
       </c>
     </row>
     <row r="1728">
-      <c r="A1728" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
+      <c r="A1728" t="inlineStr"/>
       <c r="B1728" t="inlineStr"/>
       <c r="C1728" t="inlineStr"/>
       <c r="D1728" t="inlineStr"/>
@@ -39709,11 +38977,7 @@
       <c r="K1728" t="inlineStr"/>
     </row>
     <row r="1729">
-      <c r="A1729" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
+      <c r="A1729" t="inlineStr"/>
       <c r="B1729" t="inlineStr"/>
       <c r="C1729" t="inlineStr"/>
       <c r="D1729" t="inlineStr">
@@ -39734,11 +38998,7 @@
       <c r="K1729" t="inlineStr"/>
     </row>
     <row r="1730">
-      <c r="A1730" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
+      <c r="A1730" t="inlineStr"/>
       <c r="B1730" t="inlineStr"/>
       <c r="C1730" t="inlineStr">
         <is>
@@ -40395,11 +39655,7 @@
       </c>
     </row>
     <row r="1758">
-      <c r="A1758" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1758" t="inlineStr"/>
       <c r="B1758" t="inlineStr"/>
       <c r="C1758" t="inlineStr"/>
       <c r="D1758" t="inlineStr"/>
@@ -40418,11 +39674,7 @@
       </c>
     </row>
     <row r="1759">
-      <c r="A1759" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1759" t="inlineStr"/>
       <c r="B1759" t="inlineStr"/>
       <c r="C1759" t="inlineStr"/>
       <c r="D1759" t="inlineStr"/>
@@ -40441,11 +39693,7 @@
       <c r="K1759" t="inlineStr"/>
     </row>
     <row r="1760">
-      <c r="A1760" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1760" t="inlineStr"/>
       <c r="B1760" t="inlineStr"/>
       <c r="C1760" t="inlineStr"/>
       <c r="D1760" t="inlineStr"/>
@@ -40462,11 +39710,7 @@
       <c r="K1760" t="inlineStr"/>
     </row>
     <row r="1761">
-      <c r="A1761" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1761" t="inlineStr"/>
       <c r="B1761" t="inlineStr"/>
       <c r="C1761" t="inlineStr"/>
       <c r="D1761" t="inlineStr">
@@ -40487,11 +39731,7 @@
       <c r="K1761" t="inlineStr"/>
     </row>
     <row r="1762">
-      <c r="A1762" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1762" t="inlineStr"/>
       <c r="B1762" t="inlineStr"/>
       <c r="C1762" t="inlineStr">
         <is>
@@ -40902,11 +40142,7 @@
       <c r="K1777" t="inlineStr"/>
     </row>
     <row r="1778">
-      <c r="A1778" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
+      <c r="A1778" t="inlineStr"/>
       <c r="B1778" t="inlineStr"/>
       <c r="C1778" t="inlineStr"/>
       <c r="D1778" t="inlineStr"/>
@@ -40923,11 +40159,7 @@
       <c r="K1778" t="inlineStr"/>
     </row>
     <row r="1779">
-      <c r="A1779" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
+      <c r="A1779" t="inlineStr"/>
       <c r="B1779" t="inlineStr"/>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr">
@@ -40948,11 +40180,7 @@
       <c r="K1779" t="inlineStr"/>
     </row>
     <row r="1780">
-      <c r="A1780" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
+      <c r="A1780" t="inlineStr"/>
       <c r="B1780" t="inlineStr"/>
       <c r="C1780" t="inlineStr">
         <is>
@@ -41255,11 +40483,7 @@
       <c r="K1791" t="inlineStr"/>
     </row>
     <row r="1792">
-      <c r="A1792" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
+      <c r="A1792" t="inlineStr"/>
       <c r="B1792" t="inlineStr"/>
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr"/>
@@ -41276,11 +40500,7 @@
       <c r="K1792" t="inlineStr"/>
     </row>
     <row r="1793">
-      <c r="A1793" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
+      <c r="A1793" t="inlineStr"/>
       <c r="B1793" t="inlineStr"/>
       <c r="C1793" t="inlineStr"/>
       <c r="D1793" t="inlineStr">
@@ -41301,11 +40521,7 @@
       <c r="K1793" t="inlineStr"/>
     </row>
     <row r="1794">
-      <c r="A1794" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
+      <c r="A1794" t="inlineStr"/>
       <c r="B1794" t="inlineStr"/>
       <c r="C1794" t="inlineStr">
         <is>
@@ -41497,11 +40713,7 @@
       </c>
     </row>
     <row r="1801">
-      <c r="A1801" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
+      <c r="A1801" t="inlineStr"/>
       <c r="B1801" t="inlineStr"/>
       <c r="C1801" t="inlineStr"/>
       <c r="D1801" t="inlineStr"/>
@@ -41518,11 +40730,7 @@
       <c r="K1801" t="inlineStr"/>
     </row>
     <row r="1802">
-      <c r="A1802" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
+      <c r="A1802" t="inlineStr"/>
       <c r="B1802" t="inlineStr"/>
       <c r="C1802" t="inlineStr"/>
       <c r="D1802" t="inlineStr">
@@ -41543,11 +40751,7 @@
       <c r="K1802" t="inlineStr"/>
     </row>
     <row r="1803">
-      <c r="A1803" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
+      <c r="A1803" t="inlineStr"/>
       <c r="B1803" t="inlineStr"/>
       <c r="C1803" t="inlineStr">
         <is>
@@ -42351,11 +41555,7 @@
       </c>
     </row>
     <row r="1838">
-      <c r="A1838" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
+      <c r="A1838" t="inlineStr"/>
       <c r="B1838" t="inlineStr"/>
       <c r="C1838" t="inlineStr"/>
       <c r="D1838" t="inlineStr"/>
@@ -42372,11 +41572,7 @@
       <c r="K1838" t="inlineStr"/>
     </row>
     <row r="1839">
-      <c r="A1839" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
+      <c r="A1839" t="inlineStr"/>
       <c r="B1839" t="inlineStr"/>
       <c r="C1839" t="inlineStr"/>
       <c r="D1839" t="inlineStr">
@@ -42397,11 +41593,7 @@
       <c r="K1839" t="inlineStr"/>
     </row>
     <row r="1840">
-      <c r="A1840" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
+      <c r="A1840" t="inlineStr"/>
       <c r="B1840" t="inlineStr"/>
       <c r="C1840" t="inlineStr">
         <is>
@@ -42631,11 +41823,7 @@
       </c>
     </row>
     <row r="1849">
-      <c r="A1849" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
+      <c r="A1849" t="inlineStr"/>
       <c r="B1849" t="inlineStr"/>
       <c r="C1849" t="inlineStr"/>
       <c r="D1849" t="inlineStr"/>
@@ -42652,11 +41840,7 @@
       <c r="K1849" t="inlineStr"/>
     </row>
     <row r="1850">
-      <c r="A1850" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
+      <c r="A1850" t="inlineStr"/>
       <c r="B1850" t="inlineStr"/>
       <c r="C1850" t="inlineStr"/>
       <c r="D1850" t="inlineStr">
@@ -42677,11 +41861,7 @@
       <c r="K1850" t="inlineStr"/>
     </row>
     <row r="1851">
-      <c r="A1851" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
+      <c r="A1851" t="inlineStr"/>
       <c r="B1851" t="inlineStr"/>
       <c r="C1851" t="inlineStr">
         <is>

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -1127,8 +1127,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 5040781.68
 Borrower Amount: 5040781.68</t>
         </is>
@@ -1166,8 +1165,18 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
@@ -1183,8 +1192,18 @@
       <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
@@ -1211,8 +1230,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 15737222.22
 Borrower Amount: 15737222.22</t>
         </is>
@@ -1250,8 +1268,18 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
@@ -1269,8 +1297,18 @@
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
@@ -1288,8 +1326,18 @@
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
@@ -1307,8 +1355,18 @@
       <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
@@ -1324,8 +1382,18 @@
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
@@ -1571,8 +1639,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 8884.77
 Borrower Amount: 8884.77</t>
         </is>
@@ -1610,8 +1677,18 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
@@ -1627,8 +1704,18 @@
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
@@ -1655,8 +1742,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 1575.00
 Borrower Amount: 1575.00</t>
         </is>
@@ -1694,8 +1780,18 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
@@ -1711,8 +1807,18 @@
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
@@ -2031,8 +2137,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
+          <t>LC Match: L/C-187724010124/24
 Lender Amount: 1150.00
 Borrower Amount: 1150.00</t>
         </is>
@@ -2070,8 +2175,18 @@
       <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
@@ -2087,8 +2202,18 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
@@ -2115,8 +2240,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 1575.00
 Borrower Amount: 1575.00</t>
         </is>
@@ -2154,8 +2278,18 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
@@ -2171,8 +2305,18 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
@@ -2564,8 +2708,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 26369.63
 Borrower Amount: 26369.63</t>
         </is>
@@ -2603,8 +2746,18 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
@@ -2620,8 +2773,18 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
@@ -2648,8 +2811,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 26246.93
 Borrower Amount: 26246.93</t>
         </is>
@@ -2687,8 +2849,18 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
@@ -2704,8 +2876,18 @@
       <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
@@ -6966,8 +7148,7 @@
       </c>
       <c r="B300" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
+          <t>LC Match: L/C-187724010124/24
 Lender Amount: 1150.00
 Borrower Amount: 1150.00</t>
         </is>
@@ -7005,8 +7186,18 @@
       <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
-      <c r="B301" t="inlineStr"/>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B301" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
       <c r="E301" s="4" t="inlineStr">
@@ -7022,8 +7213,18 @@
       <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
-      <c r="B302" t="inlineStr"/>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B302" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
@@ -7123,8 +7324,7 @@
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
+          <t>LC Match: L/C-187724010124/24
 Lender Amount: 8761.79
 Borrower Amount: 8761.79</t>
         </is>
@@ -7162,8 +7362,18 @@
       <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
-      <c r="B307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B307" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
       <c r="E307" s="4" t="inlineStr">
@@ -7181,8 +7391,18 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
-      <c r="B308" t="inlineStr"/>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B308" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
       <c r="E308" s="4" t="inlineStr">
@@ -7200,8 +7420,18 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
-      <c r="B309" t="inlineStr"/>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B309" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
       <c r="E309" s="4" t="inlineStr">
@@ -7217,8 +7447,18 @@
       <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
-      <c r="B310" t="inlineStr"/>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B310" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
@@ -7756,8 +7996,7 @@
       </c>
       <c r="B332" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 1862.50
 Borrower Amount: 1862.50</t>
         </is>
@@ -7795,8 +8034,18 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
-      <c r="B333" t="inlineStr"/>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B333" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
       <c r="E333" s="4" t="inlineStr">
@@ -7812,8 +8061,18 @@
       <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
-      <c r="B334" t="inlineStr"/>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B334" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
@@ -8227,8 +8486,7 @@
       </c>
       <c r="B352" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020003/25
+          <t>LC Match: L/C-147125020003/25
 Lender Amount: 27383.77
 Borrower Amount: 27383.77</t>
         </is>
@@ -8266,8 +8524,18 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
-      <c r="B353" t="inlineStr"/>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B353" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
       <c r="E353" s="4" t="inlineStr">
@@ -8283,8 +8551,18 @@
       <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
-      <c r="B354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B354" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
@@ -9689,8 +9967,7 @@
       </c>
       <c r="B414" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
+          <t>LC Match: L/C-308524990243/24
 Lender Amount: 20527984.90
 Borrower Amount: 20527984.90</t>
         </is>
@@ -9728,8 +10005,18 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr"/>
-      <c r="B415" t="inlineStr"/>
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B415" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr"/>
       <c r="E415" s="4" t="inlineStr">
@@ -9745,8 +10032,18 @@
       <c r="K415" t="inlineStr"/>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr"/>
-      <c r="B416" t="inlineStr"/>
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B416" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
@@ -9773,8 +10070,7 @@
       </c>
       <c r="B417" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147124020653/25
+          <t>LC Match: L/C-147124020653/25
 Lender Amount: 665048.82
 Borrower Amount: 665048.82</t>
         </is>
@@ -9812,8 +10108,18 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr"/>
-      <c r="B418" t="inlineStr"/>
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B418" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr"/>
       <c r="E418" s="4" t="inlineStr">
@@ -9829,8 +10135,18 @@
       <c r="K418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr"/>
-      <c r="B419" t="inlineStr"/>
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B419" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
@@ -11028,8 +11344,7 @@
       </c>
       <c r="B469" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
+          <t>LC Match: L/C-141325020063/25
 Lender Amount: 5995080.00
 Borrower Amount: 5995080.00</t>
         </is>
@@ -11067,8 +11382,18 @@
       <c r="K469" t="inlineStr"/>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
-      <c r="B470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B470" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
       <c r="E470" s="4" t="inlineStr">
@@ -11084,8 +11409,18 @@
       <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
-      <c r="B471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B471" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
@@ -11112,8 +11447,7 @@
       </c>
       <c r="B472" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
+          <t>LC Match: L/C-141325020068/25
 Lender Amount: 33573.89
 Borrower Amount: 33573.89</t>
         </is>
@@ -11151,8 +11485,18 @@
       <c r="K472" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
-      <c r="B473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B473" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" s="4" t="inlineStr">
@@ -11168,8 +11512,18 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
-      <c r="B474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B474" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
@@ -11196,8 +11550,7 @@
       </c>
       <c r="B475" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
+          <t>LC Match: L/C-141325020068/25
 Lender Amount: 1650660.00
 Borrower Amount: 1650660.00</t>
         </is>
@@ -11235,8 +11588,18 @@
       <c r="K475" t="inlineStr"/>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
-      <c r="B476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B476" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -11252,8 +11615,18 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
-      <c r="B477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B477" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
@@ -11280,8 +11653,7 @@
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
+          <t>LC Match: L/C-141325020063/25
 Lender Amount: 246401.97
 Borrower Amount: 246401.97</t>
         </is>
@@ -11319,8 +11691,18 @@
       <c r="K478" t="inlineStr"/>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
-      <c r="B479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B479" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr"/>
       <c r="E479" s="4" t="inlineStr">
@@ -11336,8 +11718,18 @@
       <c r="K479" t="inlineStr"/>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
-      <c r="B480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B480" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
@@ -11437,8 +11829,7 @@
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
+          <t>LC Match: L/C-147124020708/24
 Lender Amount: 25042.61
 Borrower Amount: 25042.61</t>
         </is>
@@ -11476,8 +11867,18 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
-      <c r="B485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B485" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr"/>
       <c r="E485" s="4" t="inlineStr">
@@ -11493,8 +11894,18 @@
       <c r="K485" t="inlineStr"/>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
-      <c r="B486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B486" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
@@ -12397,8 +12808,7 @@
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
+          <t>LC Match: LC-155824020001/24
 Lender Amount: 7641878.37
 Borrower Amount: 7641878.37</t>
         </is>
@@ -12436,8 +12846,18 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr"/>
-      <c r="B524" t="inlineStr"/>
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B524" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr"/>
       <c r="E524" s="4" t="inlineStr">
@@ -12455,8 +12875,18 @@
       <c r="K524" t="inlineStr"/>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr"/>
-      <c r="B525" t="inlineStr"/>
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B525" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr"/>
       <c r="E525" s="4" t="inlineStr">
@@ -12474,8 +12904,18 @@
       <c r="K525" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr"/>
-      <c r="B526" t="inlineStr"/>
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B526" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr"/>
       <c r="E526" s="4" t="inlineStr">
@@ -12491,8 +12931,18 @@
       <c r="K526" t="inlineStr"/>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr"/>
-      <c r="B527" t="inlineStr"/>
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B527" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
@@ -15408,8 +15858,7 @@
       </c>
       <c r="B675" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
+          <t>LC Match: L/C-308524990243/24
 Lender Amount: 71971.54
 Borrower Amount: 71971.54</t>
         </is>
@@ -15447,8 +15896,18 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr"/>
-      <c r="B676" t="inlineStr"/>
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B676" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -15464,8 +15923,18 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
-      <c r="B677" t="inlineStr"/>
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B677" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
@@ -15952,8 +16421,7 @@
       </c>
       <c r="B698" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
+          <t>LC Match: L/C-222825150235/25
 Lender Amount: 2357.50
 Borrower Amount: 2357.50</t>
         </is>
@@ -15991,8 +16459,18 @@
       <c r="K698" t="inlineStr"/>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr"/>
-      <c r="B699" t="inlineStr"/>
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B699" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
       <c r="E699" s="4" t="inlineStr">
@@ -16008,8 +16486,18 @@
       <c r="K699" t="inlineStr"/>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr"/>
-      <c r="B700" t="inlineStr"/>
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B700" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
         <is>
@@ -16109,8 +16597,7 @@
       </c>
       <c r="B704" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
+          <t>LC Match: L/C-222825150235/25
 Lender Amount: 213500.00
 Borrower Amount: 213500.00</t>
         </is>
@@ -16148,8 +16635,18 @@
       <c r="K704" t="inlineStr"/>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr"/>
-      <c r="B705" t="inlineStr"/>
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B705" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr"/>
       <c r="E705" s="4" t="inlineStr">
@@ -16165,8 +16662,18 @@
       <c r="K705" t="inlineStr"/>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr"/>
-      <c r="B706" t="inlineStr"/>
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B706" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
@@ -16193,8 +16700,7 @@
       </c>
       <c r="B707" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 1725.00
 Borrower Amount: 1725.00</t>
         </is>
@@ -16232,8 +16738,18 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr"/>
-      <c r="B708" t="inlineStr"/>
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B708" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr"/>
       <c r="E708" s="4" t="inlineStr">
@@ -16249,8 +16765,18 @@
       <c r="K708" t="inlineStr"/>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr"/>
-      <c r="B709" t="inlineStr"/>
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B709" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr">
         <is>
@@ -16277,8 +16803,7 @@
       </c>
       <c r="B710" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
+          <t>LC Match: L/C-187724010122/24
 Lender Amount: 276518.90
 Borrower Amount: 276518.90</t>
         </is>
@@ -16316,8 +16841,18 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr"/>
-      <c r="B711" t="inlineStr"/>
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B711" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -16335,8 +16870,18 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr"/>
-      <c r="B712" t="inlineStr"/>
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B712" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr"/>
       <c r="E712" s="4" t="inlineStr">
@@ -16354,8 +16899,18 @@
       <c r="K712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr"/>
-      <c r="B713" t="inlineStr"/>
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B713" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr"/>
       <c r="E713" s="4" t="inlineStr">
@@ -16371,8 +16926,18 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr"/>
-      <c r="B714" t="inlineStr"/>
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B714" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
@@ -17414,8 +17979,7 @@
       </c>
       <c r="B760" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
+          <t>LC Match: L/C-147125020027/25
 Lender Amount: 54431.58
 Borrower Amount: 54431.58</t>
         </is>
@@ -17453,8 +18017,18 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" t="inlineStr"/>
-      <c r="B761" t="inlineStr"/>
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B761" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C761" t="inlineStr"/>
       <c r="D761" t="inlineStr"/>
       <c r="E761" s="4" t="inlineStr">
@@ -17470,8 +18044,18 @@
       <c r="K761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr"/>
-      <c r="B762" t="inlineStr"/>
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B762" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
         <is>
@@ -17831,8 +18415,7 @@
       </c>
       <c r="B778" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 8231.99
 Borrower Amount: 8231.99</t>
         </is>
@@ -17870,8 +18453,18 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr"/>
-      <c r="B779" t="inlineStr"/>
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B779" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr"/>
       <c r="E779" s="4" t="inlineStr">
@@ -17887,8 +18480,18 @@
       <c r="K779" t="inlineStr"/>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr"/>
-      <c r="B780" t="inlineStr"/>
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B780" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
@@ -19123,8 +19726,7 @@
       </c>
       <c r="B837" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
+          <t>LC Match: L/C-147124020708/24
 Lender Amount: 19399.10
 Borrower Amount: 19399.10</t>
         </is>
@@ -19162,8 +19764,18 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="inlineStr"/>
-      <c r="B838" t="inlineStr"/>
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B838" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C838" t="inlineStr"/>
       <c r="D838" t="inlineStr"/>
       <c r="E838" s="4" t="inlineStr">
@@ -19179,8 +19791,18 @@
       <c r="K838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" t="inlineStr"/>
-      <c r="B839" t="inlineStr"/>
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B839" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
         <is>
@@ -19207,8 +19829,7 @@
       </c>
       <c r="B840" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
+          <t>LC Match: L/C-308524990243/24
 Lender Amount: 15160.97
 Borrower Amount: 15160.97</t>
         </is>
@@ -19246,8 +19867,18 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" t="inlineStr"/>
-      <c r="B841" t="inlineStr"/>
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B841" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C841" t="inlineStr"/>
       <c r="D841" t="inlineStr"/>
       <c r="E841" s="4" t="inlineStr">
@@ -19263,8 +19894,18 @@
       <c r="K841" t="inlineStr"/>
     </row>
     <row r="842">
-      <c r="A842" t="inlineStr"/>
-      <c r="B842" t="inlineStr"/>
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B842" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
@@ -19440,8 +20081,7 @@
       </c>
       <c r="B850" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
+          <t>LC Match: L/C-141325020104/25
 Lender Amount: 6125933.94
 Borrower Amount: 6125933.94</t>
         </is>
@@ -19479,8 +20119,18 @@
       <c r="K850" t="inlineStr"/>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr"/>
-      <c r="B851" t="inlineStr"/>
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B851" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr"/>
       <c r="E851" s="4" t="inlineStr">
@@ -19498,8 +20148,18 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr"/>
-      <c r="B852" t="inlineStr"/>
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B852" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr"/>
       <c r="E852" s="4" t="inlineStr">
@@ -19517,8 +20177,18 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr"/>
-      <c r="B853" t="inlineStr"/>
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B853" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr"/>
       <c r="E853" s="4" t="inlineStr">
@@ -19534,8 +20204,18 @@
       <c r="K853" t="inlineStr"/>
     </row>
     <row r="854">
-      <c r="A854" t="inlineStr"/>
-      <c r="B854" t="inlineStr"/>
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B854" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C854" t="inlineStr"/>
       <c r="D854" t="inlineStr">
         <is>
@@ -19562,8 +20242,7 @@
       </c>
       <c r="B855" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
+          <t>LC Match: L/C-308524022495/24
 Lender Amount: 12425.77
 Borrower Amount: 12425.77</t>
         </is>
@@ -19601,8 +20280,18 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr"/>
-      <c r="B856" t="inlineStr"/>
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B856" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr"/>
       <c r="E856" s="4" t="inlineStr">
@@ -19618,8 +20307,18 @@
       <c r="K856" t="inlineStr"/>
     </row>
     <row r="857">
-      <c r="A857" t="inlineStr"/>
-      <c r="B857" t="inlineStr"/>
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B857" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
         <is>
@@ -19646,8 +20345,7 @@
       </c>
       <c r="B858" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
+          <t>LC Match: L/C-308524022495/24
 Lender Amount: 23580.68
 Borrower Amount: 23580.68</t>
         </is>
@@ -19685,8 +20383,18 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" t="inlineStr"/>
-      <c r="B859" t="inlineStr"/>
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B859" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr"/>
       <c r="E859" s="4" t="inlineStr">
@@ -19702,8 +20410,18 @@
       <c r="K859" t="inlineStr"/>
     </row>
     <row r="860">
-      <c r="A860" t="inlineStr"/>
-      <c r="B860" t="inlineStr"/>
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B860" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
         <is>
@@ -22378,8 +23096,7 @@
       </c>
       <c r="B997" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308525021741/25
+          <t>LC Match: L/C-308525021741/25
 Lender Amount: 22671.95
 Borrower Amount: 22671.95</t>
         </is>
@@ -22417,8 +23134,18 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr"/>
-      <c r="B998" t="inlineStr"/>
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B998" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C998" t="inlineStr"/>
       <c r="D998" t="inlineStr"/>
       <c r="E998" s="4" t="inlineStr">
@@ -22434,8 +23161,18 @@
       <c r="K998" t="inlineStr"/>
     </row>
     <row r="999">
-      <c r="A999" t="inlineStr"/>
-      <c r="B999" t="inlineStr"/>
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B999" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr">
         <is>
@@ -22462,8 +23199,7 @@
       </c>
       <c r="B1000" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308525021745/25
+          <t>LC Match: L/C-308525021745/25
 Lender Amount: 28854.86
 Borrower Amount: 28854.86</t>
         </is>
@@ -22501,8 +23237,18 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" t="inlineStr"/>
-      <c r="B1001" t="inlineStr"/>
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B1001" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C1001" t="inlineStr"/>
       <c r="D1001" t="inlineStr"/>
       <c r="E1001" s="4" t="inlineStr">
@@ -22518,8 +23264,18 @@
       <c r="K1001" t="inlineStr"/>
     </row>
     <row r="1002">
-      <c r="A1002" t="inlineStr"/>
-      <c r="B1002" t="inlineStr"/>
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B1002" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C1002" t="inlineStr"/>
       <c r="D1002" t="inlineStr">
         <is>
@@ -22546,8 +23302,7 @@
       </c>
       <c r="B1003" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
+          <t>LC Match: L/C-308524026037/24
 Lender Amount: 1725.00
 Borrower Amount: 1725.00</t>
         </is>
@@ -22585,8 +23340,18 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" t="inlineStr"/>
-      <c r="B1004" t="inlineStr"/>
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B1004" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1004" t="inlineStr"/>
       <c r="D1004" t="inlineStr"/>
       <c r="E1004" s="4" t="inlineStr">
@@ -22602,8 +23367,18 @@
       <c r="K1004" t="inlineStr"/>
     </row>
     <row r="1005">
-      <c r="A1005" t="inlineStr"/>
-      <c r="B1005" t="inlineStr"/>
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B1005" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr">
         <is>
@@ -23144,8 +23919,7 @@
       </c>
       <c r="B1028" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
+          <t>LC Match: LC-141325020063/25
 Lender Amount: 80051.03
 Borrower Amount: 80051.03</t>
         </is>
@@ -23183,8 +23957,18 @@
       <c r="K1028" t="inlineStr"/>
     </row>
     <row r="1029">
-      <c r="A1029" t="inlineStr"/>
-      <c r="B1029" t="inlineStr"/>
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B1029" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
+        </is>
+      </c>
       <c r="C1029" t="inlineStr"/>
       <c r="D1029" t="inlineStr"/>
       <c r="E1029" s="4" t="inlineStr">
@@ -23200,8 +23984,18 @@
       <c r="K1029" t="inlineStr"/>
     </row>
     <row r="1030">
-      <c r="A1030" t="inlineStr"/>
-      <c r="B1030" t="inlineStr"/>
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B1030" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
+        </is>
+      </c>
       <c r="C1030" t="inlineStr"/>
       <c r="D1030" t="inlineStr">
         <is>
@@ -23228,8 +24022,7 @@
       </c>
       <c r="B1031" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
+          <t>LC Match: L/C-141325020063/25
 Lender Amount: 6777058.20
 Borrower Amount: 6777058.20</t>
         </is>
@@ -23267,8 +24060,18 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr"/>
-      <c r="B1032" t="inlineStr"/>
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1032" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -23286,8 +24089,18 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr"/>
-      <c r="B1033" t="inlineStr"/>
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1033" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr"/>
       <c r="E1033" s="4" t="inlineStr">
@@ -23305,8 +24118,18 @@
       </c>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr"/>
-      <c r="B1034" t="inlineStr"/>
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1034" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1034" t="inlineStr"/>
       <c r="D1034" t="inlineStr"/>
       <c r="E1034" s="4" t="inlineStr">
@@ -23322,8 +24145,18 @@
       <c r="K1034" t="inlineStr"/>
     </row>
     <row r="1035">
-      <c r="A1035" t="inlineStr"/>
-      <c r="B1035" t="inlineStr"/>
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1035" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1035" t="inlineStr"/>
       <c r="D1035" t="inlineStr">
         <is>
@@ -23423,8 +24256,7 @@
       </c>
       <c r="B1039" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
+          <t>LC Match: L/C-155823010186/23
 Lender Amount: 76000.00
 Borrower Amount: 76000.00</t>
         </is>
@@ -23462,8 +24294,18 @@
       <c r="K1039" t="inlineStr"/>
     </row>
     <row r="1040">
-      <c r="A1040" t="inlineStr"/>
-      <c r="B1040" t="inlineStr"/>
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B1040" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C1040" t="inlineStr"/>
       <c r="D1040" t="inlineStr"/>
       <c r="E1040" s="4" t="inlineStr">
@@ -23479,8 +24321,18 @@
       <c r="K1040" t="inlineStr"/>
     </row>
     <row r="1041">
-      <c r="A1041" t="inlineStr"/>
-      <c r="B1041" t="inlineStr"/>
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B1041" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C1041" t="inlineStr"/>
       <c r="D1041" t="inlineStr">
         <is>
@@ -23726,8 +24578,7 @@
       </c>
       <c r="B1051" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
+          <t>LC Match: LC-308524026037/222824023549
 Lender Amount: 1226351.09
 Borrower Amount: 1226351.09</t>
         </is>
@@ -23765,8 +24616,18 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" t="inlineStr"/>
-      <c r="B1052" t="inlineStr"/>
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1052" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1052" t="inlineStr"/>
       <c r="D1052" t="inlineStr"/>
       <c r="E1052" s="4" t="inlineStr">
@@ -23784,8 +24645,18 @@
       <c r="K1052" t="inlineStr"/>
     </row>
     <row r="1053">
-      <c r="A1053" t="inlineStr"/>
-      <c r="B1053" t="inlineStr"/>
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1053" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1053" t="inlineStr"/>
       <c r="D1053" t="inlineStr"/>
       <c r="E1053" s="4" t="inlineStr">
@@ -23803,8 +24674,18 @@
       <c r="K1053" t="inlineStr"/>
     </row>
     <row r="1054">
-      <c r="A1054" t="inlineStr"/>
-      <c r="B1054" t="inlineStr"/>
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1054" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1054" t="inlineStr"/>
       <c r="D1054" t="inlineStr"/>
       <c r="E1054" s="4" t="inlineStr">
@@ -23822,8 +24703,18 @@
       <c r="K1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" t="inlineStr"/>
-      <c r="B1055" t="inlineStr"/>
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1055" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1055" t="inlineStr"/>
       <c r="D1055" t="inlineStr"/>
       <c r="E1055" s="4" t="inlineStr">
@@ -23841,8 +24732,18 @@
       <c r="K1055" t="inlineStr"/>
     </row>
     <row r="1056">
-      <c r="A1056" t="inlineStr"/>
-      <c r="B1056" t="inlineStr"/>
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1056" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1056" t="inlineStr"/>
       <c r="D1056" t="inlineStr"/>
       <c r="E1056" s="4" t="inlineStr">
@@ -23860,8 +24761,18 @@
       <c r="K1056" t="inlineStr"/>
     </row>
     <row r="1057">
-      <c r="A1057" t="inlineStr"/>
-      <c r="B1057" t="inlineStr"/>
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1057" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1057" t="inlineStr"/>
       <c r="D1057" t="inlineStr"/>
       <c r="E1057" s="4" t="inlineStr">
@@ -23879,8 +24790,18 @@
       <c r="K1057" t="inlineStr"/>
     </row>
     <row r="1058">
-      <c r="A1058" t="inlineStr"/>
-      <c r="B1058" t="inlineStr"/>
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1058" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1058" t="inlineStr"/>
       <c r="D1058" t="inlineStr"/>
       <c r="E1058" s="4" t="inlineStr">
@@ -23896,8 +24817,18 @@
       <c r="K1058" t="inlineStr"/>
     </row>
     <row r="1059">
-      <c r="A1059" t="inlineStr"/>
-      <c r="B1059" t="inlineStr"/>
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1059" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1059" t="inlineStr"/>
       <c r="D1059" t="inlineStr">
         <is>
@@ -24054,8 +24985,7 @@
       </c>
       <c r="B1066" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524022495/24
+          <t>LC Match: LC-308524022495/24
 Lender Amount: 1675000.00
 Borrower Amount: 1675000.00</t>
         </is>
@@ -24093,8 +25023,18 @@
       <c r="K1066" t="inlineStr"/>
     </row>
     <row r="1067">
-      <c r="A1067" t="inlineStr"/>
-      <c r="B1067" t="inlineStr"/>
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B1067" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C1067" t="inlineStr"/>
       <c r="D1067" t="inlineStr"/>
       <c r="E1067" s="4" t="inlineStr">
@@ -24110,8 +25050,18 @@
       <c r="K1067" t="inlineStr"/>
     </row>
     <row r="1068">
-      <c r="A1068" t="inlineStr"/>
-      <c r="B1068" t="inlineStr"/>
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B1068" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C1068" t="inlineStr"/>
       <c r="D1068" t="inlineStr">
         <is>
@@ -24380,8 +25330,7 @@
       </c>
       <c r="B1080" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
+          <t>LC Match: L/C-147125020027/25
 Lender Amount: 10691988.92
 Borrower Amount: 10691988.92</t>
         </is>
@@ -24419,8 +25368,18 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" t="inlineStr"/>
-      <c r="B1081" t="inlineStr"/>
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B1081" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C1081" t="inlineStr"/>
       <c r="D1081" t="inlineStr"/>
       <c r="E1081" s="4" t="inlineStr">
@@ -24436,8 +25395,18 @@
       <c r="K1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr"/>
-      <c r="B1082" t="inlineStr"/>
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B1082" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C1082" t="inlineStr"/>
       <c r="D1082" t="inlineStr">
         <is>
@@ -24464,8 +25433,7 @@
       </c>
       <c r="B1083" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-222825150151/25
+          <t>LC Match: L/C-222825150151/25
 Lender Amount: 333706.76
 Borrower Amount: 333706.76</t>
         </is>
@@ -24503,8 +25471,18 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" t="inlineStr"/>
-      <c r="B1084" t="inlineStr"/>
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B1084" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C1084" t="inlineStr"/>
       <c r="D1084" t="inlineStr"/>
       <c r="E1084" s="4" t="inlineStr">
@@ -24520,8 +25498,18 @@
       <c r="K1084" t="inlineStr"/>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr"/>
-      <c r="B1085" t="inlineStr"/>
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B1085" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C1085" t="inlineStr"/>
       <c r="D1085" t="inlineStr">
         <is>
@@ -24548,8 +25536,7 @@
       </c>
       <c r="B1086" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
+          <t>LC Match: L/C-141325020063/25
 Lender Amount: 299000.00
 Borrower Amount: 299000.00</t>
         </is>
@@ -24587,8 +25574,18 @@
       <c r="K1086" t="inlineStr"/>
     </row>
     <row r="1087">
-      <c r="A1087" t="inlineStr"/>
-      <c r="B1087" t="inlineStr"/>
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B1087" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C1087" t="inlineStr"/>
       <c r="D1087" t="inlineStr"/>
       <c r="E1087" s="4" t="inlineStr">
@@ -24604,8 +25601,18 @@
       <c r="K1087" t="inlineStr"/>
     </row>
     <row r="1088">
-      <c r="A1088" t="inlineStr"/>
-      <c r="B1088" t="inlineStr"/>
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B1088" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C1088" t="inlineStr"/>
       <c r="D1088" t="inlineStr">
         <is>
@@ -24851,8 +25858,7 @@
       </c>
       <c r="B1098" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
+          <t>LC Match: L/C-308524026037/24
 Lender Amount: 13743.52
 Borrower Amount: 13743.52</t>
         </is>
@@ -24890,8 +25896,18 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" t="inlineStr"/>
-      <c r="B1099" t="inlineStr"/>
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B1099" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr"/>
       <c r="E1099" s="4" t="inlineStr">
@@ -24907,8 +25923,18 @@
       <c r="K1099" t="inlineStr"/>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr"/>
-      <c r="B1100" t="inlineStr"/>
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B1100" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
@@ -25446,8 +26472,7 @@
       </c>
       <c r="B1122" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-155825020020/25
+          <t>LC Match: LC-155825020020/25
 Lender Amount: 60302.55
 Borrower Amount: 60302.55</t>
         </is>
@@ -25485,8 +26510,18 @@
       <c r="K1122" t="inlineStr"/>
     </row>
     <row r="1123">
-      <c r="A1123" t="inlineStr"/>
-      <c r="B1123" t="inlineStr"/>
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B1123" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" s="4" t="inlineStr">
@@ -25502,8 +26537,18 @@
       <c r="K1123" t="inlineStr"/>
     </row>
     <row r="1124">
-      <c r="A1124" t="inlineStr"/>
-      <c r="B1124" t="inlineStr"/>
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B1124" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
@@ -25530,8 +26575,7 @@
       </c>
       <c r="B1125" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
+          <t>LC Match: L/C-141325020104/25
 Lender Amount: 124008.78
 Borrower Amount: 124008.78</t>
         </is>
@@ -25569,8 +26613,18 @@
       <c r="K1125" t="inlineStr"/>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr"/>
-      <c r="B1126" t="inlineStr"/>
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B1126" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" s="4" t="inlineStr">
@@ -25586,8 +26640,18 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr"/>
-      <c r="B1127" t="inlineStr"/>
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B1127" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
@@ -25614,8 +26678,7 @@
       </c>
       <c r="B1128" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
+          <t>LC Match: LC-141325020063/25
 Lender Amount: 31609.80
 Borrower Amount: 31609.80</t>
         </is>
@@ -25653,8 +26716,18 @@
       <c r="K1128" t="inlineStr"/>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr"/>
-      <c r="B1129" t="inlineStr"/>
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B1129" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -25670,8 +26743,18 @@
       <c r="K1129" t="inlineStr"/>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr"/>
-      <c r="B1130" t="inlineStr"/>
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B1130" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
@@ -26177,8 +27260,7 @@
       </c>
       <c r="B1152" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
+          <t>LC Match: L/C-141325020104/25
 Lender Amount: 10424886.36
 Borrower Amount: 10424886.36</t>
         </is>
@@ -26216,8 +27298,18 @@
       <c r="K1152" t="inlineStr"/>
     </row>
     <row r="1153">
-      <c r="A1153" t="inlineStr"/>
-      <c r="B1153" t="inlineStr"/>
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B1153" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" s="4" t="inlineStr">
@@ -26233,8 +27325,18 @@
       <c r="K1153" t="inlineStr"/>
     </row>
     <row r="1154">
-      <c r="A1154" t="inlineStr"/>
-      <c r="B1154" t="inlineStr"/>
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B1154" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C1154" t="inlineStr"/>
       <c r="D1154" t="inlineStr">
         <is>
@@ -26261,8 +27363,7 @@
       </c>
       <c r="B1155" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020063/25
+          <t>LC Match: L/C-147125020063/25
 Lender Amount: 2168751.40
 Borrower Amount: 2168751.40</t>
         </is>
@@ -26300,8 +27401,18 @@
       <c r="K1155" t="inlineStr"/>
     </row>
     <row r="1156">
-      <c r="A1156" t="inlineStr"/>
-      <c r="B1156" t="inlineStr"/>
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B1156" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" s="4" t="inlineStr">
@@ -26317,8 +27428,18 @@
       <c r="K1156" t="inlineStr"/>
     </row>
     <row r="1157">
-      <c r="A1157" t="inlineStr"/>
-      <c r="B1157" t="inlineStr"/>
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B1157" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C1157" t="inlineStr"/>
       <c r="D1157" t="inlineStr">
         <is>
@@ -26345,8 +27466,7 @@
       </c>
       <c r="B1158" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
+          <t>LC Match: L/C-141325020068/25
 Lender Amount: 63787.54
 Borrower Amount: 63787.54</t>
         </is>
@@ -26384,8 +27504,18 @@
       <c r="K1158" t="inlineStr"/>
     </row>
     <row r="1159">
-      <c r="A1159" t="inlineStr"/>
-      <c r="B1159" t="inlineStr"/>
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B1159" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C1159" t="inlineStr"/>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" s="4" t="inlineStr">
@@ -26401,8 +27531,18 @@
       <c r="K1159" t="inlineStr"/>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B1160" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
         <is>
@@ -31286,8 +32426,7 @@
       </c>
       <c r="B1388" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020104/25
+          <t>LC Match: LC-141325020104/25
 Lender Amount: 111771.42
 Borrower Amount: 111771.42</t>
         </is>
@@ -31325,8 +32464,18 @@
       <c r="K1388" t="inlineStr"/>
     </row>
     <row r="1389">
-      <c r="A1389" t="inlineStr"/>
-      <c r="B1389" t="inlineStr"/>
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B1389" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" s="4" t="inlineStr">
@@ -31342,8 +32491,18 @@
       <c r="K1389" t="inlineStr"/>
     </row>
     <row r="1390">
-      <c r="A1390" t="inlineStr"/>
-      <c r="B1390" t="inlineStr"/>
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B1390" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
@@ -31370,8 +32529,7 @@
       </c>
       <c r="B1391" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
+          <t>LC Match: LC-141325020112/25
 Lender Amount: 80701.76
 Borrower Amount: 80701.76</t>
         </is>
@@ -31409,8 +32567,18 @@
       <c r="K1391" t="inlineStr"/>
     </row>
     <row r="1392">
-      <c r="A1392" t="inlineStr"/>
-      <c r="B1392" t="inlineStr"/>
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B1392" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" s="4" t="inlineStr">
@@ -31426,8 +32594,18 @@
       <c r="K1392" t="inlineStr"/>
     </row>
     <row r="1393">
-      <c r="A1393" t="inlineStr"/>
-      <c r="B1393" t="inlineStr"/>
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B1393" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
@@ -31454,8 +32632,7 @@
       </c>
       <c r="B1394" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
+          <t>LC Match: LC-141325020112/25
 Lender Amount: 657.81
 Borrower Amount: 657.81</t>
         </is>
@@ -31493,8 +32670,18 @@
       <c r="K1394" t="inlineStr"/>
     </row>
     <row r="1395">
-      <c r="A1395" t="inlineStr"/>
-      <c r="B1395" t="inlineStr"/>
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B1395" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" s="4" t="inlineStr">
@@ -31510,8 +32697,18 @@
       <c r="K1395" t="inlineStr"/>
     </row>
     <row r="1396">
-      <c r="A1396" t="inlineStr"/>
-      <c r="B1396" t="inlineStr"/>
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B1396" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
@@ -31830,8 +33027,7 @@
       </c>
       <c r="B1409" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
+          <t>LC Match: LC-141325020063/25
 Lender Amount: 81730.06
 Borrower Amount: 81730.06</t>
         </is>
@@ -31869,8 +33065,18 @@
       <c r="K1409" t="inlineStr"/>
     </row>
     <row r="1410">
-      <c r="A1410" t="inlineStr"/>
-      <c r="B1410" t="inlineStr"/>
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B1410" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" s="4" t="inlineStr">
@@ -31886,8 +33092,18 @@
       <c r="K1410" t="inlineStr"/>
     </row>
     <row r="1411">
-      <c r="A1411" t="inlineStr"/>
-      <c r="B1411" t="inlineStr"/>
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B1411" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
@@ -32279,8 +33495,7 @@
       </c>
       <c r="B1427" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
+          <t>LC Match: LC-141325020163/25
 Lender Amount: 341847.68
 Borrower Amount: 341847.68</t>
         </is>
@@ -32318,8 +33533,18 @@
       <c r="K1427" t="inlineStr"/>
     </row>
     <row r="1428">
-      <c r="A1428" t="inlineStr"/>
-      <c r="B1428" t="inlineStr"/>
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1428" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr"/>
       <c r="E1428" s="4" t="inlineStr">
@@ -32337,8 +33562,18 @@
       </c>
     </row>
     <row r="1429">
-      <c r="A1429" t="inlineStr"/>
-      <c r="B1429" t="inlineStr"/>
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1429" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr"/>
       <c r="E1429" s="4" t="inlineStr">
@@ -32356,8 +33591,18 @@
       </c>
     </row>
     <row r="1430">
-      <c r="A1430" t="inlineStr"/>
-      <c r="B1430" t="inlineStr"/>
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1430" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1430" t="inlineStr"/>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" s="4" t="inlineStr">
@@ -32373,8 +33618,18 @@
       <c r="K1430" t="inlineStr"/>
     </row>
     <row r="1431">
-      <c r="A1431" t="inlineStr"/>
-      <c r="B1431" t="inlineStr"/>
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1431" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C1431" t="inlineStr"/>
       <c r="D1431" t="inlineStr">
         <is>
@@ -32718,8 +33973,7 @@
       </c>
       <c r="B1447" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-222825150235/25
+          <t>LC Match: LC-222825150235/25
 Lender Amount: 36757.00
 Borrower Amount: 36757.00</t>
         </is>
@@ -32757,8 +34011,18 @@
       <c r="K1447" t="inlineStr"/>
     </row>
     <row r="1448">
-      <c r="A1448" t="inlineStr"/>
-      <c r="B1448" t="inlineStr"/>
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B1448" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C1448" t="inlineStr"/>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" s="4" t="inlineStr">
@@ -32774,8 +34038,18 @@
       <c r="K1448" t="inlineStr"/>
     </row>
     <row r="1449">
-      <c r="A1449" t="inlineStr"/>
-      <c r="B1449" t="inlineStr"/>
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B1449" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
         <is>
@@ -32875,8 +34149,7 @@
       </c>
       <c r="B1453" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
+          <t>LC Match: LC-141325020068/25
 Lender Amount: 3587219.00
 Borrower Amount: 3587219.00</t>
         </is>
@@ -32914,8 +34187,18 @@
       <c r="K1453" t="inlineStr"/>
     </row>
     <row r="1454">
-      <c r="A1454" t="inlineStr"/>
-      <c r="B1454" t="inlineStr"/>
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1454" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" s="4" t="inlineStr">
@@ -32933,8 +34216,18 @@
       </c>
     </row>
     <row r="1455">
-      <c r="A1455" t="inlineStr"/>
-      <c r="B1455" t="inlineStr"/>
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1455" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1455" t="inlineStr"/>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" s="4" t="inlineStr">
@@ -32952,8 +34245,18 @@
       </c>
     </row>
     <row r="1456">
-      <c r="A1456" t="inlineStr"/>
-      <c r="B1456" t="inlineStr"/>
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1456" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" s="4" t="inlineStr">
@@ -32971,8 +34274,18 @@
       </c>
     </row>
     <row r="1457">
-      <c r="A1457" t="inlineStr"/>
-      <c r="B1457" t="inlineStr"/>
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1457" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1457" t="inlineStr"/>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" s="4" t="inlineStr">
@@ -32988,8 +34301,18 @@
       <c r="K1457" t="inlineStr"/>
     </row>
     <row r="1458">
-      <c r="A1458" t="inlineStr"/>
-      <c r="B1458" t="inlineStr"/>
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1458" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1458" t="inlineStr"/>
       <c r="D1458" t="inlineStr">
         <is>
@@ -33016,8 +34339,7 @@
       </c>
       <c r="B1459" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524990243/24
+          <t>LC Match: LC-308524990243/24
 Lender Amount: 68747.06
 Borrower Amount: 68747.06</t>
         </is>
@@ -33055,8 +34377,18 @@
       </c>
     </row>
     <row r="1460">
-      <c r="A1460" t="inlineStr"/>
-      <c r="B1460" t="inlineStr"/>
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B1460" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C1460" t="inlineStr"/>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" s="4" t="inlineStr">
@@ -33072,8 +34404,18 @@
       <c r="K1460" t="inlineStr"/>
     </row>
     <row r="1461">
-      <c r="A1461" t="inlineStr"/>
-      <c r="B1461" t="inlineStr"/>
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B1461" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C1461" t="inlineStr"/>
       <c r="D1461" t="inlineStr">
         <is>
@@ -35926,8 +37268,7 @@
       </c>
       <c r="B1604" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308525021741/25
+          <t>LC Match: LC-308525021741/25
 Lender Amount: 31411.11
 Borrower Amount: 31411.11</t>
         </is>
@@ -35965,8 +37306,18 @@
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="inlineStr"/>
-      <c r="B1605" t="inlineStr"/>
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1605" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" s="4" t="inlineStr">
@@ -35982,8 +37333,18 @@
       <c r="K1605" t="inlineStr"/>
     </row>
     <row r="1606">
-      <c r="A1606" t="inlineStr"/>
-      <c r="B1606" t="inlineStr"/>
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1606" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
         <is>
@@ -36230,8 +37591,7 @@
       </c>
       <c r="B1616" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-155825010037/25
+          <t>LC Match: LC-155825010037/25
 Lender Amount: 853297.01
 Borrower Amount: 853297.01</t>
         </is>
@@ -36269,8 +37629,18 @@
       </c>
     </row>
     <row r="1617">
-      <c r="A1617" t="inlineStr"/>
-      <c r="B1617" t="inlineStr"/>
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1617" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" s="4" t="inlineStr">
@@ -36286,8 +37656,18 @@
       <c r="K1617" t="inlineStr"/>
     </row>
     <row r="1618">
-      <c r="A1618" t="inlineStr"/>
-      <c r="B1618" t="inlineStr"/>
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1618" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1618" t="inlineStr"/>
       <c r="D1618" t="inlineStr">
         <is>
@@ -38764,8 +40144,7 @@
       </c>
       <c r="B1721" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
+          <t>LC Match: LC-141325020163/25
 Lender Amount: 1725.00
 Borrower Amount: 1725.00</t>
         </is>
@@ -38803,8 +40182,18 @@
       <c r="K1721" t="inlineStr"/>
     </row>
     <row r="1722">
-      <c r="A1722" t="inlineStr"/>
-      <c r="B1722" t="inlineStr"/>
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1722" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1722" t="inlineStr"/>
       <c r="D1722" t="inlineStr"/>
       <c r="E1722" s="4" t="inlineStr">
@@ -38820,8 +40209,18 @@
       <c r="K1722" t="inlineStr"/>
     </row>
     <row r="1723">
-      <c r="A1723" t="inlineStr"/>
-      <c r="B1723" t="inlineStr"/>
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1723" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1723" t="inlineStr"/>
       <c r="D1723" t="inlineStr">
         <is>
@@ -38921,8 +40320,7 @@
       </c>
       <c r="B1727" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308525021746/25
+          <t>LC Match: LC-308525021746/25
 Lender Amount: 35373.50
 Borrower Amount: 35373.50</t>
         </is>
@@ -38960,8 +40358,18 @@
       </c>
     </row>
     <row r="1728">
-      <c r="A1728" t="inlineStr"/>
-      <c r="B1728" t="inlineStr"/>
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1728" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1728" t="inlineStr"/>
       <c r="D1728" t="inlineStr"/>
       <c r="E1728" s="4" t="inlineStr">
@@ -38977,8 +40385,18 @@
       <c r="K1728" t="inlineStr"/>
     </row>
     <row r="1729">
-      <c r="A1729" t="inlineStr"/>
-      <c r="B1729" t="inlineStr"/>
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1729" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1729" t="inlineStr"/>
       <c r="D1729" t="inlineStr">
         <is>
@@ -39616,8 +41034,7 @@
       </c>
       <c r="B1757" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
+          <t>LC Match: LC-141325020063/141325020112
 Lender Amount: 576120.39
 Borrower Amount: 576120.39</t>
         </is>
@@ -39655,8 +41072,18 @@
       </c>
     </row>
     <row r="1758">
-      <c r="A1758" t="inlineStr"/>
-      <c r="B1758" t="inlineStr"/>
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1758" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1758" t="inlineStr"/>
       <c r="D1758" t="inlineStr"/>
       <c r="E1758" s="4" t="inlineStr">
@@ -39674,8 +41101,18 @@
       </c>
     </row>
     <row r="1759">
-      <c r="A1759" t="inlineStr"/>
-      <c r="B1759" t="inlineStr"/>
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1759" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1759" t="inlineStr"/>
       <c r="D1759" t="inlineStr"/>
       <c r="E1759" s="4" t="inlineStr">
@@ -39693,8 +41130,18 @@
       <c r="K1759" t="inlineStr"/>
     </row>
     <row r="1760">
-      <c r="A1760" t="inlineStr"/>
-      <c r="B1760" t="inlineStr"/>
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1760" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1760" t="inlineStr"/>
       <c r="D1760" t="inlineStr"/>
       <c r="E1760" s="4" t="inlineStr">
@@ -39710,8 +41157,18 @@
       <c r="K1760" t="inlineStr"/>
     </row>
     <row r="1761">
-      <c r="A1761" t="inlineStr"/>
-      <c r="B1761" t="inlineStr"/>
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1761" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1761" t="inlineStr"/>
       <c r="D1761" t="inlineStr">
         <is>
@@ -40103,8 +41560,7 @@
       </c>
       <c r="B1777" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524022166 
+          <t>LC Match: LC-308524022166 
 Lender Amount: 758000.00
 Borrower Amount: 758000.00</t>
         </is>
@@ -40142,8 +41598,18 @@
       <c r="K1777" t="inlineStr"/>
     </row>
     <row r="1778">
-      <c r="A1778" t="inlineStr"/>
-      <c r="B1778" t="inlineStr"/>
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1778" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1778" t="inlineStr"/>
       <c r="D1778" t="inlineStr"/>
       <c r="E1778" s="4" t="inlineStr">
@@ -40159,8 +41625,18 @@
       <c r="K1778" t="inlineStr"/>
     </row>
     <row r="1779">
-      <c r="A1779" t="inlineStr"/>
-      <c r="B1779" t="inlineStr"/>
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1779" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr">
         <is>
@@ -40444,8 +41920,7 @@
       </c>
       <c r="B1791" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524022166 
+          <t>LC Match: LC-308524022166 
 Lender Amount: 4009000.00
 Borrower Amount: 4009000.00</t>
         </is>
@@ -40483,8 +41958,18 @@
       <c r="K1791" t="inlineStr"/>
     </row>
     <row r="1792">
-      <c r="A1792" t="inlineStr"/>
-      <c r="B1792" t="inlineStr"/>
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1792" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr"/>
       <c r="E1792" s="4" t="inlineStr">
@@ -40500,8 +41985,18 @@
       <c r="K1792" t="inlineStr"/>
     </row>
     <row r="1793">
-      <c r="A1793" t="inlineStr"/>
-      <c r="B1793" t="inlineStr"/>
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1793" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1793" t="inlineStr"/>
       <c r="D1793" t="inlineStr">
         <is>
@@ -40674,8 +42169,7 @@
       </c>
       <c r="B1800" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
+          <t>LC Match: L/C-308524026037/24
 Lender Amount: 14417.98
 Borrower Amount: 14417.98</t>
         </is>
@@ -40713,8 +42207,18 @@
       </c>
     </row>
     <row r="1801">
-      <c r="A1801" t="inlineStr"/>
-      <c r="B1801" t="inlineStr"/>
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1801" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1801" t="inlineStr"/>
       <c r="D1801" t="inlineStr"/>
       <c r="E1801" s="4" t="inlineStr">
@@ -40730,8 +42234,18 @@
       <c r="K1801" t="inlineStr"/>
     </row>
     <row r="1802">
-      <c r="A1802" t="inlineStr"/>
-      <c r="B1802" t="inlineStr"/>
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1802" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1802" t="inlineStr"/>
       <c r="D1802" t="inlineStr">
         <is>
@@ -41516,8 +43030,7 @@
       </c>
       <c r="B1837" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020202/25
+          <t>LC Match: L/C-147125020202/25
 Lender Amount: 3499168.01
 Borrower Amount: 3499168.01</t>
         </is>
@@ -41555,8 +43068,18 @@
       </c>
     </row>
     <row r="1838">
-      <c r="A1838" t="inlineStr"/>
-      <c r="B1838" t="inlineStr"/>
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1838" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1838" t="inlineStr"/>
       <c r="D1838" t="inlineStr"/>
       <c r="E1838" s="4" t="inlineStr">
@@ -41572,8 +43095,18 @@
       <c r="K1838" t="inlineStr"/>
     </row>
     <row r="1839">
-      <c r="A1839" t="inlineStr"/>
-      <c r="B1839" t="inlineStr"/>
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1839" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1839" t="inlineStr"/>
       <c r="D1839" t="inlineStr">
         <is>
@@ -41784,8 +43317,7 @@
       </c>
       <c r="B1848" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147124020074/24
+          <t>LC Match: L/C-147124020074/24
 Lender Amount: 6242871.55
 Borrower Amount: 6242871.55</t>
         </is>
@@ -41823,8 +43355,18 @@
       </c>
     </row>
     <row r="1849">
-      <c r="A1849" t="inlineStr"/>
-      <c r="B1849" t="inlineStr"/>
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1849" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1849" t="inlineStr"/>
       <c r="D1849" t="inlineStr"/>
       <c r="E1849" s="4" t="inlineStr">
@@ -41840,8 +43382,18 @@
       <c r="K1849" t="inlineStr"/>
     </row>
     <row r="1850">
-      <c r="A1850" t="inlineStr"/>
-      <c r="B1850" t="inlineStr"/>
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1850" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1850" t="inlineStr"/>
       <c r="D1850" t="inlineStr">
         <is>

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -1125,13 +1125,7 @@
           <t>M001</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 5040781.68
-Borrower Amount: 5040781.68</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1197,13 +1191,7 @@
           <t>M001</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 5040781.68
-Borrower Amount: 5040781.68</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
@@ -1223,18 +1211,8 @@
       <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1268,18 +1246,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
@@ -1297,18 +1265,8 @@
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
@@ -1326,18 +1284,8 @@
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
@@ -1355,18 +1303,8 @@
       <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
@@ -1382,18 +1320,8 @@
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
@@ -1632,18 +1560,8 @@
       <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>02/Jan/2025</t>
@@ -1677,18 +1595,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
@@ -1704,18 +1612,8 @@
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
@@ -1735,18 +1633,8 @@
       <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>M008</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>05/Jan/2025</t>
@@ -1780,18 +1668,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>M008</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
@@ -1807,18 +1685,8 @@
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>M008</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
@@ -2130,18 +1998,8 @@
       <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>15/Jan/2025</t>
@@ -2175,18 +2033,8 @@
       <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
@@ -2202,18 +2050,8 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
@@ -2233,18 +2071,8 @@
       <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>15/Jan/2025</t>
@@ -2278,18 +2106,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
@@ -2305,18 +2123,8 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
@@ -2701,18 +2509,8 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>28/Jan/2025</t>
@@ -2746,18 +2544,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
@@ -2773,18 +2561,8 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
@@ -2804,18 +2582,8 @@
       <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>28/Jan/2025</t>
@@ -2849,18 +2617,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
@@ -2876,18 +2634,8 @@
       <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
@@ -7141,18 +6889,8 @@
       <c r="K299" t="inlineStr"/>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
-      <c r="B300" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A300" t="inlineStr"/>
+      <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
           <t>04/Feb/2025</t>
@@ -7186,18 +6924,8 @@
       <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
-      <c r="B301" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
       <c r="E301" s="4" t="inlineStr">
@@ -7213,18 +6941,8 @@
       <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
-      <c r="B302" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A302" t="inlineStr"/>
+      <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
@@ -7317,18 +7035,8 @@
       <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B306" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="A306" t="inlineStr"/>
+      <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr">
         <is>
           <t>04/Feb/2025</t>
@@ -7362,18 +7070,8 @@
       <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B307" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="A307" t="inlineStr"/>
+      <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
       <c r="E307" s="4" t="inlineStr">
@@ -7391,18 +7089,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B308" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
       <c r="E308" s="4" t="inlineStr">
@@ -7420,18 +7108,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B309" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="A309" t="inlineStr"/>
+      <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
       <c r="E309" s="4" t="inlineStr">
@@ -7447,18 +7125,8 @@
       <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B310" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="A310" t="inlineStr"/>
+      <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
@@ -7989,18 +7657,8 @@
       <c r="K331" t="inlineStr"/>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
-      <c r="B332" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="A332" t="inlineStr"/>
+      <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr">
         <is>
           <t>09/Feb/2025</t>
@@ -8034,18 +7692,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
-      <c r="B333" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
       <c r="E333" s="4" t="inlineStr">
@@ -8061,18 +7709,8 @@
       <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
-      <c r="B334" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="A334" t="inlineStr"/>
+      <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
@@ -8479,18 +8117,8 @@
       <c r="K351" t="inlineStr"/>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
-      <c r="B352" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="A352" t="inlineStr"/>
+      <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr">
         <is>
           <t>11/Feb/2025</t>
@@ -8524,18 +8152,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
-      <c r="B353" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="A353" t="inlineStr"/>
+      <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
       <c r="E353" s="4" t="inlineStr">
@@ -8551,18 +8169,8 @@
       <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
-      <c r="B354" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="A354" t="inlineStr"/>
+      <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
@@ -9960,18 +9568,8 @@
       <c r="K413" t="inlineStr"/>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B414" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr">
         <is>
           <t>19/Feb/2025</t>
@@ -10005,18 +9603,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B415" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="A415" t="inlineStr"/>
+      <c r="B415" t="inlineStr"/>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr"/>
       <c r="E415" s="4" t="inlineStr">
@@ -10032,18 +9620,8 @@
       <c r="K415" t="inlineStr"/>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B416" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="A416" t="inlineStr"/>
+      <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
@@ -10063,18 +9641,8 @@
       <c r="K416" t="inlineStr"/>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B417" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="A417" t="inlineStr"/>
+      <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr">
         <is>
           <t>23/Feb/2025</t>
@@ -10108,18 +9676,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B418" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr"/>
       <c r="E418" s="4" t="inlineStr">
@@ -10135,18 +9693,8 @@
       <c r="K418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B419" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="A419" t="inlineStr"/>
+      <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
@@ -11337,18 +10885,8 @@
       <c r="K468" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B469" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="A469" t="inlineStr"/>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr">
         <is>
           <t>25/Feb/2025</t>
@@ -11382,18 +10920,8 @@
       <c r="K469" t="inlineStr"/>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B470" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
       <c r="E470" s="4" t="inlineStr">
@@ -11409,18 +10937,8 @@
       <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B471" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="A471" t="inlineStr"/>
+      <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
@@ -11440,18 +10958,8 @@
       <c r="K471" t="inlineStr"/>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B472" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="A472" t="inlineStr"/>
+      <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -11485,18 +10993,8 @@
       <c r="K472" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B473" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" s="4" t="inlineStr">
@@ -11512,18 +11010,8 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B474" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
@@ -11543,18 +11031,8 @@
       <c r="K474" t="inlineStr"/>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B475" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="A475" t="inlineStr"/>
+      <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -11588,18 +11066,8 @@
       <c r="K475" t="inlineStr"/>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B476" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -11615,18 +11083,8 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B477" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
@@ -11646,18 +11104,8 @@
       <c r="K477" t="inlineStr"/>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B478" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr"/>
       <c r="C478" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -11691,18 +11139,8 @@
       <c r="K478" t="inlineStr"/>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B479" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="A479" t="inlineStr"/>
+      <c r="B479" t="inlineStr"/>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr"/>
       <c r="E479" s="4" t="inlineStr">
@@ -11718,18 +11156,8 @@
       <c r="K479" t="inlineStr"/>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B480" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
@@ -11822,18 +11250,8 @@
       <c r="K483" t="inlineStr"/>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B484" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr"/>
       <c r="C484" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -11867,18 +11285,8 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B485" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="A485" t="inlineStr"/>
+      <c r="B485" t="inlineStr"/>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr"/>
       <c r="E485" s="4" t="inlineStr">
@@ -11894,18 +11302,8 @@
       <c r="K485" t="inlineStr"/>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B486" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
@@ -12801,18 +12199,8 @@
       <c r="K522" t="inlineStr"/>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B523" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A523" t="inlineStr"/>
+      <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -12846,18 +12234,8 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B524" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A524" t="inlineStr"/>
+      <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr"/>
       <c r="E524" s="4" t="inlineStr">
@@ -12875,18 +12253,8 @@
       <c r="K524" t="inlineStr"/>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B525" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A525" t="inlineStr"/>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr"/>
       <c r="E525" s="4" t="inlineStr">
@@ -12904,18 +12272,8 @@
       <c r="K525" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B526" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A526" t="inlineStr"/>
+      <c r="B526" t="inlineStr"/>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr"/>
       <c r="E526" s="4" t="inlineStr">
@@ -12931,18 +12289,8 @@
       <c r="K526" t="inlineStr"/>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B527" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A527" t="inlineStr"/>
+      <c r="B527" t="inlineStr"/>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
@@ -15851,18 +15199,8 @@
       <c r="K674" t="inlineStr"/>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B675" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="A675" t="inlineStr"/>
+      <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr">
         <is>
           <t>01/Mar/2025</t>
@@ -15896,18 +15234,8 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B676" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="A676" t="inlineStr"/>
+      <c r="B676" t="inlineStr"/>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -15923,18 +15251,8 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B677" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="A677" t="inlineStr"/>
+      <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
@@ -16414,18 +15732,8 @@
       <c r="K697" t="inlineStr"/>
     </row>
     <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B698" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="A698" t="inlineStr"/>
+      <c r="B698" t="inlineStr"/>
       <c r="C698" t="inlineStr">
         <is>
           <t>06/Mar/2025</t>
@@ -16459,18 +15767,8 @@
       <c r="K698" t="inlineStr"/>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B699" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="A699" t="inlineStr"/>
+      <c r="B699" t="inlineStr"/>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
       <c r="E699" s="4" t="inlineStr">
@@ -16486,18 +15784,8 @@
       <c r="K699" t="inlineStr"/>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B700" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="A700" t="inlineStr"/>
+      <c r="B700" t="inlineStr"/>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
         <is>
@@ -16590,18 +15878,8 @@
       <c r="K703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B704" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="A704" t="inlineStr"/>
+      <c r="B704" t="inlineStr"/>
       <c r="C704" t="inlineStr">
         <is>
           <t>09/Mar/2025</t>
@@ -16635,18 +15913,8 @@
       <c r="K704" t="inlineStr"/>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B705" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="A705" t="inlineStr"/>
+      <c r="B705" t="inlineStr"/>
       <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr"/>
       <c r="E705" s="4" t="inlineStr">
@@ -16662,18 +15930,8 @@
       <c r="K705" t="inlineStr"/>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B706" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="A706" t="inlineStr"/>
+      <c r="B706" t="inlineStr"/>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
@@ -16695,16 +15953,10 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B707" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr"/>
       <c r="C707" t="inlineStr">
         <is>
           <t>09/Mar/2025</t>
@@ -16740,7 +15992,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>M028</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="B708" s="4" t="inlineStr">
@@ -16767,16 +16019,10 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B709" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr"/>
       <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr">
         <is>
@@ -16796,18 +16042,8 @@
       <c r="K709" t="inlineStr"/>
     </row>
     <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B710" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A710" t="inlineStr"/>
+      <c r="B710" t="inlineStr"/>
       <c r="C710" t="inlineStr">
         <is>
           <t>10/Mar/2025</t>
@@ -16841,18 +16077,8 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B711" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A711" t="inlineStr"/>
+      <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -16870,18 +16096,8 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B712" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A712" t="inlineStr"/>
+      <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr"/>
       <c r="E712" s="4" t="inlineStr">
@@ -16899,18 +16115,8 @@
       <c r="K712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B713" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A713" t="inlineStr"/>
+      <c r="B713" t="inlineStr"/>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr"/>
       <c r="E713" s="4" t="inlineStr">
@@ -16926,18 +16132,8 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B714" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
@@ -17972,18 +17168,8 @@
       <c r="K759" t="inlineStr"/>
     </row>
     <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B760" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="A760" t="inlineStr"/>
+      <c r="B760" t="inlineStr"/>
       <c r="C760" t="inlineStr">
         <is>
           <t>18/Mar/2025</t>
@@ -18017,18 +17203,8 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B761" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="A761" t="inlineStr"/>
+      <c r="B761" t="inlineStr"/>
       <c r="C761" t="inlineStr"/>
       <c r="D761" t="inlineStr"/>
       <c r="E761" s="4" t="inlineStr">
@@ -18044,18 +17220,8 @@
       <c r="K761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B762" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="A762" t="inlineStr"/>
+      <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
         <is>
@@ -18408,18 +17574,8 @@
       <c r="K777" t="inlineStr"/>
     </row>
     <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B778" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="A778" t="inlineStr"/>
+      <c r="B778" t="inlineStr"/>
       <c r="C778" t="inlineStr">
         <is>
           <t>19/Mar/2025</t>
@@ -18453,18 +17609,8 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B779" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="A779" t="inlineStr"/>
+      <c r="B779" t="inlineStr"/>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr"/>
       <c r="E779" s="4" t="inlineStr">
@@ -18480,18 +17626,8 @@
       <c r="K779" t="inlineStr"/>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B780" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="A780" t="inlineStr"/>
+      <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
@@ -19719,18 +18855,8 @@
       <c r="K836" t="inlineStr"/>
     </row>
     <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B837" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="A837" t="inlineStr"/>
+      <c r="B837" t="inlineStr"/>
       <c r="C837" t="inlineStr">
         <is>
           <t>25/Mar/2025</t>
@@ -19764,18 +18890,8 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B838" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="A838" t="inlineStr"/>
+      <c r="B838" t="inlineStr"/>
       <c r="C838" t="inlineStr"/>
       <c r="D838" t="inlineStr"/>
       <c r="E838" s="4" t="inlineStr">
@@ -19791,18 +18907,8 @@
       <c r="K838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B839" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="A839" t="inlineStr"/>
+      <c r="B839" t="inlineStr"/>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
         <is>
@@ -19824,16 +18930,10 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B840" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr"/>
       <c r="C840" t="inlineStr">
         <is>
           <t>25/Mar/2025</t>
@@ -19869,7 +18969,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>M033</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="B841" s="4" t="inlineStr">
@@ -19896,16 +18996,10 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B842" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr"/>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
@@ -20074,18 +19168,8 @@
       <c r="K849" t="inlineStr"/>
     </row>
     <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B850" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A850" t="inlineStr"/>
+      <c r="B850" t="inlineStr"/>
       <c r="C850" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -20119,18 +19203,8 @@
       <c r="K850" t="inlineStr"/>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B851" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A851" t="inlineStr"/>
+      <c r="B851" t="inlineStr"/>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr"/>
       <c r="E851" s="4" t="inlineStr">
@@ -20148,18 +19222,8 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B852" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A852" t="inlineStr"/>
+      <c r="B852" t="inlineStr"/>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr"/>
       <c r="E852" s="4" t="inlineStr">
@@ -20177,18 +19241,8 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B853" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A853" t="inlineStr"/>
+      <c r="B853" t="inlineStr"/>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr"/>
       <c r="E853" s="4" t="inlineStr">
@@ -20204,18 +19258,8 @@
       <c r="K853" t="inlineStr"/>
     </row>
     <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B854" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A854" t="inlineStr"/>
+      <c r="B854" t="inlineStr"/>
       <c r="C854" t="inlineStr"/>
       <c r="D854" t="inlineStr">
         <is>
@@ -20235,18 +19279,8 @@
       <c r="K854" t="inlineStr"/>
     </row>
     <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B855" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="A855" t="inlineStr"/>
+      <c r="B855" t="inlineStr"/>
       <c r="C855" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -20280,18 +19314,8 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B856" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="A856" t="inlineStr"/>
+      <c r="B856" t="inlineStr"/>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr"/>
       <c r="E856" s="4" t="inlineStr">
@@ -20307,18 +19331,8 @@
       <c r="K856" t="inlineStr"/>
     </row>
     <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B857" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="A857" t="inlineStr"/>
+      <c r="B857" t="inlineStr"/>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
         <is>
@@ -20338,18 +19352,8 @@
       <c r="K857" t="inlineStr"/>
     </row>
     <row r="858">
-      <c r="A858" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B858" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="A858" t="inlineStr"/>
+      <c r="B858" t="inlineStr"/>
       <c r="C858" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -20383,18 +19387,8 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B859" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="A859" t="inlineStr"/>
+      <c r="B859" t="inlineStr"/>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr"/>
       <c r="E859" s="4" t="inlineStr">
@@ -20410,18 +19404,8 @@
       <c r="K859" t="inlineStr"/>
     </row>
     <row r="860">
-      <c r="A860" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B860" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="A860" t="inlineStr"/>
+      <c r="B860" t="inlineStr"/>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
         <is>
@@ -23089,18 +22073,8 @@
       <c r="K996" t="inlineStr"/>
     </row>
     <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B997" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="A997" t="inlineStr"/>
+      <c r="B997" t="inlineStr"/>
       <c r="C997" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -23134,18 +22108,8 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B998" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="A998" t="inlineStr"/>
+      <c r="B998" t="inlineStr"/>
       <c r="C998" t="inlineStr"/>
       <c r="D998" t="inlineStr"/>
       <c r="E998" s="4" t="inlineStr">
@@ -23161,18 +22125,8 @@
       <c r="K998" t="inlineStr"/>
     </row>
     <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B999" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="A999" t="inlineStr"/>
+      <c r="B999" t="inlineStr"/>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr">
         <is>
@@ -23192,18 +22146,8 @@
       <c r="K999" t="inlineStr"/>
     </row>
     <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B1000" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="A1000" t="inlineStr"/>
+      <c r="B1000" t="inlineStr"/>
       <c r="C1000" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -23237,18 +22181,8 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B1001" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="A1001" t="inlineStr"/>
+      <c r="B1001" t="inlineStr"/>
       <c r="C1001" t="inlineStr"/>
       <c r="D1001" t="inlineStr"/>
       <c r="E1001" s="4" t="inlineStr">
@@ -23264,18 +22198,8 @@
       <c r="K1001" t="inlineStr"/>
     </row>
     <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B1002" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="A1002" t="inlineStr"/>
+      <c r="B1002" t="inlineStr"/>
       <c r="C1002" t="inlineStr"/>
       <c r="D1002" t="inlineStr">
         <is>
@@ -23295,18 +22219,8 @@
       <c r="K1002" t="inlineStr"/>
     </row>
     <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B1003" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1003" t="inlineStr"/>
+      <c r="B1003" t="inlineStr"/>
       <c r="C1003" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -23340,18 +22254,8 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B1004" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1004" t="inlineStr"/>
+      <c r="B1004" t="inlineStr"/>
       <c r="C1004" t="inlineStr"/>
       <c r="D1004" t="inlineStr"/>
       <c r="E1004" s="4" t="inlineStr">
@@ -23367,18 +22271,8 @@
       <c r="K1004" t="inlineStr"/>
     </row>
     <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B1005" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1005" t="inlineStr"/>
+      <c r="B1005" t="inlineStr"/>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr">
         <is>
@@ -23914,16 +22808,10 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B1028" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 80051.03
-Borrower Amount: 80051.03</t>
-        </is>
-      </c>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr"/>
       <c r="C1028" t="inlineStr">
         <is>
           <t>15/Apr/2025</t>
@@ -23959,7 +22847,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>M040</t>
+          <t>M004</t>
         </is>
       </c>
       <c r="B1029" s="4" t="inlineStr">
@@ -23986,16 +22874,10 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B1030" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 80051.03
-Borrower Amount: 80051.03</t>
-        </is>
-      </c>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr"/>
       <c r="C1030" t="inlineStr"/>
       <c r="D1030" t="inlineStr">
         <is>
@@ -24015,18 +22897,8 @@
       <c r="K1030" t="inlineStr"/>
     </row>
     <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B1031" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A1031" t="inlineStr"/>
+      <c r="B1031" t="inlineStr"/>
       <c r="C1031" t="inlineStr">
         <is>
           <t>16/Apr/2025</t>
@@ -24060,18 +22932,8 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B1032" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A1032" t="inlineStr"/>
+      <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -24089,18 +22951,8 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B1033" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A1033" t="inlineStr"/>
+      <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr"/>
       <c r="E1033" s="4" t="inlineStr">
@@ -24118,18 +22970,8 @@
       </c>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B1034" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A1034" t="inlineStr"/>
+      <c r="B1034" t="inlineStr"/>
       <c r="C1034" t="inlineStr"/>
       <c r="D1034" t="inlineStr"/>
       <c r="E1034" s="4" t="inlineStr">
@@ -24145,18 +22987,8 @@
       <c r="K1034" t="inlineStr"/>
     </row>
     <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B1035" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A1035" t="inlineStr"/>
+      <c r="B1035" t="inlineStr"/>
       <c r="C1035" t="inlineStr"/>
       <c r="D1035" t="inlineStr">
         <is>
@@ -24249,18 +23081,8 @@
       <c r="K1038" t="inlineStr"/>
     </row>
     <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B1039" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="A1039" t="inlineStr"/>
+      <c r="B1039" t="inlineStr"/>
       <c r="C1039" t="inlineStr">
         <is>
           <t>17/Apr/2025</t>
@@ -24294,18 +23116,8 @@
       <c r="K1039" t="inlineStr"/>
     </row>
     <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B1040" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="A1040" t="inlineStr"/>
+      <c r="B1040" t="inlineStr"/>
       <c r="C1040" t="inlineStr"/>
       <c r="D1040" t="inlineStr"/>
       <c r="E1040" s="4" t="inlineStr">
@@ -24321,18 +23133,8 @@
       <c r="K1040" t="inlineStr"/>
     </row>
     <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B1041" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="A1041" t="inlineStr"/>
+      <c r="B1041" t="inlineStr"/>
       <c r="C1041" t="inlineStr"/>
       <c r="D1041" t="inlineStr">
         <is>
@@ -24571,18 +23373,8 @@
       <c r="K1050" t="inlineStr"/>
     </row>
     <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1051" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1051" t="inlineStr"/>
+      <c r="B1051" t="inlineStr"/>
       <c r="C1051" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -24616,18 +23408,8 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1052" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1052" t="inlineStr"/>
+      <c r="B1052" t="inlineStr"/>
       <c r="C1052" t="inlineStr"/>
       <c r="D1052" t="inlineStr"/>
       <c r="E1052" s="4" t="inlineStr">
@@ -24645,18 +23427,8 @@
       <c r="K1052" t="inlineStr"/>
     </row>
     <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1053" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1053" t="inlineStr"/>
+      <c r="B1053" t="inlineStr"/>
       <c r="C1053" t="inlineStr"/>
       <c r="D1053" t="inlineStr"/>
       <c r="E1053" s="4" t="inlineStr">
@@ -24674,18 +23446,8 @@
       <c r="K1053" t="inlineStr"/>
     </row>
     <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1054" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1054" t="inlineStr"/>
+      <c r="B1054" t="inlineStr"/>
       <c r="C1054" t="inlineStr"/>
       <c r="D1054" t="inlineStr"/>
       <c r="E1054" s="4" t="inlineStr">
@@ -24703,18 +23465,8 @@
       <c r="K1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1055" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1055" t="inlineStr"/>
+      <c r="B1055" t="inlineStr"/>
       <c r="C1055" t="inlineStr"/>
       <c r="D1055" t="inlineStr"/>
       <c r="E1055" s="4" t="inlineStr">
@@ -24732,18 +23484,8 @@
       <c r="K1055" t="inlineStr"/>
     </row>
     <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1056" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1056" t="inlineStr"/>
+      <c r="B1056" t="inlineStr"/>
       <c r="C1056" t="inlineStr"/>
       <c r="D1056" t="inlineStr"/>
       <c r="E1056" s="4" t="inlineStr">
@@ -24761,18 +23503,8 @@
       <c r="K1056" t="inlineStr"/>
     </row>
     <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1057" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1057" t="inlineStr"/>
+      <c r="B1057" t="inlineStr"/>
       <c r="C1057" t="inlineStr"/>
       <c r="D1057" t="inlineStr"/>
       <c r="E1057" s="4" t="inlineStr">
@@ -24790,18 +23522,8 @@
       <c r="K1057" t="inlineStr"/>
     </row>
     <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1058" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1058" t="inlineStr"/>
+      <c r="B1058" t="inlineStr"/>
       <c r="C1058" t="inlineStr"/>
       <c r="D1058" t="inlineStr"/>
       <c r="E1058" s="4" t="inlineStr">
@@ -24817,18 +23539,8 @@
       <c r="K1058" t="inlineStr"/>
     </row>
     <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B1059" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A1059" t="inlineStr"/>
+      <c r="B1059" t="inlineStr"/>
       <c r="C1059" t="inlineStr"/>
       <c r="D1059" t="inlineStr">
         <is>
@@ -24978,18 +23690,8 @@
       <c r="K1065" t="inlineStr"/>
     </row>
     <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B1066" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="A1066" t="inlineStr"/>
+      <c r="B1066" t="inlineStr"/>
       <c r="C1066" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -25023,18 +23725,8 @@
       <c r="K1066" t="inlineStr"/>
     </row>
     <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B1067" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="A1067" t="inlineStr"/>
+      <c r="B1067" t="inlineStr"/>
       <c r="C1067" t="inlineStr"/>
       <c r="D1067" t="inlineStr"/>
       <c r="E1067" s="4" t="inlineStr">
@@ -25050,18 +23742,8 @@
       <c r="K1067" t="inlineStr"/>
     </row>
     <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B1068" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="A1068" t="inlineStr"/>
+      <c r="B1068" t="inlineStr"/>
       <c r="C1068" t="inlineStr"/>
       <c r="D1068" t="inlineStr">
         <is>
@@ -25323,18 +24005,8 @@
       <c r="K1079" t="inlineStr"/>
     </row>
     <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B1080" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="A1080" t="inlineStr"/>
+      <c r="B1080" t="inlineStr"/>
       <c r="C1080" t="inlineStr">
         <is>
           <t>22/Apr/2025</t>
@@ -25368,18 +24040,8 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B1081" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="A1081" t="inlineStr"/>
+      <c r="B1081" t="inlineStr"/>
       <c r="C1081" t="inlineStr"/>
       <c r="D1081" t="inlineStr"/>
       <c r="E1081" s="4" t="inlineStr">
@@ -25395,18 +24057,8 @@
       <c r="K1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B1082" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="A1082" t="inlineStr"/>
+      <c r="B1082" t="inlineStr"/>
       <c r="C1082" t="inlineStr"/>
       <c r="D1082" t="inlineStr">
         <is>
@@ -25426,18 +24078,8 @@
       <c r="K1082" t="inlineStr"/>
     </row>
     <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B1083" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="A1083" t="inlineStr"/>
+      <c r="B1083" t="inlineStr"/>
       <c r="C1083" t="inlineStr">
         <is>
           <t>22/Apr/2025</t>
@@ -25471,18 +24113,8 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B1084" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="A1084" t="inlineStr"/>
+      <c r="B1084" t="inlineStr"/>
       <c r="C1084" t="inlineStr"/>
       <c r="D1084" t="inlineStr"/>
       <c r="E1084" s="4" t="inlineStr">
@@ -25498,18 +24130,8 @@
       <c r="K1084" t="inlineStr"/>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B1085" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="A1085" t="inlineStr"/>
+      <c r="B1085" t="inlineStr"/>
       <c r="C1085" t="inlineStr"/>
       <c r="D1085" t="inlineStr">
         <is>
@@ -25529,18 +24151,8 @@
       <c r="K1085" t="inlineStr"/>
     </row>
     <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B1086" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="A1086" t="inlineStr"/>
+      <c r="B1086" t="inlineStr"/>
       <c r="C1086" t="inlineStr">
         <is>
           <t>23/Apr/2025</t>
@@ -25574,18 +24186,8 @@
       <c r="K1086" t="inlineStr"/>
     </row>
     <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B1087" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="A1087" t="inlineStr"/>
+      <c r="B1087" t="inlineStr"/>
       <c r="C1087" t="inlineStr"/>
       <c r="D1087" t="inlineStr"/>
       <c r="E1087" s="4" t="inlineStr">
@@ -25601,18 +24203,8 @@
       <c r="K1087" t="inlineStr"/>
     </row>
     <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B1088" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="A1088" t="inlineStr"/>
+      <c r="B1088" t="inlineStr"/>
       <c r="C1088" t="inlineStr"/>
       <c r="D1088" t="inlineStr">
         <is>
@@ -25851,18 +24443,8 @@
       <c r="K1097" t="inlineStr"/>
     </row>
     <row r="1098">
-      <c r="A1098" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B1098" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="A1098" t="inlineStr"/>
+      <c r="B1098" t="inlineStr"/>
       <c r="C1098" t="inlineStr">
         <is>
           <t>23/Apr/2025</t>
@@ -25896,18 +24478,8 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B1099" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="A1099" t="inlineStr"/>
+      <c r="B1099" t="inlineStr"/>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr"/>
       <c r="E1099" s="4" t="inlineStr">
@@ -25923,18 +24495,8 @@
       <c r="K1099" t="inlineStr"/>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B1100" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="A1100" t="inlineStr"/>
+      <c r="B1100" t="inlineStr"/>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
@@ -26465,18 +25027,8 @@
       <c r="K1121" t="inlineStr"/>
     </row>
     <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B1122" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="A1122" t="inlineStr"/>
+      <c r="B1122" t="inlineStr"/>
       <c r="C1122" t="inlineStr">
         <is>
           <t>27/Apr/2025</t>
@@ -26510,18 +25062,8 @@
       <c r="K1122" t="inlineStr"/>
     </row>
     <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B1123" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="A1123" t="inlineStr"/>
+      <c r="B1123" t="inlineStr"/>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" s="4" t="inlineStr">
@@ -26537,18 +25079,8 @@
       <c r="K1123" t="inlineStr"/>
     </row>
     <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B1124" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="A1124" t="inlineStr"/>
+      <c r="B1124" t="inlineStr"/>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
@@ -26568,18 +25100,8 @@
       <c r="K1124" t="inlineStr"/>
     </row>
     <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B1125" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="A1125" t="inlineStr"/>
+      <c r="B1125" t="inlineStr"/>
       <c r="C1125" t="inlineStr">
         <is>
           <t>27/Apr/2025</t>
@@ -26613,18 +25135,8 @@
       <c r="K1125" t="inlineStr"/>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B1126" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="A1126" t="inlineStr"/>
+      <c r="B1126" t="inlineStr"/>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" s="4" t="inlineStr">
@@ -26640,18 +25152,8 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B1127" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="A1127" t="inlineStr"/>
+      <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
@@ -26671,18 +25173,8 @@
       <c r="K1127" t="inlineStr"/>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B1128" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="A1128" t="inlineStr"/>
+      <c r="B1128" t="inlineStr"/>
       <c r="C1128" t="inlineStr">
         <is>
           <t>28/Apr/2025</t>
@@ -26716,18 +25208,8 @@
       <c r="K1128" t="inlineStr"/>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B1129" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="A1129" t="inlineStr"/>
+      <c r="B1129" t="inlineStr"/>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -26743,18 +25225,8 @@
       <c r="K1129" t="inlineStr"/>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B1130" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="A1130" t="inlineStr"/>
+      <c r="B1130" t="inlineStr"/>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
@@ -27253,18 +25725,8 @@
       <c r="K1151" t="inlineStr"/>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B1152" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
+      <c r="B1152" t="inlineStr"/>
       <c r="C1152" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -27298,18 +25760,8 @@
       <c r="K1152" t="inlineStr"/>
     </row>
     <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B1153" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="A1153" t="inlineStr"/>
+      <c r="B1153" t="inlineStr"/>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" s="4" t="inlineStr">
@@ -27325,18 +25777,8 @@
       <c r="K1153" t="inlineStr"/>
     </row>
     <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B1154" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="A1154" t="inlineStr"/>
+      <c r="B1154" t="inlineStr"/>
       <c r="C1154" t="inlineStr"/>
       <c r="D1154" t="inlineStr">
         <is>
@@ -27356,18 +25798,8 @@
       <c r="K1154" t="inlineStr"/>
     </row>
     <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B1155" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="A1155" t="inlineStr"/>
+      <c r="B1155" t="inlineStr"/>
       <c r="C1155" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -27401,18 +25833,8 @@
       <c r="K1155" t="inlineStr"/>
     </row>
     <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B1156" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="A1156" t="inlineStr"/>
+      <c r="B1156" t="inlineStr"/>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" s="4" t="inlineStr">
@@ -27428,18 +25850,8 @@
       <c r="K1156" t="inlineStr"/>
     </row>
     <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B1157" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="A1157" t="inlineStr"/>
+      <c r="B1157" t="inlineStr"/>
       <c r="C1157" t="inlineStr"/>
       <c r="D1157" t="inlineStr">
         <is>
@@ -27459,18 +25871,8 @@
       <c r="K1157" t="inlineStr"/>
     </row>
     <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B1158" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="A1158" t="inlineStr"/>
+      <c r="B1158" t="inlineStr"/>
       <c r="C1158" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -27504,18 +25906,8 @@
       <c r="K1158" t="inlineStr"/>
     </row>
     <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B1159" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="A1159" t="inlineStr"/>
+      <c r="B1159" t="inlineStr"/>
       <c r="C1159" t="inlineStr"/>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" s="4" t="inlineStr">
@@ -27531,18 +25923,8 @@
       <c r="K1159" t="inlineStr"/>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B1160" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="A1160" t="inlineStr"/>
+      <c r="B1160" t="inlineStr"/>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
         <is>
@@ -32419,18 +30801,8 @@
       <c r="K1387" t="inlineStr"/>
     </row>
     <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B1388" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="A1388" t="inlineStr"/>
+      <c r="B1388" t="inlineStr"/>
       <c r="C1388" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -32464,18 +30836,8 @@
       <c r="K1388" t="inlineStr"/>
     </row>
     <row r="1389">
-      <c r="A1389" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B1389" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="A1389" t="inlineStr"/>
+      <c r="B1389" t="inlineStr"/>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" s="4" t="inlineStr">
@@ -32491,18 +30853,8 @@
       <c r="K1389" t="inlineStr"/>
     </row>
     <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B1390" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="A1390" t="inlineStr"/>
+      <c r="B1390" t="inlineStr"/>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
@@ -32522,18 +30874,8 @@
       <c r="K1390" t="inlineStr"/>
     </row>
     <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B1391" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="A1391" t="inlineStr"/>
+      <c r="B1391" t="inlineStr"/>
       <c r="C1391" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -32567,18 +30909,8 @@
       <c r="K1391" t="inlineStr"/>
     </row>
     <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B1392" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="A1392" t="inlineStr"/>
+      <c r="B1392" t="inlineStr"/>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" s="4" t="inlineStr">
@@ -32594,18 +30926,8 @@
       <c r="K1392" t="inlineStr"/>
     </row>
     <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B1393" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="A1393" t="inlineStr"/>
+      <c r="B1393" t="inlineStr"/>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
@@ -32625,18 +30947,8 @@
       <c r="K1393" t="inlineStr"/>
     </row>
     <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B1394" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="A1394" t="inlineStr"/>
+      <c r="B1394" t="inlineStr"/>
       <c r="C1394" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -32670,18 +30982,8 @@
       <c r="K1394" t="inlineStr"/>
     </row>
     <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B1395" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="A1395" t="inlineStr"/>
+      <c r="B1395" t="inlineStr"/>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" s="4" t="inlineStr">
@@ -32697,18 +30999,8 @@
       <c r="K1395" t="inlineStr"/>
     </row>
     <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B1396" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="A1396" t="inlineStr"/>
+      <c r="B1396" t="inlineStr"/>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
@@ -33020,18 +31312,8 @@
       <c r="K1408" t="inlineStr"/>
     </row>
     <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B1409" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="A1409" t="inlineStr"/>
+      <c r="B1409" t="inlineStr"/>
       <c r="C1409" t="inlineStr">
         <is>
           <t>18/May/2025</t>
@@ -33065,18 +31347,8 @@
       <c r="K1409" t="inlineStr"/>
     </row>
     <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B1410" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="A1410" t="inlineStr"/>
+      <c r="B1410" t="inlineStr"/>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" s="4" t="inlineStr">
@@ -33092,18 +31364,8 @@
       <c r="K1410" t="inlineStr"/>
     </row>
     <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B1411" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="A1411" t="inlineStr"/>
+      <c r="B1411" t="inlineStr"/>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
@@ -33490,16 +31752,10 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B1427" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr"/>
       <c r="C1427" t="inlineStr">
         <is>
           <t>25/May/2025</t>
@@ -33535,16 +31791,10 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B1428" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr"/>
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr"/>
       <c r="E1428" s="4" t="inlineStr">
@@ -33564,16 +31814,10 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B1429" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr"/>
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr"/>
       <c r="E1429" s="4" t="inlineStr">
@@ -33593,7 +31837,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>M059</t>
+          <t>M005</t>
         </is>
       </c>
       <c r="B1430" s="4" t="inlineStr">
@@ -33620,16 +31864,10 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B1431" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr"/>
       <c r="C1431" t="inlineStr"/>
       <c r="D1431" t="inlineStr">
         <is>
@@ -33966,18 +32204,8 @@
       <c r="K1446" t="inlineStr"/>
     </row>
     <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B1447" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="A1447" t="inlineStr"/>
+      <c r="B1447" t="inlineStr"/>
       <c r="C1447" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -34011,18 +32239,8 @@
       <c r="K1447" t="inlineStr"/>
     </row>
     <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B1448" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="A1448" t="inlineStr"/>
+      <c r="B1448" t="inlineStr"/>
       <c r="C1448" t="inlineStr"/>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" s="4" t="inlineStr">
@@ -34038,18 +32256,8 @@
       <c r="K1448" t="inlineStr"/>
     </row>
     <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B1449" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="A1449" t="inlineStr"/>
+      <c r="B1449" t="inlineStr"/>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
         <is>
@@ -34142,18 +32350,8 @@
       <c r="K1452" t="inlineStr"/>
     </row>
     <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B1453" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A1453" t="inlineStr"/>
+      <c r="B1453" t="inlineStr"/>
       <c r="C1453" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -34187,18 +32385,8 @@
       <c r="K1453" t="inlineStr"/>
     </row>
     <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B1454" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A1454" t="inlineStr"/>
+      <c r="B1454" t="inlineStr"/>
       <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" s="4" t="inlineStr">
@@ -34216,18 +32404,8 @@
       </c>
     </row>
     <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B1455" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A1455" t="inlineStr"/>
+      <c r="B1455" t="inlineStr"/>
       <c r="C1455" t="inlineStr"/>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" s="4" t="inlineStr">
@@ -34245,18 +32423,8 @@
       </c>
     </row>
     <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B1456" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A1456" t="inlineStr"/>
+      <c r="B1456" t="inlineStr"/>
       <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" s="4" t="inlineStr">
@@ -34274,18 +32442,8 @@
       </c>
     </row>
     <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B1457" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A1457" t="inlineStr"/>
+      <c r="B1457" t="inlineStr"/>
       <c r="C1457" t="inlineStr"/>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" s="4" t="inlineStr">
@@ -34301,18 +32459,8 @@
       <c r="K1457" t="inlineStr"/>
     </row>
     <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B1458" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A1458" t="inlineStr"/>
+      <c r="B1458" t="inlineStr"/>
       <c r="C1458" t="inlineStr"/>
       <c r="D1458" t="inlineStr">
         <is>
@@ -34332,18 +32480,8 @@
       <c r="K1458" t="inlineStr"/>
     </row>
     <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
-      <c r="B1459" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="A1459" t="inlineStr"/>
+      <c r="B1459" t="inlineStr"/>
       <c r="C1459" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -34377,18 +32515,8 @@
       </c>
     </row>
     <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
-      <c r="B1460" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="A1460" t="inlineStr"/>
+      <c r="B1460" t="inlineStr"/>
       <c r="C1460" t="inlineStr"/>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" s="4" t="inlineStr">
@@ -34404,18 +32532,8 @@
       <c r="K1460" t="inlineStr"/>
     </row>
     <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
-      <c r="B1461" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="A1461" t="inlineStr"/>
+      <c r="B1461" t="inlineStr"/>
       <c r="C1461" t="inlineStr"/>
       <c r="D1461" t="inlineStr">
         <is>
@@ -37261,18 +35379,8 @@
       <c r="K1603" t="inlineStr"/>
     </row>
     <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
-      <c r="B1604" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="A1604" t="inlineStr"/>
+      <c r="B1604" t="inlineStr"/>
       <c r="C1604" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -37306,18 +35414,8 @@
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
-      <c r="B1605" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="A1605" t="inlineStr"/>
+      <c r="B1605" t="inlineStr"/>
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" s="4" t="inlineStr">
@@ -37333,18 +35431,8 @@
       <c r="K1605" t="inlineStr"/>
     </row>
     <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
-      <c r="B1606" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="A1606" t="inlineStr"/>
+      <c r="B1606" t="inlineStr"/>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
         <is>
@@ -37584,18 +35672,8 @@
       <c r="K1615" t="inlineStr"/>
     </row>
     <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B1616" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="A1616" t="inlineStr"/>
+      <c r="B1616" t="inlineStr"/>
       <c r="C1616" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
@@ -37629,18 +35707,8 @@
       </c>
     </row>
     <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B1617" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="A1617" t="inlineStr"/>
+      <c r="B1617" t="inlineStr"/>
       <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" s="4" t="inlineStr">
@@ -37656,18 +35724,8 @@
       <c r="K1617" t="inlineStr"/>
     </row>
     <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B1618" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="A1618" t="inlineStr"/>
+      <c r="B1618" t="inlineStr"/>
       <c r="C1618" t="inlineStr"/>
       <c r="D1618" t="inlineStr">
         <is>
@@ -40137,18 +38195,8 @@
       <c r="K1720" t="inlineStr"/>
     </row>
     <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B1721" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1721" t="inlineStr"/>
+      <c r="B1721" t="inlineStr"/>
       <c r="C1721" t="inlineStr">
         <is>
           <t>16/Jun/2025</t>
@@ -40182,18 +38230,8 @@
       <c r="K1721" t="inlineStr"/>
     </row>
     <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B1722" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1722" t="inlineStr"/>
+      <c r="B1722" t="inlineStr"/>
       <c r="C1722" t="inlineStr"/>
       <c r="D1722" t="inlineStr"/>
       <c r="E1722" s="4" t="inlineStr">
@@ -40209,18 +38247,8 @@
       <c r="K1722" t="inlineStr"/>
     </row>
     <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B1723" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1723" t="inlineStr"/>
+      <c r="B1723" t="inlineStr"/>
       <c r="C1723" t="inlineStr"/>
       <c r="D1723" t="inlineStr">
         <is>
@@ -40313,18 +38341,8 @@
       <c r="K1726" t="inlineStr"/>
     </row>
     <row r="1727">
-      <c r="A1727" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B1727" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="A1727" t="inlineStr"/>
+      <c r="B1727" t="inlineStr"/>
       <c r="C1727" t="inlineStr">
         <is>
           <t>17/Jun/2025</t>
@@ -40358,18 +38376,8 @@
       </c>
     </row>
     <row r="1728">
-      <c r="A1728" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B1728" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="A1728" t="inlineStr"/>
+      <c r="B1728" t="inlineStr"/>
       <c r="C1728" t="inlineStr"/>
       <c r="D1728" t="inlineStr"/>
       <c r="E1728" s="4" t="inlineStr">
@@ -40385,18 +38393,8 @@
       <c r="K1728" t="inlineStr"/>
     </row>
     <row r="1729">
-      <c r="A1729" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B1729" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="A1729" t="inlineStr"/>
+      <c r="B1729" t="inlineStr"/>
       <c r="C1729" t="inlineStr"/>
       <c r="D1729" t="inlineStr">
         <is>
@@ -41027,18 +39025,8 @@
       <c r="K1756" t="inlineStr"/>
     </row>
     <row r="1757">
-      <c r="A1757" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1757" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1757" t="inlineStr"/>
+      <c r="B1757" t="inlineStr"/>
       <c r="C1757" t="inlineStr">
         <is>
           <t>22/Jun/2025</t>
@@ -41072,18 +39060,8 @@
       </c>
     </row>
     <row r="1758">
-      <c r="A1758" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1758" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1758" t="inlineStr"/>
+      <c r="B1758" t="inlineStr"/>
       <c r="C1758" t="inlineStr"/>
       <c r="D1758" t="inlineStr"/>
       <c r="E1758" s="4" t="inlineStr">
@@ -41101,18 +39079,8 @@
       </c>
     </row>
     <row r="1759">
-      <c r="A1759" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1759" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1759" t="inlineStr"/>
+      <c r="B1759" t="inlineStr"/>
       <c r="C1759" t="inlineStr"/>
       <c r="D1759" t="inlineStr"/>
       <c r="E1759" s="4" t="inlineStr">
@@ -41130,18 +39098,8 @@
       <c r="K1759" t="inlineStr"/>
     </row>
     <row r="1760">
-      <c r="A1760" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1760" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1760" t="inlineStr"/>
+      <c r="B1760" t="inlineStr"/>
       <c r="C1760" t="inlineStr"/>
       <c r="D1760" t="inlineStr"/>
       <c r="E1760" s="4" t="inlineStr">
@@ -41157,18 +39115,8 @@
       <c r="K1760" t="inlineStr"/>
     </row>
     <row r="1761">
-      <c r="A1761" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1761" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1761" t="inlineStr"/>
+      <c r="B1761" t="inlineStr"/>
       <c r="C1761" t="inlineStr"/>
       <c r="D1761" t="inlineStr">
         <is>
@@ -41553,18 +39501,8 @@
       <c r="K1776" t="inlineStr"/>
     </row>
     <row r="1777">
-      <c r="A1777" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B1777" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="A1777" t="inlineStr"/>
+      <c r="B1777" t="inlineStr"/>
       <c r="C1777" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
@@ -41598,18 +39536,8 @@
       <c r="K1777" t="inlineStr"/>
     </row>
     <row r="1778">
-      <c r="A1778" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B1778" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="A1778" t="inlineStr"/>
+      <c r="B1778" t="inlineStr"/>
       <c r="C1778" t="inlineStr"/>
       <c r="D1778" t="inlineStr"/>
       <c r="E1778" s="4" t="inlineStr">
@@ -41625,18 +39553,8 @@
       <c r="K1778" t="inlineStr"/>
     </row>
     <row r="1779">
-      <c r="A1779" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B1779" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="A1779" t="inlineStr"/>
+      <c r="B1779" t="inlineStr"/>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr">
         <is>
@@ -41913,18 +39831,8 @@
       <c r="K1790" t="inlineStr"/>
     </row>
     <row r="1791">
-      <c r="A1791" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
-      <c r="B1791" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="A1791" t="inlineStr"/>
+      <c r="B1791" t="inlineStr"/>
       <c r="C1791" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -41958,18 +39866,8 @@
       <c r="K1791" t="inlineStr"/>
     </row>
     <row r="1792">
-      <c r="A1792" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
-      <c r="B1792" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="A1792" t="inlineStr"/>
+      <c r="B1792" t="inlineStr"/>
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr"/>
       <c r="E1792" s="4" t="inlineStr">
@@ -41985,18 +39883,8 @@
       <c r="K1792" t="inlineStr"/>
     </row>
     <row r="1793">
-      <c r="A1793" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
-      <c r="B1793" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="A1793" t="inlineStr"/>
+      <c r="B1793" t="inlineStr"/>
       <c r="C1793" t="inlineStr"/>
       <c r="D1793" t="inlineStr">
         <is>
@@ -42162,18 +40050,8 @@
       <c r="K1799" t="inlineStr"/>
     </row>
     <row r="1800">
-      <c r="A1800" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
-      <c r="B1800" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="A1800" t="inlineStr"/>
+      <c r="B1800" t="inlineStr"/>
       <c r="C1800" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -42207,18 +40085,8 @@
       </c>
     </row>
     <row r="1801">
-      <c r="A1801" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
-      <c r="B1801" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="A1801" t="inlineStr"/>
+      <c r="B1801" t="inlineStr"/>
       <c r="C1801" t="inlineStr"/>
       <c r="D1801" t="inlineStr"/>
       <c r="E1801" s="4" t="inlineStr">
@@ -42234,18 +40102,8 @@
       <c r="K1801" t="inlineStr"/>
     </row>
     <row r="1802">
-      <c r="A1802" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
-      <c r="B1802" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="A1802" t="inlineStr"/>
+      <c r="B1802" t="inlineStr"/>
       <c r="C1802" t="inlineStr"/>
       <c r="D1802" t="inlineStr">
         <is>
@@ -43023,18 +40881,8 @@
       <c r="K1836" t="inlineStr"/>
     </row>
     <row r="1837">
-      <c r="A1837" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
-      <c r="B1837" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="A1837" t="inlineStr"/>
+      <c r="B1837" t="inlineStr"/>
       <c r="C1837" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
@@ -43068,18 +40916,8 @@
       </c>
     </row>
     <row r="1838">
-      <c r="A1838" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
-      <c r="B1838" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="A1838" t="inlineStr"/>
+      <c r="B1838" t="inlineStr"/>
       <c r="C1838" t="inlineStr"/>
       <c r="D1838" t="inlineStr"/>
       <c r="E1838" s="4" t="inlineStr">
@@ -43095,18 +40933,8 @@
       <c r="K1838" t="inlineStr"/>
     </row>
     <row r="1839">
-      <c r="A1839" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
-      <c r="B1839" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="A1839" t="inlineStr"/>
+      <c r="B1839" t="inlineStr"/>
       <c r="C1839" t="inlineStr"/>
       <c r="D1839" t="inlineStr">
         <is>
@@ -43310,18 +41138,8 @@
       <c r="K1847" t="inlineStr"/>
     </row>
     <row r="1848">
-      <c r="A1848" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
-      <c r="B1848" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="A1848" t="inlineStr"/>
+      <c r="B1848" t="inlineStr"/>
       <c r="C1848" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
@@ -43355,18 +41173,8 @@
       </c>
     </row>
     <row r="1849">
-      <c r="A1849" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
-      <c r="B1849" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="A1849" t="inlineStr"/>
+      <c r="B1849" t="inlineStr"/>
       <c r="C1849" t="inlineStr"/>
       <c r="D1849" t="inlineStr"/>
       <c r="E1849" s="4" t="inlineStr">
@@ -43382,18 +41190,8 @@
       <c r="K1849" t="inlineStr"/>
     </row>
     <row r="1850">
-      <c r="A1850" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
-      <c r="B1850" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="A1850" t="inlineStr"/>
+      <c r="B1850" t="inlineStr"/>
       <c r="C1850" t="inlineStr"/>
       <c r="D1850" t="inlineStr">
         <is>

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -1211,7 +1211,11 @@
       <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
@@ -1246,7 +1250,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1265,7 +1273,11 @@
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1284,7 +1296,11 @@
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1303,8 +1319,18 @@
       <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
@@ -1320,7 +1346,11 @@
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
@@ -1560,7 +1590,11 @@
       <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
@@ -1595,8 +1629,18 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
@@ -1612,7 +1656,11 @@
       <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
@@ -1633,7 +1681,11 @@
       <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
@@ -1668,8 +1720,18 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
@@ -1685,7 +1747,11 @@
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
@@ -1998,7 +2064,11 @@
       <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
@@ -2033,8 +2103,18 @@
       <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
@@ -2050,7 +2130,11 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
@@ -2071,7 +2155,11 @@
       <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
@@ -2106,8 +2194,18 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
@@ -2123,7 +2221,11 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
@@ -2582,7 +2684,11 @@
       <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
@@ -2617,8 +2723,18 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
@@ -2634,7 +2750,11 @@
       <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
@@ -6889,7 +7009,11 @@
       <c r="K299" t="inlineStr"/>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr"/>
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
@@ -6924,8 +7048,18 @@
       <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
-      <c r="B301" t="inlineStr"/>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B301" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
       <c r="E301" s="4" t="inlineStr">
@@ -6941,7 +7075,11 @@
       <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
@@ -7035,7 +7173,11 @@
       <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr"/>
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr">
         <is>
@@ -7070,7 +7212,11 @@
       <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -7089,7 +7235,11 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
@@ -7108,8 +7258,18 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
-      <c r="B309" t="inlineStr"/>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B309" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
       <c r="E309" s="4" t="inlineStr">
@@ -7125,7 +7285,11 @@
       <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
@@ -7657,7 +7821,11 @@
       <c r="K331" t="inlineStr"/>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr"/>
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr">
         <is>
@@ -7692,8 +7860,18 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
-      <c r="B333" t="inlineStr"/>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B333" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
       <c r="E333" s="4" t="inlineStr">
@@ -7709,7 +7887,11 @@
       <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
@@ -8117,7 +8299,11 @@
       <c r="K351" t="inlineStr"/>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr"/>
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr">
         <is>
@@ -8152,8 +8338,18 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
-      <c r="B353" t="inlineStr"/>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B353" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
       <c r="E353" s="4" t="inlineStr">
@@ -8169,7 +8365,11 @@
       <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
@@ -9568,7 +9768,11 @@
       <c r="K413" t="inlineStr"/>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr"/>
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr">
         <is>
@@ -9603,8 +9807,18 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr"/>
-      <c r="B415" t="inlineStr"/>
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B415" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr"/>
       <c r="E415" s="4" t="inlineStr">
@@ -9620,7 +9834,11 @@
       <c r="K415" t="inlineStr"/>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr"/>
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
@@ -9641,7 +9859,11 @@
       <c r="K416" t="inlineStr"/>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr"/>
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr">
         <is>
@@ -9676,8 +9898,18 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr"/>
-      <c r="B418" t="inlineStr"/>
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B418" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr"/>
       <c r="E418" s="4" t="inlineStr">
@@ -9693,7 +9925,11 @@
       <c r="K418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr"/>
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
@@ -10885,7 +11121,11 @@
       <c r="K468" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr">
         <is>
@@ -10920,8 +11160,18 @@
       <c r="K469" t="inlineStr"/>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
-      <c r="B470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B470" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
       <c r="E470" s="4" t="inlineStr">
@@ -10937,7 +11187,11 @@
       <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
@@ -10958,7 +11212,11 @@
       <c r="K471" t="inlineStr"/>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr">
         <is>
@@ -10993,8 +11251,18 @@
       <c r="K472" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
-      <c r="B473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B473" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" s="4" t="inlineStr">
@@ -11010,7 +11278,11 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
@@ -11031,7 +11303,11 @@
       <c r="K474" t="inlineStr"/>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr">
         <is>
@@ -11066,8 +11342,18 @@
       <c r="K475" t="inlineStr"/>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
-      <c r="B476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B476" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -11083,7 +11369,11 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
@@ -11104,7 +11394,11 @@
       <c r="K477" t="inlineStr"/>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr"/>
       <c r="C478" t="inlineStr">
         <is>
@@ -11139,8 +11433,18 @@
       <c r="K478" t="inlineStr"/>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
-      <c r="B479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B479" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr"/>
       <c r="E479" s="4" t="inlineStr">
@@ -11156,7 +11460,11 @@
       <c r="K479" t="inlineStr"/>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
@@ -11250,7 +11558,11 @@
       <c r="K483" t="inlineStr"/>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr"/>
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr"/>
       <c r="C484" t="inlineStr">
         <is>
@@ -11285,8 +11597,18 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
-      <c r="B485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B485" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr"/>
       <c r="E485" s="4" t="inlineStr">
@@ -11302,7 +11624,11 @@
       <c r="K485" t="inlineStr"/>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
@@ -12199,7 +12525,11 @@
       <c r="K522" t="inlineStr"/>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr"/>
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr">
         <is>
@@ -12234,7 +12564,11 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr"/>
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr"/>
@@ -12253,7 +12587,11 @@
       <c r="K524" t="inlineStr"/>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr"/>
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr"/>
@@ -12272,8 +12610,18 @@
       <c r="K525" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr"/>
-      <c r="B526" t="inlineStr"/>
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B526" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr"/>
       <c r="E526" s="4" t="inlineStr">
@@ -12289,7 +12637,11 @@
       <c r="K526" t="inlineStr"/>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr"/>
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr"/>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
@@ -15199,7 +15551,11 @@
       <c r="K674" t="inlineStr"/>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr"/>
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr">
         <is>
@@ -15234,8 +15590,18 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr"/>
-      <c r="B676" t="inlineStr"/>
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B676" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -15251,7 +15617,11 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
@@ -15732,7 +16102,11 @@
       <c r="K697" t="inlineStr"/>
     </row>
     <row r="698">
-      <c r="A698" t="inlineStr"/>
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
       <c r="B698" t="inlineStr"/>
       <c r="C698" t="inlineStr">
         <is>
@@ -15767,8 +16141,18 @@
       <c r="K698" t="inlineStr"/>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr"/>
-      <c r="B699" t="inlineStr"/>
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B699" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
       <c r="E699" s="4" t="inlineStr">
@@ -15784,7 +16168,11 @@
       <c r="K699" t="inlineStr"/>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr"/>
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
       <c r="B700" t="inlineStr"/>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
@@ -15878,7 +16266,11 @@
       <c r="K703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr"/>
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr"/>
       <c r="C704" t="inlineStr">
         <is>
@@ -15913,8 +16305,18 @@
       <c r="K704" t="inlineStr"/>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr"/>
-      <c r="B705" t="inlineStr"/>
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B705" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr"/>
       <c r="E705" s="4" t="inlineStr">
@@ -15930,7 +16332,11 @@
       <c r="K705" t="inlineStr"/>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr"/>
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr"/>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
@@ -15953,7 +16359,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M021</t>
         </is>
       </c>
       <c r="B707" t="inlineStr"/>
@@ -15992,7 +16398,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M021</t>
         </is>
       </c>
       <c r="B708" s="4" t="inlineStr">
@@ -16019,7 +16425,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M021</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -16042,7 +16448,11 @@
       <c r="K709" t="inlineStr"/>
     </row>
     <row r="710">
-      <c r="A710" t="inlineStr"/>
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
       <c r="B710" t="inlineStr"/>
       <c r="C710" t="inlineStr">
         <is>
@@ -16077,7 +16487,11 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr"/>
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
       <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
@@ -16096,7 +16510,11 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr"/>
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr"/>
@@ -16115,8 +16533,18 @@
       <c r="K712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr"/>
-      <c r="B713" t="inlineStr"/>
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B713" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr"/>
       <c r="E713" s="4" t="inlineStr">
@@ -16132,7 +16560,11 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr"/>
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
       <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
@@ -17168,7 +17600,11 @@
       <c r="K759" t="inlineStr"/>
     </row>
     <row r="760">
-      <c r="A760" t="inlineStr"/>
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
       <c r="B760" t="inlineStr"/>
       <c r="C760" t="inlineStr">
         <is>
@@ -17203,8 +17639,18 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" t="inlineStr"/>
-      <c r="B761" t="inlineStr"/>
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B761" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C761" t="inlineStr"/>
       <c r="D761" t="inlineStr"/>
       <c r="E761" s="4" t="inlineStr">
@@ -17220,7 +17666,11 @@
       <c r="K761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr"/>
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
       <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
@@ -17574,7 +18024,11 @@
       <c r="K777" t="inlineStr"/>
     </row>
     <row r="778">
-      <c r="A778" t="inlineStr"/>
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
       <c r="B778" t="inlineStr"/>
       <c r="C778" t="inlineStr">
         <is>
@@ -17609,8 +18063,18 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr"/>
-      <c r="B779" t="inlineStr"/>
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B779" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr"/>
       <c r="E779" s="4" t="inlineStr">
@@ -17626,7 +18090,11 @@
       <c r="K779" t="inlineStr"/>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr"/>
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
       <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
@@ -18855,7 +19323,11 @@
       <c r="K836" t="inlineStr"/>
     </row>
     <row r="837">
-      <c r="A837" t="inlineStr"/>
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
       <c r="B837" t="inlineStr"/>
       <c r="C837" t="inlineStr">
         <is>
@@ -18890,8 +19362,18 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="inlineStr"/>
-      <c r="B838" t="inlineStr"/>
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B838" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C838" t="inlineStr"/>
       <c r="D838" t="inlineStr"/>
       <c r="E838" s="4" t="inlineStr">
@@ -18907,7 +19389,11 @@
       <c r="K838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" t="inlineStr"/>
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
       <c r="B839" t="inlineStr"/>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
@@ -18930,7 +19416,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B840" t="inlineStr"/>
@@ -18969,7 +19455,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B841" s="4" t="inlineStr">
@@ -18996,7 +19482,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B842" t="inlineStr"/>
@@ -19168,7 +19654,11 @@
       <c r="K849" t="inlineStr"/>
     </row>
     <row r="850">
-      <c r="A850" t="inlineStr"/>
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
       <c r="B850" t="inlineStr"/>
       <c r="C850" t="inlineStr">
         <is>
@@ -19203,7 +19693,11 @@
       <c r="K850" t="inlineStr"/>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr"/>
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
       <c r="B851" t="inlineStr"/>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr"/>
@@ -19222,7 +19716,11 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr"/>
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
       <c r="B852" t="inlineStr"/>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr"/>
@@ -19241,8 +19739,18 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr"/>
-      <c r="B853" t="inlineStr"/>
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B853" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr"/>
       <c r="E853" s="4" t="inlineStr">
@@ -19258,7 +19766,11 @@
       <c r="K853" t="inlineStr"/>
     </row>
     <row r="854">
-      <c r="A854" t="inlineStr"/>
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
       <c r="B854" t="inlineStr"/>
       <c r="C854" t="inlineStr"/>
       <c r="D854" t="inlineStr">
@@ -19279,7 +19791,11 @@
       <c r="K854" t="inlineStr"/>
     </row>
     <row r="855">
-      <c r="A855" t="inlineStr"/>
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
       <c r="B855" t="inlineStr"/>
       <c r="C855" t="inlineStr">
         <is>
@@ -19314,8 +19830,18 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr"/>
-      <c r="B856" t="inlineStr"/>
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B856" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr"/>
       <c r="E856" s="4" t="inlineStr">
@@ -19331,7 +19857,11 @@
       <c r="K856" t="inlineStr"/>
     </row>
     <row r="857">
-      <c r="A857" t="inlineStr"/>
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
       <c r="B857" t="inlineStr"/>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
@@ -19352,7 +19882,11 @@
       <c r="K857" t="inlineStr"/>
     </row>
     <row r="858">
-      <c r="A858" t="inlineStr"/>
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
       <c r="B858" t="inlineStr"/>
       <c r="C858" t="inlineStr">
         <is>
@@ -19387,8 +19921,18 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" t="inlineStr"/>
-      <c r="B859" t="inlineStr"/>
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B859" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr"/>
       <c r="E859" s="4" t="inlineStr">
@@ -19404,7 +19948,11 @@
       <c r="K859" t="inlineStr"/>
     </row>
     <row r="860">
-      <c r="A860" t="inlineStr"/>
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
       <c r="B860" t="inlineStr"/>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
@@ -22073,7 +22621,11 @@
       <c r="K996" t="inlineStr"/>
     </row>
     <row r="997">
-      <c r="A997" t="inlineStr"/>
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
       <c r="B997" t="inlineStr"/>
       <c r="C997" t="inlineStr">
         <is>
@@ -22108,8 +22660,18 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr"/>
-      <c r="B998" t="inlineStr"/>
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B998" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C998" t="inlineStr"/>
       <c r="D998" t="inlineStr"/>
       <c r="E998" s="4" t="inlineStr">
@@ -22125,7 +22687,11 @@
       <c r="K998" t="inlineStr"/>
     </row>
     <row r="999">
-      <c r="A999" t="inlineStr"/>
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
       <c r="B999" t="inlineStr"/>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr">
@@ -22146,7 +22712,11 @@
       <c r="K999" t="inlineStr"/>
     </row>
     <row r="1000">
-      <c r="A1000" t="inlineStr"/>
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
       <c r="B1000" t="inlineStr"/>
       <c r="C1000" t="inlineStr">
         <is>
@@ -22181,8 +22751,18 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" t="inlineStr"/>
-      <c r="B1001" t="inlineStr"/>
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B1001" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C1001" t="inlineStr"/>
       <c r="D1001" t="inlineStr"/>
       <c r="E1001" s="4" t="inlineStr">
@@ -22198,7 +22778,11 @@
       <c r="K1001" t="inlineStr"/>
     </row>
     <row r="1002">
-      <c r="A1002" t="inlineStr"/>
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
       <c r="B1002" t="inlineStr"/>
       <c r="C1002" t="inlineStr"/>
       <c r="D1002" t="inlineStr">
@@ -22219,7 +22803,11 @@
       <c r="K1002" t="inlineStr"/>
     </row>
     <row r="1003">
-      <c r="A1003" t="inlineStr"/>
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
       <c r="B1003" t="inlineStr"/>
       <c r="C1003" t="inlineStr">
         <is>
@@ -22254,8 +22842,18 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" t="inlineStr"/>
-      <c r="B1004" t="inlineStr"/>
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B1004" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1004" t="inlineStr"/>
       <c r="D1004" t="inlineStr"/>
       <c r="E1004" s="4" t="inlineStr">
@@ -22271,7 +22869,11 @@
       <c r="K1004" t="inlineStr"/>
     </row>
     <row r="1005">
-      <c r="A1005" t="inlineStr"/>
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
       <c r="B1005" t="inlineStr"/>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr">
@@ -22808,7 +23410,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M033</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -22847,7 +23449,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M033</t>
         </is>
       </c>
       <c r="B1029" s="4" t="inlineStr">
@@ -22874,7 +23476,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M033</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -22897,7 +23499,11 @@
       <c r="K1030" t="inlineStr"/>
     </row>
     <row r="1031">
-      <c r="A1031" t="inlineStr"/>
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
       <c r="B1031" t="inlineStr"/>
       <c r="C1031" t="inlineStr">
         <is>
@@ -22932,7 +23538,11 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr"/>
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
       <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
@@ -22951,7 +23561,11 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr"/>
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
       <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr"/>
@@ -22970,8 +23584,18 @@
       </c>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr"/>
-      <c r="B1034" t="inlineStr"/>
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B1034" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C1034" t="inlineStr"/>
       <c r="D1034" t="inlineStr"/>
       <c r="E1034" s="4" t="inlineStr">
@@ -22987,7 +23611,11 @@
       <c r="K1034" t="inlineStr"/>
     </row>
     <row r="1035">
-      <c r="A1035" t="inlineStr"/>
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
       <c r="B1035" t="inlineStr"/>
       <c r="C1035" t="inlineStr"/>
       <c r="D1035" t="inlineStr">
@@ -23081,7 +23709,11 @@
       <c r="K1038" t="inlineStr"/>
     </row>
     <row r="1039">
-      <c r="A1039" t="inlineStr"/>
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
       <c r="B1039" t="inlineStr"/>
       <c r="C1039" t="inlineStr">
         <is>
@@ -23116,8 +23748,18 @@
       <c r="K1039" t="inlineStr"/>
     </row>
     <row r="1040">
-      <c r="A1040" t="inlineStr"/>
-      <c r="B1040" t="inlineStr"/>
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B1040" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C1040" t="inlineStr"/>
       <c r="D1040" t="inlineStr"/>
       <c r="E1040" s="4" t="inlineStr">
@@ -23133,7 +23775,11 @@
       <c r="K1040" t="inlineStr"/>
     </row>
     <row r="1041">
-      <c r="A1041" t="inlineStr"/>
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
       <c r="B1041" t="inlineStr"/>
       <c r="C1041" t="inlineStr"/>
       <c r="D1041" t="inlineStr">
@@ -23373,7 +24019,11 @@
       <c r="K1050" t="inlineStr"/>
     </row>
     <row r="1051">
-      <c r="A1051" t="inlineStr"/>
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B1051" t="inlineStr"/>
       <c r="C1051" t="inlineStr">
         <is>
@@ -23408,7 +24058,11 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" t="inlineStr"/>
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B1052" t="inlineStr"/>
       <c r="C1052" t="inlineStr"/>
       <c r="D1052" t="inlineStr"/>
@@ -23427,7 +24081,11 @@
       <c r="K1052" t="inlineStr"/>
     </row>
     <row r="1053">
-      <c r="A1053" t="inlineStr"/>
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B1053" t="inlineStr"/>
       <c r="C1053" t="inlineStr"/>
       <c r="D1053" t="inlineStr"/>
@@ -23446,7 +24104,11 @@
       <c r="K1053" t="inlineStr"/>
     </row>
     <row r="1054">
-      <c r="A1054" t="inlineStr"/>
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B1054" t="inlineStr"/>
       <c r="C1054" t="inlineStr"/>
       <c r="D1054" t="inlineStr"/>
@@ -23465,7 +24127,11 @@
       <c r="K1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" t="inlineStr"/>
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B1055" t="inlineStr"/>
       <c r="C1055" t="inlineStr"/>
       <c r="D1055" t="inlineStr"/>
@@ -23484,7 +24150,11 @@
       <c r="K1055" t="inlineStr"/>
     </row>
     <row r="1056">
-      <c r="A1056" t="inlineStr"/>
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B1056" t="inlineStr"/>
       <c r="C1056" t="inlineStr"/>
       <c r="D1056" t="inlineStr"/>
@@ -23503,7 +24173,11 @@
       <c r="K1056" t="inlineStr"/>
     </row>
     <row r="1057">
-      <c r="A1057" t="inlineStr"/>
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B1057" t="inlineStr"/>
       <c r="C1057" t="inlineStr"/>
       <c r="D1057" t="inlineStr"/>
@@ -23522,8 +24196,18 @@
       <c r="K1057" t="inlineStr"/>
     </row>
     <row r="1058">
-      <c r="A1058" t="inlineStr"/>
-      <c r="B1058" t="inlineStr"/>
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B1058" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C1058" t="inlineStr"/>
       <c r="D1058" t="inlineStr"/>
       <c r="E1058" s="4" t="inlineStr">
@@ -23539,7 +24223,11 @@
       <c r="K1058" t="inlineStr"/>
     </row>
     <row r="1059">
-      <c r="A1059" t="inlineStr"/>
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B1059" t="inlineStr"/>
       <c r="C1059" t="inlineStr"/>
       <c r="D1059" t="inlineStr">
@@ -23690,7 +24378,11 @@
       <c r="K1065" t="inlineStr"/>
     </row>
     <row r="1066">
-      <c r="A1066" t="inlineStr"/>
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
       <c r="B1066" t="inlineStr"/>
       <c r="C1066" t="inlineStr">
         <is>
@@ -23725,8 +24417,18 @@
       <c r="K1066" t="inlineStr"/>
     </row>
     <row r="1067">
-      <c r="A1067" t="inlineStr"/>
-      <c r="B1067" t="inlineStr"/>
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B1067" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C1067" t="inlineStr"/>
       <c r="D1067" t="inlineStr"/>
       <c r="E1067" s="4" t="inlineStr">
@@ -23742,7 +24444,11 @@
       <c r="K1067" t="inlineStr"/>
     </row>
     <row r="1068">
-      <c r="A1068" t="inlineStr"/>
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
       <c r="B1068" t="inlineStr"/>
       <c r="C1068" t="inlineStr"/>
       <c r="D1068" t="inlineStr">
@@ -24005,7 +24711,11 @@
       <c r="K1079" t="inlineStr"/>
     </row>
     <row r="1080">
-      <c r="A1080" t="inlineStr"/>
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
       <c r="B1080" t="inlineStr"/>
       <c r="C1080" t="inlineStr">
         <is>
@@ -24040,8 +24750,18 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" t="inlineStr"/>
-      <c r="B1081" t="inlineStr"/>
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B1081" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C1081" t="inlineStr"/>
       <c r="D1081" t="inlineStr"/>
       <c r="E1081" s="4" t="inlineStr">
@@ -24057,7 +24777,11 @@
       <c r="K1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr"/>
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
       <c r="B1082" t="inlineStr"/>
       <c r="C1082" t="inlineStr"/>
       <c r="D1082" t="inlineStr">
@@ -24078,7 +24802,11 @@
       <c r="K1082" t="inlineStr"/>
     </row>
     <row r="1083">
-      <c r="A1083" t="inlineStr"/>
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
       <c r="B1083" t="inlineStr"/>
       <c r="C1083" t="inlineStr">
         <is>
@@ -24113,8 +24841,18 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" t="inlineStr"/>
-      <c r="B1084" t="inlineStr"/>
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B1084" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C1084" t="inlineStr"/>
       <c r="D1084" t="inlineStr"/>
       <c r="E1084" s="4" t="inlineStr">
@@ -24130,7 +24868,11 @@
       <c r="K1084" t="inlineStr"/>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr"/>
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
       <c r="B1085" t="inlineStr"/>
       <c r="C1085" t="inlineStr"/>
       <c r="D1085" t="inlineStr">
@@ -24151,7 +24893,11 @@
       <c r="K1085" t="inlineStr"/>
     </row>
     <row r="1086">
-      <c r="A1086" t="inlineStr"/>
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
       <c r="B1086" t="inlineStr"/>
       <c r="C1086" t="inlineStr">
         <is>
@@ -24186,8 +24932,18 @@
       <c r="K1086" t="inlineStr"/>
     </row>
     <row r="1087">
-      <c r="A1087" t="inlineStr"/>
-      <c r="B1087" t="inlineStr"/>
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B1087" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C1087" t="inlineStr"/>
       <c r="D1087" t="inlineStr"/>
       <c r="E1087" s="4" t="inlineStr">
@@ -24203,7 +24959,11 @@
       <c r="K1087" t="inlineStr"/>
     </row>
     <row r="1088">
-      <c r="A1088" t="inlineStr"/>
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
       <c r="B1088" t="inlineStr"/>
       <c r="C1088" t="inlineStr"/>
       <c r="D1088" t="inlineStr">
@@ -24443,7 +25203,11 @@
       <c r="K1097" t="inlineStr"/>
     </row>
     <row r="1098">
-      <c r="A1098" t="inlineStr"/>
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
       <c r="B1098" t="inlineStr"/>
       <c r="C1098" t="inlineStr">
         <is>
@@ -24478,8 +25242,18 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" t="inlineStr"/>
-      <c r="B1099" t="inlineStr"/>
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B1099" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr"/>
       <c r="E1099" s="4" t="inlineStr">
@@ -24495,7 +25269,11 @@
       <c r="K1099" t="inlineStr"/>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr"/>
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
       <c r="B1100" t="inlineStr"/>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
@@ -25027,7 +25805,11 @@
       <c r="K1121" t="inlineStr"/>
     </row>
     <row r="1122">
-      <c r="A1122" t="inlineStr"/>
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
       <c r="B1122" t="inlineStr"/>
       <c r="C1122" t="inlineStr">
         <is>
@@ -25062,8 +25844,18 @@
       <c r="K1122" t="inlineStr"/>
     </row>
     <row r="1123">
-      <c r="A1123" t="inlineStr"/>
-      <c r="B1123" t="inlineStr"/>
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B1123" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" s="4" t="inlineStr">
@@ -25079,7 +25871,11 @@
       <c r="K1123" t="inlineStr"/>
     </row>
     <row r="1124">
-      <c r="A1124" t="inlineStr"/>
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
       <c r="B1124" t="inlineStr"/>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
@@ -25100,7 +25896,11 @@
       <c r="K1124" t="inlineStr"/>
     </row>
     <row r="1125">
-      <c r="A1125" t="inlineStr"/>
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
       <c r="B1125" t="inlineStr"/>
       <c r="C1125" t="inlineStr">
         <is>
@@ -25135,8 +25935,18 @@
       <c r="K1125" t="inlineStr"/>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr"/>
-      <c r="B1126" t="inlineStr"/>
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B1126" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" s="4" t="inlineStr">
@@ -25152,7 +25962,11 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr"/>
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
       <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
@@ -25173,7 +25987,11 @@
       <c r="K1127" t="inlineStr"/>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr"/>
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
       <c r="B1128" t="inlineStr"/>
       <c r="C1128" t="inlineStr">
         <is>
@@ -25208,8 +26026,18 @@
       <c r="K1128" t="inlineStr"/>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr"/>
-      <c r="B1129" t="inlineStr"/>
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B1129" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -25225,7 +26053,11 @@
       <c r="K1129" t="inlineStr"/>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr"/>
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
       <c r="B1130" t="inlineStr"/>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
@@ -25725,7 +26557,11 @@
       <c r="K1151" t="inlineStr"/>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr"/>
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
       <c r="B1152" t="inlineStr"/>
       <c r="C1152" t="inlineStr">
         <is>
@@ -25760,8 +26596,18 @@
       <c r="K1152" t="inlineStr"/>
     </row>
     <row r="1153">
-      <c r="A1153" t="inlineStr"/>
-      <c r="B1153" t="inlineStr"/>
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B1153" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" s="4" t="inlineStr">
@@ -25777,7 +26623,11 @@
       <c r="K1153" t="inlineStr"/>
     </row>
     <row r="1154">
-      <c r="A1154" t="inlineStr"/>
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
       <c r="B1154" t="inlineStr"/>
       <c r="C1154" t="inlineStr"/>
       <c r="D1154" t="inlineStr">
@@ -25798,7 +26648,11 @@
       <c r="K1154" t="inlineStr"/>
     </row>
     <row r="1155">
-      <c r="A1155" t="inlineStr"/>
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
       <c r="B1155" t="inlineStr"/>
       <c r="C1155" t="inlineStr">
         <is>
@@ -25833,8 +26687,18 @@
       <c r="K1155" t="inlineStr"/>
     </row>
     <row r="1156">
-      <c r="A1156" t="inlineStr"/>
-      <c r="B1156" t="inlineStr"/>
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B1156" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" s="4" t="inlineStr">
@@ -25850,7 +26714,11 @@
       <c r="K1156" t="inlineStr"/>
     </row>
     <row r="1157">
-      <c r="A1157" t="inlineStr"/>
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
       <c r="B1157" t="inlineStr"/>
       <c r="C1157" t="inlineStr"/>
       <c r="D1157" t="inlineStr">
@@ -25871,7 +26739,11 @@
       <c r="K1157" t="inlineStr"/>
     </row>
     <row r="1158">
-      <c r="A1158" t="inlineStr"/>
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
       <c r="B1158" t="inlineStr"/>
       <c r="C1158" t="inlineStr">
         <is>
@@ -25906,8 +26778,18 @@
       <c r="K1158" t="inlineStr"/>
     </row>
     <row r="1159">
-      <c r="A1159" t="inlineStr"/>
-      <c r="B1159" t="inlineStr"/>
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B1159" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C1159" t="inlineStr"/>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" s="4" t="inlineStr">
@@ -25923,7 +26805,11 @@
       <c r="K1159" t="inlineStr"/>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
       <c r="B1160" t="inlineStr"/>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
@@ -30801,7 +31687,11 @@
       <c r="K1387" t="inlineStr"/>
     </row>
     <row r="1388">
-      <c r="A1388" t="inlineStr"/>
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
       <c r="B1388" t="inlineStr"/>
       <c r="C1388" t="inlineStr">
         <is>
@@ -30836,8 +31726,18 @@
       <c r="K1388" t="inlineStr"/>
     </row>
     <row r="1389">
-      <c r="A1389" t="inlineStr"/>
-      <c r="B1389" t="inlineStr"/>
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B1389" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" s="4" t="inlineStr">
@@ -30853,7 +31753,11 @@
       <c r="K1389" t="inlineStr"/>
     </row>
     <row r="1390">
-      <c r="A1390" t="inlineStr"/>
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
       <c r="B1390" t="inlineStr"/>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
@@ -30874,7 +31778,11 @@
       <c r="K1390" t="inlineStr"/>
     </row>
     <row r="1391">
-      <c r="A1391" t="inlineStr"/>
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
       <c r="B1391" t="inlineStr"/>
       <c r="C1391" t="inlineStr">
         <is>
@@ -30909,8 +31817,18 @@
       <c r="K1391" t="inlineStr"/>
     </row>
     <row r="1392">
-      <c r="A1392" t="inlineStr"/>
-      <c r="B1392" t="inlineStr"/>
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B1392" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" s="4" t="inlineStr">
@@ -30926,7 +31844,11 @@
       <c r="K1392" t="inlineStr"/>
     </row>
     <row r="1393">
-      <c r="A1393" t="inlineStr"/>
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
       <c r="B1393" t="inlineStr"/>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
@@ -30947,7 +31869,11 @@
       <c r="K1393" t="inlineStr"/>
     </row>
     <row r="1394">
-      <c r="A1394" t="inlineStr"/>
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
       <c r="B1394" t="inlineStr"/>
       <c r="C1394" t="inlineStr">
         <is>
@@ -30982,8 +31908,18 @@
       <c r="K1394" t="inlineStr"/>
     </row>
     <row r="1395">
-      <c r="A1395" t="inlineStr"/>
-      <c r="B1395" t="inlineStr"/>
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B1395" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" s="4" t="inlineStr">
@@ -30999,7 +31935,11 @@
       <c r="K1395" t="inlineStr"/>
     </row>
     <row r="1396">
-      <c r="A1396" t="inlineStr"/>
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
       <c r="B1396" t="inlineStr"/>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
@@ -31312,7 +32252,11 @@
       <c r="K1408" t="inlineStr"/>
     </row>
     <row r="1409">
-      <c r="A1409" t="inlineStr"/>
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
       <c r="B1409" t="inlineStr"/>
       <c r="C1409" t="inlineStr">
         <is>
@@ -31347,8 +32291,18 @@
       <c r="K1409" t="inlineStr"/>
     </row>
     <row r="1410">
-      <c r="A1410" t="inlineStr"/>
-      <c r="B1410" t="inlineStr"/>
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B1410" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" s="4" t="inlineStr">
@@ -31364,7 +32318,11 @@
       <c r="K1410" t="inlineStr"/>
     </row>
     <row r="1411">
-      <c r="A1411" t="inlineStr"/>
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
       <c r="B1411" t="inlineStr"/>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
@@ -31752,7 +32710,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr"/>
@@ -31791,7 +32749,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr"/>
@@ -31814,7 +32772,7 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr"/>
@@ -31837,7 +32795,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B1430" s="4" t="inlineStr">
@@ -31864,7 +32822,7 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr"/>
@@ -32204,7 +33162,11 @@
       <c r="K1446" t="inlineStr"/>
     </row>
     <row r="1447">
-      <c r="A1447" t="inlineStr"/>
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
       <c r="B1447" t="inlineStr"/>
       <c r="C1447" t="inlineStr">
         <is>
@@ -32239,8 +33201,18 @@
       <c r="K1447" t="inlineStr"/>
     </row>
     <row r="1448">
-      <c r="A1448" t="inlineStr"/>
-      <c r="B1448" t="inlineStr"/>
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B1448" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C1448" t="inlineStr"/>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" s="4" t="inlineStr">
@@ -32256,7 +33228,11 @@
       <c r="K1448" t="inlineStr"/>
     </row>
     <row r="1449">
-      <c r="A1449" t="inlineStr"/>
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
       <c r="B1449" t="inlineStr"/>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
@@ -32350,7 +33326,11 @@
       <c r="K1452" t="inlineStr"/>
     </row>
     <row r="1453">
-      <c r="A1453" t="inlineStr"/>
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B1453" t="inlineStr"/>
       <c r="C1453" t="inlineStr">
         <is>
@@ -32385,7 +33365,11 @@
       <c r="K1453" t="inlineStr"/>
     </row>
     <row r="1454">
-      <c r="A1454" t="inlineStr"/>
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B1454" t="inlineStr"/>
       <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
@@ -32404,7 +33388,11 @@
       </c>
     </row>
     <row r="1455">
-      <c r="A1455" t="inlineStr"/>
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B1455" t="inlineStr"/>
       <c r="C1455" t="inlineStr"/>
       <c r="D1455" t="inlineStr"/>
@@ -32423,7 +33411,11 @@
       </c>
     </row>
     <row r="1456">
-      <c r="A1456" t="inlineStr"/>
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B1456" t="inlineStr"/>
       <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
@@ -32442,8 +33434,18 @@
       </c>
     </row>
     <row r="1457">
-      <c r="A1457" t="inlineStr"/>
-      <c r="B1457" t="inlineStr"/>
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B1457" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C1457" t="inlineStr"/>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" s="4" t="inlineStr">
@@ -32459,7 +33461,11 @@
       <c r="K1457" t="inlineStr"/>
     </row>
     <row r="1458">
-      <c r="A1458" t="inlineStr"/>
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B1458" t="inlineStr"/>
       <c r="C1458" t="inlineStr"/>
       <c r="D1458" t="inlineStr">
@@ -32480,7 +33486,11 @@
       <c r="K1458" t="inlineStr"/>
     </row>
     <row r="1459">
-      <c r="A1459" t="inlineStr"/>
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
       <c r="B1459" t="inlineStr"/>
       <c r="C1459" t="inlineStr">
         <is>
@@ -32515,8 +33525,18 @@
       </c>
     </row>
     <row r="1460">
-      <c r="A1460" t="inlineStr"/>
-      <c r="B1460" t="inlineStr"/>
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B1460" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C1460" t="inlineStr"/>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" s="4" t="inlineStr">
@@ -32532,7 +33552,11 @@
       <c r="K1460" t="inlineStr"/>
     </row>
     <row r="1461">
-      <c r="A1461" t="inlineStr"/>
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
       <c r="B1461" t="inlineStr"/>
       <c r="C1461" t="inlineStr"/>
       <c r="D1461" t="inlineStr">
@@ -35379,7 +36403,11 @@
       <c r="K1603" t="inlineStr"/>
     </row>
     <row r="1604">
-      <c r="A1604" t="inlineStr"/>
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
       <c r="B1604" t="inlineStr"/>
       <c r="C1604" t="inlineStr">
         <is>
@@ -35414,8 +36442,18 @@
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="inlineStr"/>
-      <c r="B1605" t="inlineStr"/>
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B1605" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" s="4" t="inlineStr">
@@ -35431,7 +36469,11 @@
       <c r="K1605" t="inlineStr"/>
     </row>
     <row r="1606">
-      <c r="A1606" t="inlineStr"/>
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
       <c r="B1606" t="inlineStr"/>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
@@ -35672,7 +36714,11 @@
       <c r="K1615" t="inlineStr"/>
     </row>
     <row r="1616">
-      <c r="A1616" t="inlineStr"/>
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
       <c r="B1616" t="inlineStr"/>
       <c r="C1616" t="inlineStr">
         <is>
@@ -35707,8 +36753,18 @@
       </c>
     </row>
     <row r="1617">
-      <c r="A1617" t="inlineStr"/>
-      <c r="B1617" t="inlineStr"/>
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B1617" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" s="4" t="inlineStr">
@@ -35724,7 +36780,11 @@
       <c r="K1617" t="inlineStr"/>
     </row>
     <row r="1618">
-      <c r="A1618" t="inlineStr"/>
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
       <c r="B1618" t="inlineStr"/>
       <c r="C1618" t="inlineStr"/>
       <c r="D1618" t="inlineStr">
@@ -38195,7 +39255,11 @@
       <c r="K1720" t="inlineStr"/>
     </row>
     <row r="1721">
-      <c r="A1721" t="inlineStr"/>
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
       <c r="B1721" t="inlineStr"/>
       <c r="C1721" t="inlineStr">
         <is>
@@ -38230,8 +39294,18 @@
       <c r="K1721" t="inlineStr"/>
     </row>
     <row r="1722">
-      <c r="A1722" t="inlineStr"/>
-      <c r="B1722" t="inlineStr"/>
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B1722" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1722" t="inlineStr"/>
       <c r="D1722" t="inlineStr"/>
       <c r="E1722" s="4" t="inlineStr">
@@ -38247,7 +39321,11 @@
       <c r="K1722" t="inlineStr"/>
     </row>
     <row r="1723">
-      <c r="A1723" t="inlineStr"/>
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
       <c r="B1723" t="inlineStr"/>
       <c r="C1723" t="inlineStr"/>
       <c r="D1723" t="inlineStr">
@@ -38341,7 +39419,11 @@
       <c r="K1726" t="inlineStr"/>
     </row>
     <row r="1727">
-      <c r="A1727" t="inlineStr"/>
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
       <c r="B1727" t="inlineStr"/>
       <c r="C1727" t="inlineStr">
         <is>
@@ -38376,8 +39458,18 @@
       </c>
     </row>
     <row r="1728">
-      <c r="A1728" t="inlineStr"/>
-      <c r="B1728" t="inlineStr"/>
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1728" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1728" t="inlineStr"/>
       <c r="D1728" t="inlineStr"/>
       <c r="E1728" s="4" t="inlineStr">
@@ -38393,7 +39485,11 @@
       <c r="K1728" t="inlineStr"/>
     </row>
     <row r="1729">
-      <c r="A1729" t="inlineStr"/>
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
       <c r="B1729" t="inlineStr"/>
       <c r="C1729" t="inlineStr"/>
       <c r="D1729" t="inlineStr">
@@ -39025,7 +40121,11 @@
       <c r="K1756" t="inlineStr"/>
     </row>
     <row r="1757">
-      <c r="A1757" t="inlineStr"/>
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1757" t="inlineStr"/>
       <c r="C1757" t="inlineStr">
         <is>
@@ -39060,7 +40160,11 @@
       </c>
     </row>
     <row r="1758">
-      <c r="A1758" t="inlineStr"/>
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1758" t="inlineStr"/>
       <c r="C1758" t="inlineStr"/>
       <c r="D1758" t="inlineStr"/>
@@ -39079,7 +40183,11 @@
       </c>
     </row>
     <row r="1759">
-      <c r="A1759" t="inlineStr"/>
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1759" t="inlineStr"/>
       <c r="C1759" t="inlineStr"/>
       <c r="D1759" t="inlineStr"/>
@@ -39098,8 +40206,18 @@
       <c r="K1759" t="inlineStr"/>
     </row>
     <row r="1760">
-      <c r="A1760" t="inlineStr"/>
-      <c r="B1760" t="inlineStr"/>
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B1760" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1760" t="inlineStr"/>
       <c r="D1760" t="inlineStr"/>
       <c r="E1760" s="4" t="inlineStr">
@@ -39115,7 +40233,11 @@
       <c r="K1760" t="inlineStr"/>
     </row>
     <row r="1761">
-      <c r="A1761" t="inlineStr"/>
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1761" t="inlineStr"/>
       <c r="C1761" t="inlineStr"/>
       <c r="D1761" t="inlineStr">
@@ -39501,7 +40623,11 @@
       <c r="K1776" t="inlineStr"/>
     </row>
     <row r="1777">
-      <c r="A1777" t="inlineStr"/>
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
       <c r="B1777" t="inlineStr"/>
       <c r="C1777" t="inlineStr">
         <is>
@@ -39536,8 +40662,18 @@
       <c r="K1777" t="inlineStr"/>
     </row>
     <row r="1778">
-      <c r="A1778" t="inlineStr"/>
-      <c r="B1778" t="inlineStr"/>
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1778" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1778" t="inlineStr"/>
       <c r="D1778" t="inlineStr"/>
       <c r="E1778" s="4" t="inlineStr">
@@ -39553,7 +40689,11 @@
       <c r="K1778" t="inlineStr"/>
     </row>
     <row r="1779">
-      <c r="A1779" t="inlineStr"/>
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
       <c r="B1779" t="inlineStr"/>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr">
@@ -39831,7 +40971,11 @@
       <c r="K1790" t="inlineStr"/>
     </row>
     <row r="1791">
-      <c r="A1791" t="inlineStr"/>
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
       <c r="B1791" t="inlineStr"/>
       <c r="C1791" t="inlineStr">
         <is>
@@ -39866,8 +41010,18 @@
       <c r="K1791" t="inlineStr"/>
     </row>
     <row r="1792">
-      <c r="A1792" t="inlineStr"/>
-      <c r="B1792" t="inlineStr"/>
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B1792" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr"/>
       <c r="E1792" s="4" t="inlineStr">
@@ -39883,7 +41037,11 @@
       <c r="K1792" t="inlineStr"/>
     </row>
     <row r="1793">
-      <c r="A1793" t="inlineStr"/>
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
       <c r="B1793" t="inlineStr"/>
       <c r="C1793" t="inlineStr"/>
       <c r="D1793" t="inlineStr">
@@ -40050,7 +41208,11 @@
       <c r="K1799" t="inlineStr"/>
     </row>
     <row r="1800">
-      <c r="A1800" t="inlineStr"/>
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
       <c r="B1800" t="inlineStr"/>
       <c r="C1800" t="inlineStr">
         <is>
@@ -40085,8 +41247,18 @@
       </c>
     </row>
     <row r="1801">
-      <c r="A1801" t="inlineStr"/>
-      <c r="B1801" t="inlineStr"/>
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1801" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1801" t="inlineStr"/>
       <c r="D1801" t="inlineStr"/>
       <c r="E1801" s="4" t="inlineStr">
@@ -40102,7 +41274,11 @@
       <c r="K1801" t="inlineStr"/>
     </row>
     <row r="1802">
-      <c r="A1802" t="inlineStr"/>
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
       <c r="B1802" t="inlineStr"/>
       <c r="C1802" t="inlineStr"/>
       <c r="D1802" t="inlineStr">
@@ -40881,7 +42057,11 @@
       <c r="K1836" t="inlineStr"/>
     </row>
     <row r="1837">
-      <c r="A1837" t="inlineStr"/>
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
       <c r="B1837" t="inlineStr"/>
       <c r="C1837" t="inlineStr">
         <is>
@@ -40916,8 +42096,18 @@
       </c>
     </row>
     <row r="1838">
-      <c r="A1838" t="inlineStr"/>
-      <c r="B1838" t="inlineStr"/>
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1838" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1838" t="inlineStr"/>
       <c r="D1838" t="inlineStr"/>
       <c r="E1838" s="4" t="inlineStr">
@@ -40933,7 +42123,11 @@
       <c r="K1838" t="inlineStr"/>
     </row>
     <row r="1839">
-      <c r="A1839" t="inlineStr"/>
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
       <c r="B1839" t="inlineStr"/>
       <c r="C1839" t="inlineStr"/>
       <c r="D1839" t="inlineStr">
@@ -41138,7 +42332,11 @@
       <c r="K1847" t="inlineStr"/>
     </row>
     <row r="1848">
-      <c r="A1848" t="inlineStr"/>
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
       <c r="B1848" t="inlineStr"/>
       <c r="C1848" t="inlineStr">
         <is>
@@ -41173,8 +42371,18 @@
       </c>
     </row>
     <row r="1849">
-      <c r="A1849" t="inlineStr"/>
-      <c r="B1849" t="inlineStr"/>
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1849" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1849" t="inlineStr"/>
       <c r="D1849" t="inlineStr"/>
       <c r="E1849" s="4" t="inlineStr">
@@ -41190,7 +42398,11 @@
       <c r="K1849" t="inlineStr"/>
     </row>
     <row r="1850">
-      <c r="A1850" t="inlineStr"/>
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
       <c r="B1850" t="inlineStr"/>
       <c r="C1850" t="inlineStr"/>
       <c r="D1850" t="inlineStr">

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -898,7 +898,11 @@
       <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
@@ -933,8 +937,18 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: FOB/PO/2023/8/5023
+Lender Amount: 95200.00
+Borrower Amount: 95200.00</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
@@ -951,7 +965,11 @@
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
@@ -5626,7 +5644,11 @@
       <c r="K238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
@@ -5661,8 +5683,18 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
-      <c r="B240" t="inlineStr"/>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B240" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: FOB/PO/2023/8/5000
+Lender Amount: 289000.00
+Borrower Amount: 289000.00</t>
+        </is>
+      </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
       <c r="E240" s="4" t="inlineStr">
@@ -5678,7 +5710,11 @@
       <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
@@ -7310,7 +7346,11 @@
       <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
@@ -7345,8 +7385,18 @@
       <c r="K311" t="inlineStr"/>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr"/>
-      <c r="B312" t="inlineStr"/>
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B312" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: OPE/PO/2024/9/29742
+Lender Amount: 124670.00
+Borrower Amount: 124670.00</t>
+        </is>
+      </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr"/>
       <c r="E312" s="4" t="inlineStr">
@@ -7362,7 +7412,11 @@
       <c r="K312" t="inlineStr"/>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr"/>
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
@@ -9770,7 +9824,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>M011</t>
+          <t>M010</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -9809,7 +9863,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>M011</t>
+          <t>M010</t>
         </is>
       </c>
       <c r="B415" s="4" t="inlineStr">
@@ -9836,7 +9890,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>M011</t>
+          <t>M010</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -9861,7 +9915,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>M012</t>
+          <t>M011</t>
         </is>
       </c>
       <c r="B417" t="inlineStr"/>
@@ -9900,7 +9954,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>M012</t>
+          <t>M011</t>
         </is>
       </c>
       <c r="B418" s="4" t="inlineStr">
@@ -9927,7 +9981,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>M012</t>
+          <t>M011</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -11123,7 +11177,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>M014</t>
+          <t>M012</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -11162,7 +11216,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>M014</t>
+          <t>M012</t>
         </is>
       </c>
       <c r="B470" s="4" t="inlineStr">
@@ -11189,7 +11243,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>M014</t>
+          <t>M012</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -11214,7 +11268,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>M015</t>
+          <t>M013</t>
         </is>
       </c>
       <c r="B472" t="inlineStr"/>
@@ -11253,7 +11307,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>M015</t>
+          <t>M013</t>
         </is>
       </c>
       <c r="B473" s="4" t="inlineStr">
@@ -11280,7 +11334,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>M015</t>
+          <t>M013</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -11305,7 +11359,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>M016</t>
+          <t>M014</t>
         </is>
       </c>
       <c r="B475" t="inlineStr"/>
@@ -11344,7 +11398,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>M016</t>
+          <t>M014</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
@@ -11371,7 +11425,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>M016</t>
+          <t>M014</t>
         </is>
       </c>
       <c r="B477" t="inlineStr"/>
@@ -11396,7 +11450,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>M018</t>
+          <t>M015</t>
         </is>
       </c>
       <c r="B478" t="inlineStr"/>
@@ -11435,7 +11489,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>M018</t>
+          <t>M015</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
@@ -11462,7 +11516,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>M018</t>
+          <t>M015</t>
         </is>
       </c>
       <c r="B480" t="inlineStr"/>
@@ -11560,7 +11614,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>M013</t>
+          <t>M016</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -11599,7 +11653,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>M013</t>
+          <t>M016</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
@@ -11626,7 +11680,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>M013</t>
+          <t>M016</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -12452,7 +12506,11 @@
       <c r="K519" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr"/>
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr">
         <is>
@@ -12487,8 +12545,18 @@
       <c r="K520" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr"/>
-      <c r="B521" t="inlineStr"/>
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B521" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: GEO/PO/2023/3/12915
+Lender Amount: 400000.00
+Borrower Amount: 400000.00</t>
+        </is>
+      </c>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr"/>
       <c r="E521" s="4" t="inlineStr">
@@ -12504,7 +12572,11 @@
       <c r="K521" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr"/>
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
@@ -15553,7 +15625,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>M010</t>
+          <t>M018</t>
         </is>
       </c>
       <c r="B675" t="inlineStr"/>
@@ -15592,7 +15664,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>M010</t>
+          <t>M018</t>
         </is>
       </c>
       <c r="B676" s="4" t="inlineStr">
@@ -15619,7 +15691,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>M010</t>
+          <t>M018</t>
         </is>
       </c>
       <c r="B677" t="inlineStr"/>
@@ -22402,7 +22474,11 @@
       <c r="K987" t="inlineStr"/>
     </row>
     <row r="988">
-      <c r="A988" t="inlineStr"/>
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B988" t="inlineStr"/>
       <c r="C988" t="inlineStr">
         <is>
@@ -22437,8 +22513,18 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989" t="inlineStr"/>
-      <c r="B989" t="inlineStr"/>
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B989" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: CHA/PO/2023/12/20766
+Lender Amount: 2000000.00
+Borrower Amount: 2000000.00</t>
+        </is>
+      </c>
       <c r="C989" t="inlineStr"/>
       <c r="D989" t="inlineStr"/>
       <c r="E989" s="4" t="inlineStr">
@@ -22454,7 +22540,11 @@
       <c r="K989" t="inlineStr"/>
     </row>
     <row r="990">
-      <c r="A990" t="inlineStr"/>
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B990" t="inlineStr"/>
       <c r="C990" t="inlineStr"/>
       <c r="D990" t="inlineStr">
@@ -29437,7 +29527,11 @@
       <c r="K1293" t="inlineStr"/>
     </row>
     <row r="1294">
-      <c r="A1294" t="inlineStr"/>
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
       <c r="B1294" t="inlineStr"/>
       <c r="C1294" t="inlineStr">
         <is>
@@ -29472,8 +29566,18 @@
       </c>
     </row>
     <row r="1295">
-      <c r="A1295" t="inlineStr"/>
-      <c r="B1295" t="inlineStr"/>
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B1295" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: BPD/PO/2025/3/32659
+Lender Amount: 768000.00
+Borrower Amount: 768000.00</t>
+        </is>
+      </c>
       <c r="C1295" t="inlineStr"/>
       <c r="D1295" t="inlineStr"/>
       <c r="E1295" s="4" t="inlineStr">
@@ -29489,7 +29593,11 @@
       <c r="K1295" t="inlineStr"/>
     </row>
     <row r="1296">
-      <c r="A1296" t="inlineStr"/>
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
       <c r="B1296" t="inlineStr"/>
       <c r="C1296" t="inlineStr"/>
       <c r="D1296" t="inlineStr">
@@ -29729,7 +29837,11 @@
       <c r="K1305" t="inlineStr"/>
     </row>
     <row r="1306">
-      <c r="A1306" t="inlineStr"/>
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B1306" t="inlineStr"/>
       <c r="C1306" t="inlineStr">
         <is>
@@ -29764,8 +29876,18 @@
       <c r="K1306" t="inlineStr"/>
     </row>
     <row r="1307">
-      <c r="A1307" t="inlineStr"/>
-      <c r="B1307" t="inlineStr"/>
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B1307" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: OPE/PO/2023/10/18781
+Lender Amount: 13920.00
+Borrower Amount: 13920.00</t>
+        </is>
+      </c>
       <c r="C1307" t="inlineStr"/>
       <c r="D1307" t="inlineStr"/>
       <c r="E1307" s="4" t="inlineStr">
@@ -29781,7 +29903,11 @@
       <c r="K1307" t="inlineStr"/>
     </row>
     <row r="1308">
-      <c r="A1308" t="inlineStr"/>
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B1308" t="inlineStr"/>
       <c r="C1308" t="inlineStr"/>
       <c r="D1308" t="inlineStr">
@@ -36640,7 +36766,11 @@
       <c r="K1612" t="inlineStr"/>
     </row>
     <row r="1613">
-      <c r="A1613" t="inlineStr"/>
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
       <c r="B1613" t="inlineStr"/>
       <c r="C1613" t="inlineStr">
         <is>
@@ -36675,8 +36805,18 @@
       <c r="K1613" t="inlineStr"/>
     </row>
     <row r="1614">
-      <c r="A1614" t="inlineStr"/>
-      <c r="B1614" t="inlineStr"/>
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B1614" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: OPE/PO/2024/10/29964
+Lender Amount: 24800.00
+Borrower Amount: 24800.00</t>
+        </is>
+      </c>
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" s="4" t="inlineStr">
@@ -36693,7 +36833,11 @@
       <c r="K1614" t="inlineStr"/>
     </row>
     <row r="1615">
-      <c r="A1615" t="inlineStr"/>
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
       <c r="B1615" t="inlineStr"/>
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">

--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$9:$L$9</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -47187,6 +47189,7 @@
       <c r="L1969" s="1" t="inlineStr"/>
     </row>
   </sheetData>
+  <autoFilter ref="A9:L9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output/Interunit Steel_MATCHED.xlsx
+++ b/Output/Interunit Steel_MATCHED.xlsx
@@ -1544,7 +1544,11 @@
       <c r="L42" s="1" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr"/>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>M074</t>
+        </is>
+      </c>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -1580,8 +1584,18 @@
       <c r="L43" s="1" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr"/>
-      <c r="B44" s="2" t="inlineStr"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>M074</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: PBL#11502 ↔ PBL#10855
+Lender Amount: 104470400.00
+Borrower Amount: 104470400.00</t>
+        </is>
+      </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
@@ -1595,10 +1609,18 @@
       <c r="I44" s="1" t="inlineStr"/>
       <c r="J44" s="1" t="inlineStr"/>
       <c r="K44" s="1" t="inlineStr"/>
-      <c r="L44" s="1" t="inlineStr"/>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr"/>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>M074</t>
+        </is>
+      </c>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
@@ -9479,7 +9501,11 @@
       <c r="L379" s="1" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="inlineStr"/>
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
       <c r="B380" s="2" t="inlineStr"/>
       <c r="C380" s="1" t="inlineStr">
         <is>
@@ -9515,7 +9541,11 @@
       <c r="L380" s="1" t="inlineStr"/>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="inlineStr"/>
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
       <c r="B381" s="2" t="inlineStr"/>
       <c r="C381" s="1" t="inlineStr"/>
       <c r="D381" s="1" t="inlineStr"/>
@@ -9535,7 +9565,11 @@
       <c r="L381" s="1" t="inlineStr"/>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="inlineStr"/>
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
       <c r="B382" s="2" t="inlineStr"/>
       <c r="C382" s="1" t="inlineStr"/>
       <c r="D382" s="1" t="inlineStr"/>
@@ -9555,8 +9589,18 @@
       <c r="L382" s="1" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="inlineStr"/>
-      <c r="B383" s="2" t="inlineStr"/>
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3129
+Lender Amount: 52816886.08
+Borrower Amount: 52816886.08</t>
+        </is>
+      </c>
       <c r="C383" s="1" t="inlineStr"/>
       <c r="D383" s="1" t="inlineStr"/>
       <c r="E383" s="2" t="inlineStr">
@@ -9570,10 +9614,18 @@
       <c r="I383" s="1" t="inlineStr"/>
       <c r="J383" s="1" t="inlineStr"/>
       <c r="K383" s="1" t="inlineStr"/>
-      <c r="L383" s="1" t="inlineStr"/>
+      <c r="L383" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="inlineStr"/>
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
       <c r="B384" s="2" t="inlineStr"/>
       <c r="C384" s="1" t="inlineStr"/>
       <c r="D384" s="1" t="inlineStr">
@@ -24953,7 +25005,11 @@
       <c r="L1035" s="1" t="inlineStr"/>
     </row>
     <row r="1036">
-      <c r="A1036" s="1" t="inlineStr"/>
+      <c r="A1036" s="1" t="inlineStr">
+        <is>
+          <t>M076</t>
+        </is>
+      </c>
       <c r="B1036" s="2" t="inlineStr"/>
       <c r="C1036" s="1" t="inlineStr">
         <is>
@@ -24989,8 +25045,18 @@
       <c r="L1036" s="1" t="inlineStr"/>
     </row>
     <row r="1037">
-      <c r="A1037" s="1" t="inlineStr"/>
-      <c r="B1037" s="2" t="inlineStr"/>
+      <c r="A1037" s="1" t="inlineStr">
+        <is>
+          <t>M076</t>
+        </is>
+      </c>
+      <c r="B1037" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3265
+Lender Amount: 236808.62
+Borrower Amount: 236808.62</t>
+        </is>
+      </c>
       <c r="C1037" s="1" t="inlineStr"/>
       <c r="D1037" s="1" t="inlineStr"/>
       <c r="E1037" s="2" t="inlineStr">
@@ -25004,10 +25070,18 @@
       <c r="I1037" s="1" t="inlineStr"/>
       <c r="J1037" s="1" t="inlineStr"/>
       <c r="K1037" s="1" t="inlineStr"/>
-      <c r="L1037" s="1" t="inlineStr"/>
+      <c r="L1037" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1038">
-      <c r="A1038" s="1" t="inlineStr"/>
+      <c r="A1038" s="1" t="inlineStr">
+        <is>
+          <t>M076</t>
+        </is>
+      </c>
       <c r="B1038" s="2" t="inlineStr"/>
       <c r="C1038" s="1" t="inlineStr"/>
       <c r="D1038" s="1" t="inlineStr">
@@ -32404,7 +32478,11 @@
       <c r="L1345" s="1" t="inlineStr"/>
     </row>
     <row r="1346">
-      <c r="A1346" s="1" t="inlineStr"/>
+      <c r="A1346" s="1" t="inlineStr">
+        <is>
+          <t>M077</t>
+        </is>
+      </c>
       <c r="B1346" s="2" t="inlineStr"/>
       <c r="C1346" s="1" t="inlineStr">
         <is>
@@ -32440,8 +32518,18 @@
       <c r="L1346" s="1" t="inlineStr"/>
     </row>
     <row r="1347">
-      <c r="A1347" s="1" t="inlineStr"/>
-      <c r="B1347" s="2" t="inlineStr"/>
+      <c r="A1347" s="1" t="inlineStr">
+        <is>
+          <t>M077</t>
+        </is>
+      </c>
+      <c r="B1347" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3129
+Lender Amount: 618489.91
+Borrower Amount: 618489.91</t>
+        </is>
+      </c>
       <c r="C1347" s="1" t="inlineStr"/>
       <c r="D1347" s="1" t="inlineStr"/>
       <c r="E1347" s="2" t="inlineStr">
@@ -32455,10 +32543,18 @@
       <c r="I1347" s="1" t="inlineStr"/>
       <c r="J1347" s="1" t="inlineStr"/>
       <c r="K1347" s="1" t="inlineStr"/>
-      <c r="L1347" s="1" t="inlineStr"/>
+      <c r="L1347" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1348">
-      <c r="A1348" s="1" t="inlineStr"/>
+      <c r="A1348" s="1" t="inlineStr">
+        <is>
+          <t>M077</t>
+        </is>
+      </c>
       <c r="B1348" s="2" t="inlineStr"/>
       <c r="C1348" s="1" t="inlineStr"/>
       <c r="D1348" s="1" t="inlineStr">
@@ -32860,7 +32956,11 @@
       <c r="L1363" s="1" t="inlineStr"/>
     </row>
     <row r="1364">
-      <c r="A1364" s="1" t="inlineStr"/>
+      <c r="A1364" s="1" t="inlineStr">
+        <is>
+          <t>M078</t>
+        </is>
+      </c>
       <c r="B1364" s="2" t="inlineStr"/>
       <c r="C1364" s="1" t="inlineStr">
         <is>
@@ -32896,8 +32996,18 @@
       <c r="L1364" s="1" t="inlineStr"/>
     </row>
     <row r="1365">
-      <c r="A1365" s="1" t="inlineStr"/>
-      <c r="B1365" s="2" t="inlineStr"/>
+      <c r="A1365" s="1" t="inlineStr">
+        <is>
+          <t>M078</t>
+        </is>
+      </c>
+      <c r="B1365" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3129
+Lender Amount: 90000.00
+Borrower Amount: 90000.00</t>
+        </is>
+      </c>
       <c r="C1365" s="1" t="inlineStr"/>
       <c r="D1365" s="1" t="inlineStr"/>
       <c r="E1365" s="2" t="inlineStr">
@@ -32911,10 +33021,18 @@
       <c r="I1365" s="1" t="inlineStr"/>
       <c r="J1365" s="1" t="inlineStr"/>
       <c r="K1365" s="1" t="inlineStr"/>
-      <c r="L1365" s="1" t="inlineStr"/>
+      <c r="L1365" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1366">
-      <c r="A1366" s="1" t="inlineStr"/>
+      <c r="A1366" s="1" t="inlineStr">
+        <is>
+          <t>M078</t>
+        </is>
+      </c>
       <c r="B1366" s="2" t="inlineStr"/>
       <c r="C1366" s="1" t="inlineStr"/>
       <c r="D1366" s="1" t="inlineStr">
@@ -33746,7 +33864,11 @@
       <c r="L1396" s="1" t="inlineStr"/>
     </row>
     <row r="1397">
-      <c r="A1397" s="1" t="inlineStr"/>
+      <c r="A1397" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
       <c r="B1397" s="2" t="inlineStr"/>
       <c r="C1397" s="1" t="inlineStr">
         <is>
@@ -33782,8 +33904,18 @@
       <c r="L1397" s="1" t="inlineStr"/>
     </row>
     <row r="1398">
-      <c r="A1398" s="1" t="inlineStr"/>
-      <c r="B1398" s="2" t="inlineStr"/>
+      <c r="A1398" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
+      <c r="B1398" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: OBL#2451 ↔ MDB#0331
+Lender Amount: 500000.00
+Borrower Amount: 500000.00</t>
+        </is>
+      </c>
       <c r="C1398" s="1" t="inlineStr"/>
       <c r="D1398" s="1" t="inlineStr"/>
       <c r="E1398" s="2" t="inlineStr">
@@ -33797,10 +33929,18 @@
       <c r="I1398" s="1" t="inlineStr"/>
       <c r="J1398" s="1" t="inlineStr"/>
       <c r="K1398" s="1" t="inlineStr"/>
-      <c r="L1398" s="1" t="inlineStr"/>
+      <c r="L1398" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1399">
-      <c r="A1399" s="1" t="inlineStr"/>
+      <c r="A1399" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
       <c r="B1399" s="2" t="inlineStr"/>
       <c r="C1399" s="1" t="inlineStr"/>
       <c r="D1399" s="1" t="inlineStr">
@@ -38863,7 +39003,11 @@
       <c r="L1618" s="1" t="inlineStr"/>
     </row>
     <row r="1619">
-      <c r="A1619" s="1" t="inlineStr"/>
+      <c r="A1619" s="1" t="inlineStr">
+        <is>
+          <t>M080</t>
+        </is>
+      </c>
       <c r="B1619" s="2" t="inlineStr"/>
       <c r="C1619" s="1" t="inlineStr">
         <is>
@@ -38899,8 +39043,18 @@
       <c r="L1619" s="1" t="inlineStr"/>
     </row>
     <row r="1620">
-      <c r="A1620" s="1" t="inlineStr"/>
-      <c r="B1620" s="2" t="inlineStr"/>
+      <c r="A1620" s="1" t="inlineStr">
+        <is>
+          <t>M080</t>
+        </is>
+      </c>
+      <c r="B1620" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3265
+Lender Amount: 2100000.00
+Borrower Amount: 2100000.00</t>
+        </is>
+      </c>
       <c r="C1620" s="1" t="inlineStr"/>
       <c r="D1620" s="1" t="inlineStr"/>
       <c r="E1620" s="2" t="inlineStr">
@@ -38914,10 +39068,18 @@
       <c r="I1620" s="1" t="inlineStr"/>
       <c r="J1620" s="1" t="inlineStr"/>
       <c r="K1620" s="1" t="inlineStr"/>
-      <c r="L1620" s="1" t="inlineStr"/>
+      <c r="L1620" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1621">
-      <c r="A1621" s="1" t="inlineStr"/>
+      <c r="A1621" s="1" t="inlineStr">
+        <is>
+          <t>M080</t>
+        </is>
+      </c>
       <c r="B1621" s="2" t="inlineStr"/>
       <c r="C1621" s="1" t="inlineStr"/>
       <c r="D1621" s="1" t="inlineStr">
@@ -40731,7 +40893,11 @@
       <c r="L1693" s="1" t="inlineStr"/>
     </row>
     <row r="1694">
-      <c r="A1694" s="1" t="inlineStr"/>
+      <c r="A1694" s="1" t="inlineStr">
+        <is>
+          <t>M081</t>
+        </is>
+      </c>
       <c r="B1694" s="2" t="inlineStr"/>
       <c r="C1694" s="1" t="inlineStr">
         <is>
@@ -40767,8 +40933,18 @@
       <c r="L1694" s="1" t="inlineStr"/>
     </row>
     <row r="1695">
-      <c r="A1695" s="1" t="inlineStr"/>
-      <c r="B1695" s="2" t="inlineStr"/>
+      <c r="A1695" s="1" t="inlineStr">
+        <is>
+          <t>M081</t>
+        </is>
+      </c>
+      <c r="B1695" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#11026 ↔ MDB#0331
+Lender Amount: 12000000.00
+Borrower Amount: 12000000.00</t>
+        </is>
+      </c>
       <c r="C1695" s="1" t="inlineStr"/>
       <c r="D1695" s="1" t="inlineStr"/>
       <c r="E1695" s="2" t="inlineStr">
@@ -40782,10 +40958,18 @@
       <c r="I1695" s="1" t="inlineStr"/>
       <c r="J1695" s="1" t="inlineStr"/>
       <c r="K1695" s="1" t="inlineStr"/>
-      <c r="L1695" s="1" t="inlineStr"/>
+      <c r="L1695" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1696">
-      <c r="A1696" s="1" t="inlineStr"/>
+      <c r="A1696" s="1" t="inlineStr">
+        <is>
+          <t>M081</t>
+        </is>
+      </c>
       <c r="B1696" s="2" t="inlineStr"/>
       <c r="C1696" s="1" t="inlineStr"/>
       <c r="D1696" s="1" t="inlineStr">
@@ -41899,7 +42083,11 @@
       <c r="L1738" s="1" t="inlineStr"/>
     </row>
     <row r="1739">
-      <c r="A1739" s="1" t="inlineStr"/>
+      <c r="A1739" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
       <c r="B1739" s="2" t="inlineStr"/>
       <c r="C1739" s="1" t="inlineStr">
         <is>
@@ -41935,8 +42123,18 @@
       <c r="L1739" s="1" t="inlineStr"/>
     </row>
     <row r="1740">
-      <c r="A1740" s="1" t="inlineStr"/>
-      <c r="B1740" s="2" t="inlineStr"/>
+      <c r="A1740" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
+      <c r="B1740" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: OBL#2451 ↔ MDB#0331
+Lender Amount: 500000.00
+Borrower Amount: 500000.00</t>
+        </is>
+      </c>
       <c r="C1740" s="1" t="inlineStr"/>
       <c r="D1740" s="1" t="inlineStr"/>
       <c r="E1740" s="2" t="inlineStr">
@@ -41950,10 +42148,18 @@
       <c r="I1740" s="1" t="inlineStr"/>
       <c r="J1740" s="1" t="inlineStr"/>
       <c r="K1740" s="1" t="inlineStr"/>
-      <c r="L1740" s="1" t="inlineStr"/>
+      <c r="L1740" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1741">
-      <c r="A1741" s="1" t="inlineStr"/>
+      <c r="A1741" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
       <c r="B1741" s="2" t="inlineStr"/>
       <c r="C1741" s="1" t="inlineStr"/>
       <c r="D1741" s="1" t="inlineStr">
